--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1048,8 +1048,11 @@
       <c r="HK1" s="1" t="n">
         <v>10305</v>
       </c>
-      <c r="HL1" t="n">
+      <c r="HL1" s="1" t="n">
         <v>10313</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10327</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1712,8 +1715,11 @@
       <c r="HK2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HL2" s="1" t="n">
         <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2376,8 +2382,11 @@
       <c r="HK3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HL3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3040,7 +3049,10 @@
       <c r="HK4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,7 +3716,10 @@
       <c r="HK5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL5" t="n">
+      <c r="HL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4368,8 +4383,11 @@
       <c r="HK6" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HL6" t="n">
+      <c r="HL6" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5032,8 +5050,11 @@
       <c r="HK7" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HL7" t="n">
+      <c r="HL7" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5696,8 +5717,11 @@
       <c r="HK8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="HL8" t="n">
+      <c r="HL8" s="1" t="n">
         <v>-17</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6360,7 +6384,10 @@
       <c r="HK9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL9" t="n">
+      <c r="HL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,8 +7051,11 @@
       <c r="HK10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL10" t="n">
+      <c r="HL10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7688,8 +7718,11 @@
       <c r="HK11" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="HL11" t="n">
+      <c r="HL11" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8352,8 +8385,11 @@
       <c r="HK12" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="HL12" t="n">
+      <c r="HL12" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9016,8 +9052,11 @@
       <c r="HK13" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="HL13" t="n">
+      <c r="HL13" s="1" t="n">
         <v>263</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9680,8 +9719,11 @@
       <c r="HK14" s="1" t="n">
         <v>1.81</v>
       </c>
-      <c r="HL14" t="n">
+      <c r="HL14" s="1" t="n">
         <v>1.92</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10344,8 +10386,11 @@
       <c r="HK15" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HL15" t="n">
+      <c r="HL15" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11008,8 +11053,11 @@
       <c r="HK16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HL16" t="n">
+      <c r="HL16" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11672,8 +11720,11 @@
       <c r="HK17" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HL17" t="n">
+      <c r="HL17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12336,8 +12387,11 @@
       <c r="HK18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HL18" t="n">
+      <c r="HL18" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13000,8 +13054,11 @@
       <c r="HK19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL19" t="n">
+      <c r="HL19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13664,8 +13721,11 @@
       <c r="HK20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL20" t="n">
+      <c r="HL20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14328,8 +14388,11 @@
       <c r="HK21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL21" t="n">
+      <c r="HL21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -14992,8 +15055,11 @@
       <c r="HK22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL22" t="n">
+      <c r="HL22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15656,8 +15722,11 @@
       <c r="HK23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL23" t="n">
+      <c r="HL23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16320,8 +16389,11 @@
       <c r="HK24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HL24" t="n">
+      <c r="HL24" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -16984,8 +17056,11 @@
       <c r="HK25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HL25" t="n">
+      <c r="HL25" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17648,8 +17723,11 @@
       <c r="HK26" s="1" t="n">
         <v>34.12</v>
       </c>
-      <c r="HL26" t="n">
+      <c r="HL26" s="1" t="n">
         <v>26.3</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>34.27</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18312,8 +18390,11 @@
       <c r="HK27" s="1" t="n">
         <v>17.06</v>
       </c>
-      <c r="HL27" t="n">
+      <c r="HL27" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>15.08</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -18976,8 +19057,11 @@
       <c r="HK28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL28" t="n">
+      <c r="HL28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19640,8 +19724,11 @@
       <c r="HK29" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HL29" t="n">
+      <c r="HL29" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20304,8 +20391,11 @@
       <c r="HK30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HL30" t="n">
+      <c r="HL30" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -20968,8 +21058,11 @@
       <c r="HK31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HL31" t="n">
+      <c r="HL31" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21632,8 +21725,11 @@
       <c r="HK32" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="HL32" t="n">
+      <c r="HL32" s="1" t="n">
         <v>3.36</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22296,8 +22392,11 @@
       <c r="HK33" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="HL33" t="n">
+      <c r="HL33" s="1" t="n">
         <v>3.7</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -22960,8 +23059,11 @@
       <c r="HK34" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="HL34" t="n">
+      <c r="HL34" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>56.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23624,8 +23726,11 @@
       <c r="HK35" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="HL35" t="n">
+      <c r="HL35" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24288,8 +24393,11 @@
       <c r="HK36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="HL36" t="n">
+      <c r="HL36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -24952,8 +25060,11 @@
       <c r="HK37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HL37" t="n">
+      <c r="HL37" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25616,8 +25727,11 @@
       <c r="HK38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HL38" t="n">
+      <c r="HL38" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26280,8 +26394,11 @@
       <c r="HK39" s="1" t="n">
         <v>113.5</v>
       </c>
-      <c r="HL39" t="n">
+      <c r="HL39" s="1" t="n">
         <v>112.4</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>90.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -26944,7 +27061,10 @@
       <c r="HK40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL40" t="n">
+      <c r="HL40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -27608,8 +27728,11 @@
       <c r="HK41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL41" t="n">
+      <c r="HL41" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28272,8 +28395,11 @@
       <c r="HK42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL42" t="n">
+      <c r="HL42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -28936,8 +29062,11 @@
       <c r="HK43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL43" t="n">
+      <c r="HL43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29600,8 +29729,11 @@
       <c r="HK44" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="HL44" t="n">
+      <c r="HL44" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30264,8 +30396,11 @@
       <c r="HK45" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="HL45" t="n">
+      <c r="HL45" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -30928,8 +31063,11 @@
       <c r="HK46" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="HL46" t="n">
+      <c r="HL46" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31592,8 +31730,11 @@
       <c r="HK47" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="HL47" t="n">
+      <c r="HL47" s="1" t="n">
         <v>61.6</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32256,8 +32397,11 @@
       <c r="HK48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HL48" t="n">
+      <c r="HL48" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -32920,8 +33064,11 @@
       <c r="HK49" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HL49" t="n">
+      <c r="HL49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -33584,7 +33731,10 @@
       <c r="HK50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL50" t="n">
+      <c r="HL50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -34248,8 +34398,11 @@
       <c r="HK51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL51" t="n">
+      <c r="HL51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -34912,8 +35065,11 @@
       <c r="HK52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HL52" t="n">
+      <c r="HL52" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -35576,8 +35732,11 @@
       <c r="HK53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HL53" t="n">
+      <c r="HL53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36240,8 +36399,11 @@
       <c r="HK54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL54" t="n">
+      <c r="HL54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -36904,8 +37066,11 @@
       <c r="HK55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL55" t="n">
+      <c r="HL55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -37568,8 +37733,11 @@
       <c r="HK56" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="HL56" t="n">
+      <c r="HL56" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38232,8 +38400,11 @@
       <c r="HK57" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="HL57" t="n">
+      <c r="HL57" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -38896,8 +39067,11 @@
       <c r="HK58" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="HL58" t="n">
+      <c r="HL58" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39560,8 +39734,11 @@
       <c r="HK59" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="HL59" t="n">
+      <c r="HL59" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40224,8 +40401,11 @@
       <c r="HK60" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="HL60" t="n">
+      <c r="HL60" s="1" t="n">
         <v>1.82</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -40888,8 +41068,11 @@
       <c r="HK61" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HL61" t="n">
+      <c r="HL61" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41552,8 +41735,11 @@
       <c r="HK62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HL62" t="n">
+      <c r="HL62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42216,8 +42402,11 @@
       <c r="HK63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HL63" t="n">
+      <c r="HL63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -42880,8 +43069,11 @@
       <c r="HK64" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL64" t="n">
+      <c r="HL64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43544,8 +43736,11 @@
       <c r="HK65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HL65" t="n">
+      <c r="HL65" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44208,8 +44403,11 @@
       <c r="HK66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL66" t="n">
+      <c r="HL66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -44872,8 +45070,11 @@
       <c r="HK67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL67" t="n">
+      <c r="HL67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -45536,8 +45737,11 @@
       <c r="HK68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HL68" t="n">
+      <c r="HL68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46200,8 +46404,11 @@
       <c r="HK69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL69" t="n">
+      <c r="HL69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -46864,8 +47071,11 @@
       <c r="HK70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HL70" t="n">
+      <c r="HL70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47528,8 +47738,11 @@
       <c r="HK71" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="HL71" t="n">
+      <c r="HL71" s="1" t="n">
         <v>47.8</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48192,8 +48405,11 @@
       <c r="HK72" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="HL72" t="n">
+      <c r="HL72" s="1" t="n">
         <v>24.36</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>25.07</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -48856,8 +49072,11 @@
       <c r="HK73" s="1" t="n">
         <v>14.73</v>
       </c>
-      <c r="HL73" t="n">
+      <c r="HL73" s="1" t="n">
         <v>11.65</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49520,8 +49739,11 @@
       <c r="HK74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HL74" t="n">
+      <c r="HL74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50184,8 +50406,11 @@
       <c r="HK75" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HL75" t="n">
+      <c r="HL75" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -50848,8 +51073,11 @@
       <c r="HK76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HL76" t="n">
+      <c r="HL76" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -51512,8 +51740,11 @@
       <c r="HK77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HL77" t="n">
+      <c r="HL77" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52176,8 +52407,11 @@
       <c r="HK78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL78" t="n">
+      <c r="HL78" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -52840,8 +53074,11 @@
       <c r="HK79" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="HL79" t="n">
+      <c r="HL79" s="1" t="n">
         <v>5.55</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53504,8 +53741,11 @@
       <c r="HK80" s="1" t="n">
         <v>43.2</v>
       </c>
-      <c r="HL80" t="n">
+      <c r="HL80" s="1" t="n">
         <v>34.4</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54168,8 +54408,11 @@
       <c r="HK81" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="HL81" t="n">
+      <c r="HL81" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -54832,8 +55075,11 @@
       <c r="HK82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="HL82" t="n">
+      <c r="HL82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>185.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55496,8 +55742,11 @@
       <c r="HK83" s="1" t="n">
         <v>85.2</v>
       </c>
-      <c r="HL83" t="n">
+      <c r="HL83" s="1" t="n">
         <v>88.40000000000001</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56160,7 +56409,10 @@
       <c r="HK84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="HL84" t="n">
+      <c r="HL84" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HM84" t="n">
         <v>26.8</v>
       </c>
     </row>
@@ -56824,8 +57076,11 @@
       <c r="HK85" s="1" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="HL85" t="n">
+      <c r="HL85" s="1" t="n">
         <v>109.6</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>116.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -57488,8 +57743,11 @@
       <c r="HK86" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HL86" t="n">
+      <c r="HL86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58152,7 +58410,10 @@
       <c r="HK87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL87" t="n">
+      <c r="HL87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -58816,8 +59077,11 @@
       <c r="HK88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL88" t="n">
+      <c r="HL88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HM88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -59480,8 +59744,11 @@
       <c r="HK89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL89" t="n">
+      <c r="HL89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60144,8 +60411,11 @@
       <c r="HK90" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="HL90" t="n">
+      <c r="HL90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -60808,8 +61078,11 @@
       <c r="HK91" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="HL91" t="n">
+      <c r="HL91" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -61472,8 +61745,11 @@
       <c r="HK92" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="HL92" t="n">
+      <c r="HL92" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62136,8 +62412,11 @@
       <c r="HK93" s="1" t="n">
         <v>73.5</v>
       </c>
-      <c r="HL93" t="n">
+      <c r="HL93" s="1" t="n">
         <v>64.59999999999999</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -62800,8 +63079,11 @@
       <c r="HK94" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HL94" t="n">
+      <c r="HL94" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -63464,8 +63746,11 @@
       <c r="HK95" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL95" t="n">
+      <c r="HL95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64128,8 +64413,11 @@
       <c r="HK96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HL96" t="n">
+      <c r="HL96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -64792,8 +65080,11 @@
       <c r="HK97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HL97" t="n">
+      <c r="HL97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -65456,8 +65747,11 @@
       <c r="HK98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HL98" t="n">
+      <c r="HL98" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -66120,8 +66414,11 @@
       <c r="HK99" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL99" t="n">
+      <c r="HL99" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -66784,8 +67081,11 @@
       <c r="HK100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL100" t="n">
+      <c r="HL100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -67448,8 +67748,11 @@
       <c r="HK101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL101" t="n">
+      <c r="HL101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HM101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -68112,8 +68415,11 @@
       <c r="HK102" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HL102" t="n">
+      <c r="HL102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1051,8 +1051,11 @@
       <c r="HL1" s="1" t="n">
         <v>10313</v>
       </c>
-      <c r="HM1" t="n">
+      <c r="HM1" s="1" t="n">
         <v>10327</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10336</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1718,7 +1721,10 @@
       <c r="HL2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HM2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HN2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2385,8 +2391,11 @@
       <c r="HL3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HM3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3052,8 +3061,11 @@
       <c r="HL4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HM4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3719,8 +3731,11 @@
       <c r="HL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HM5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4386,8 +4401,11 @@
       <c r="HL6" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HM6" t="n">
+      <c r="HM6" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5053,8 +5071,11 @@
       <c r="HL7" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HM7" t="n">
+      <c r="HM7" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5720,8 +5741,11 @@
       <c r="HL8" s="1" t="n">
         <v>-17</v>
       </c>
-      <c r="HM8" t="n">
+      <c r="HM8" s="1" t="n">
         <v>-25</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6387,7 +6411,10 @@
       <c r="HL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM9" t="n">
+      <c r="HM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7054,8 +7081,11 @@
       <c r="HL10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HM10" t="n">
+      <c r="HM10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7721,8 +7751,11 @@
       <c r="HL11" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="HM11" t="n">
+      <c r="HM11" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8388,8 +8421,11 @@
       <c r="HL12" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="HM12" t="n">
+      <c r="HM12" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9055,8 +9091,11 @@
       <c r="HL13" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="HM13" t="n">
+      <c r="HM13" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9722,8 +9761,11 @@
       <c r="HL14" s="1" t="n">
         <v>1.92</v>
       </c>
-      <c r="HM14" t="n">
+      <c r="HM14" s="1" t="n">
         <v>1.65</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10389,8 +10431,11 @@
       <c r="HL15" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HM15" t="n">
+      <c r="HM15" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11056,8 +11101,11 @@
       <c r="HL16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="HM16" t="n">
+      <c r="HM16" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11723,8 +11771,11 @@
       <c r="HL17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HM17" t="n">
+      <c r="HM17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12390,8 +12441,11 @@
       <c r="HL18" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM18" t="n">
+      <c r="HM18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13057,8 +13111,11 @@
       <c r="HL19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HM19" t="n">
+      <c r="HM19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13724,8 +13781,11 @@
       <c r="HL20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM20" t="n">
+      <c r="HM20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14391,7 +14451,10 @@
       <c r="HL21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM21" t="n">
+      <c r="HM21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15058,8 +15121,11 @@
       <c r="HL22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM22" t="n">
+      <c r="HM22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15725,7 +15791,10 @@
       <c r="HL23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM23" t="n">
+      <c r="HM23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16392,8 +16461,11 @@
       <c r="HL24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HM24" t="n">
+      <c r="HM24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17059,8 +17131,11 @@
       <c r="HL25" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="HM25" t="n">
+      <c r="HM25" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17726,8 +17801,11 @@
       <c r="HL26" s="1" t="n">
         <v>26.3</v>
       </c>
-      <c r="HM26" t="n">
+      <c r="HM26" s="1" t="n">
         <v>34.27</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>26.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18393,8 +18471,11 @@
       <c r="HL27" s="1" t="n">
         <v>23.91</v>
       </c>
-      <c r="HM27" t="n">
+      <c r="HM27" s="1" t="n">
         <v>15.08</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19060,8 +19141,11 @@
       <c r="HL28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HM28" t="n">
+      <c r="HM28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19727,8 +19811,11 @@
       <c r="HL29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HM29" t="n">
+      <c r="HM29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20394,8 +20481,11 @@
       <c r="HL30" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HM30" t="n">
+      <c r="HM30" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21061,8 +21151,11 @@
       <c r="HL31" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HM31" t="n">
+      <c r="HM31" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21728,8 +21821,11 @@
       <c r="HL32" s="1" t="n">
         <v>3.36</v>
       </c>
-      <c r="HM32" t="n">
+      <c r="HM32" s="1" t="n">
         <v>1.64</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22395,8 +22491,11 @@
       <c r="HL33" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="HM33" t="n">
+      <c r="HM33" s="1" t="n">
         <v>3.73</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>4.54</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23062,8 +23161,11 @@
       <c r="HL34" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HM34" t="n">
+      <c r="HM34" s="1" t="n">
         <v>56.1</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23729,8 +23831,11 @@
       <c r="HL35" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HM35" t="n">
+      <c r="HM35" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24396,8 +24501,11 @@
       <c r="HL36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="HM36" t="n">
+      <c r="HM36" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25063,8 +25171,11 @@
       <c r="HL37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="HM37" t="n">
+      <c r="HM37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25730,8 +25841,11 @@
       <c r="HL38" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="HM38" t="n">
+      <c r="HM38" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26397,8 +26511,11 @@
       <c r="HL39" s="1" t="n">
         <v>112.4</v>
       </c>
-      <c r="HM39" t="n">
+      <c r="HM39" s="1" t="n">
         <v>90.5</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>97.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27064,8 +27181,11 @@
       <c r="HL40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM40" t="n">
+      <c r="HM40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -27731,8 +27851,11 @@
       <c r="HL41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM41" t="n">
+      <c r="HM41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28398,8 +28521,11 @@
       <c r="HL42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM42" t="n">
+      <c r="HM42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29065,7 +29191,10 @@
       <c r="HL43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM43" t="n">
+      <c r="HM43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29732,8 +29861,11 @@
       <c r="HL44" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HM44" t="n">
+      <c r="HM44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30399,8 +30531,11 @@
       <c r="HL45" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HM45" t="n">
+      <c r="HM45" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31066,8 +31201,11 @@
       <c r="HL46" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="HM46" t="n">
+      <c r="HM46" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31733,8 +31871,11 @@
       <c r="HL47" s="1" t="n">
         <v>61.6</v>
       </c>
-      <c r="HM47" t="n">
+      <c r="HM47" s="1" t="n">
         <v>74.5</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32400,8 +32541,11 @@
       <c r="HL48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HM48" t="n">
+      <c r="HM48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33067,7 +33211,10 @@
       <c r="HL49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM49" t="n">
+      <c r="HM49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -33734,8 +33881,11 @@
       <c r="HL50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM50" t="n">
+      <c r="HM50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34401,8 +34551,11 @@
       <c r="HL51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HM51" t="n">
+      <c r="HM51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35068,8 +35221,11 @@
       <c r="HL52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HM52" t="n">
+      <c r="HM52" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -35735,8 +35891,11 @@
       <c r="HL53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HM53" t="n">
+      <c r="HM53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36402,8 +36561,11 @@
       <c r="HL54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM54" t="n">
+      <c r="HM54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37069,7 +37231,10 @@
       <c r="HL55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM55" t="n">
+      <c r="HM55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -37736,8 +37901,11 @@
       <c r="HL56" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HM56" t="n">
+      <c r="HM56" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38403,8 +38571,11 @@
       <c r="HL57" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="HM57" t="n">
+      <c r="HM57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39070,8 +39241,11 @@
       <c r="HL58" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="HM58" t="n">
+      <c r="HM58" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39737,8 +39911,11 @@
       <c r="HL59" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="HM59" t="n">
+      <c r="HM59" s="1" t="n">
         <v>376</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40404,8 +40581,11 @@
       <c r="HL60" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="HM60" t="n">
+      <c r="HM60" s="1" t="n">
         <v>1.35</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41071,8 +41251,11 @@
       <c r="HL61" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HM61" t="n">
+      <c r="HM61" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41738,8 +41921,11 @@
       <c r="HL62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HM62" t="n">
+      <c r="HM62" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42405,8 +42591,11 @@
       <c r="HL63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HM63" t="n">
+      <c r="HM63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43072,8 +43261,11 @@
       <c r="HL64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HM64" t="n">
+      <c r="HM64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43739,8 +43931,11 @@
       <c r="HL65" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM65" t="n">
+      <c r="HM65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44406,8 +44601,11 @@
       <c r="HL66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HM66" t="n">
+      <c r="HM66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45073,8 +45271,11 @@
       <c r="HL67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM67" t="n">
+      <c r="HM67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -45740,8 +45941,11 @@
       <c r="HL68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM68" t="n">
+      <c r="HM68" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46407,8 +46611,11 @@
       <c r="HL69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HM69" t="n">
+      <c r="HM69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47074,8 +47281,11 @@
       <c r="HL70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HM70" t="n">
+      <c r="HM70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47741,8 +47951,11 @@
       <c r="HL71" s="1" t="n">
         <v>47.8</v>
       </c>
-      <c r="HM71" t="n">
+      <c r="HM71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48408,8 +48621,11 @@
       <c r="HL72" s="1" t="n">
         <v>24.36</v>
       </c>
-      <c r="HM72" t="n">
+      <c r="HM72" s="1" t="n">
         <v>25.07</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>23.19</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49075,8 +49291,11 @@
       <c r="HL73" s="1" t="n">
         <v>11.65</v>
       </c>
-      <c r="HM73" t="n">
+      <c r="HM73" s="1" t="n">
         <v>12.53</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>14.27</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49742,8 +49961,11 @@
       <c r="HL74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HM74" t="n">
+      <c r="HM74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50409,8 +50631,11 @@
       <c r="HL75" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HM75" t="n">
+      <c r="HM75" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51076,8 +51301,11 @@
       <c r="HL76" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HM76" t="n">
+      <c r="HM76" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -51743,8 +51971,11 @@
       <c r="HL77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HM77" t="n">
+      <c r="HM77" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52410,8 +52641,11 @@
       <c r="HL78" s="1" t="n">
         <v>2.65</v>
       </c>
-      <c r="HM78" t="n">
+      <c r="HM78" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53077,8 +53311,11 @@
       <c r="HL79" s="1" t="n">
         <v>5.55</v>
       </c>
-      <c r="HM79" t="n">
+      <c r="HM79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53744,8 +53981,11 @@
       <c r="HL80" s="1" t="n">
         <v>34.4</v>
       </c>
-      <c r="HM80" t="n">
+      <c r="HM80" s="1" t="n">
         <v>38.7</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54411,8 +54651,11 @@
       <c r="HL81" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM81" t="n">
+      <c r="HM81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55078,8 +55321,11 @@
       <c r="HL82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HM82" t="n">
+      <c r="HM82" s="1" t="n">
         <v>185.5</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55745,8 +55991,11 @@
       <c r="HL83" s="1" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="HM83" t="n">
+      <c r="HM83" s="1" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56412,8 +56661,11 @@
       <c r="HL84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HM84" t="n">
+      <c r="HM84" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57079,8 +57331,11 @@
       <c r="HL85" s="1" t="n">
         <v>109.6</v>
       </c>
-      <c r="HM85" t="n">
+      <c r="HM85" s="1" t="n">
         <v>116.1</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -57746,8 +58001,11 @@
       <c r="HL86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM86" t="n">
+      <c r="HM86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58413,8 +58671,11 @@
       <c r="HL87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HM87" t="n">
+      <c r="HM87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59080,8 +59341,11 @@
       <c r="HL88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM88" t="n">
+      <c r="HM88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -59747,8 +60011,11 @@
       <c r="HL89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HM89" t="n">
+      <c r="HM89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60414,8 +60681,11 @@
       <c r="HL90" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HM90" t="n">
+      <c r="HM90" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61081,8 +61351,11 @@
       <c r="HL91" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="HM91" t="n">
+      <c r="HM91" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -61748,8 +62021,11 @@
       <c r="HL92" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="HM92" t="n">
+      <c r="HM92" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62415,8 +62691,11 @@
       <c r="HL93" s="1" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="HM93" t="n">
+      <c r="HM93" s="1" t="n">
         <v>71.3</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63082,8 +63361,11 @@
       <c r="HL94" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HM94" t="n">
+      <c r="HM94" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -63749,8 +64031,11 @@
       <c r="HL95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HM95" t="n">
+      <c r="HM95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64416,8 +64701,11 @@
       <c r="HL96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM96" t="n">
+      <c r="HM96" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65083,8 +65371,11 @@
       <c r="HL97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HM97" t="n">
+      <c r="HM97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -65750,8 +66041,11 @@
       <c r="HL98" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HM98" t="n">
+      <c r="HM98" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -66417,8 +66711,11 @@
       <c r="HL99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HM99" t="n">
+      <c r="HM99" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67084,8 +67381,11 @@
       <c r="HL100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM100" t="n">
+      <c r="HM100" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -67751,8 +68051,11 @@
       <c r="HL101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM101" t="n">
+      <c r="HM101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -68418,8 +68721,11 @@
       <c r="HL102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="HM102" t="n">
+      <c r="HM102" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>81.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1054,8 +1054,11 @@
       <c r="HM1" s="1" t="n">
         <v>10327</v>
       </c>
-      <c r="HN1" t="n">
+      <c r="HN1" s="1" t="n">
         <v>10336</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10351</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1724,7 +1727,10 @@
       <c r="HM2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HN2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HO2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2394,8 +2400,11 @@
       <c r="HM3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HN3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3064,7 +3073,10 @@
       <c r="HM4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3734,8 +3746,11 @@
       <c r="HM5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HN5" t="n">
+      <c r="HN5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4404,8 +4419,11 @@
       <c r="HM6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HN6" t="n">
+      <c r="HN6" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5074,8 +5092,11 @@
       <c r="HM7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="HN7" t="n">
+      <c r="HN7" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5744,8 +5765,11 @@
       <c r="HM8" s="1" t="n">
         <v>-25</v>
       </c>
-      <c r="HN8" t="n">
+      <c r="HN8" s="1" t="n">
         <v>-21</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6414,8 +6438,11 @@
       <c r="HM9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HN9" t="n">
+      <c r="HN9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7084,8 +7111,11 @@
       <c r="HM10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HN10" t="n">
+      <c r="HN10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7754,8 +7784,11 @@
       <c r="HM11" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="HN11" t="n">
+      <c r="HN11" s="1" t="n">
         <v>214</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8424,8 +8457,11 @@
       <c r="HM12" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HN12" t="n">
+      <c r="HN12" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9094,8 +9130,11 @@
       <c r="HM13" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="HN13" t="n">
+      <c r="HN13" s="1" t="n">
         <v>346</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>428</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9764,8 +9803,11 @@
       <c r="HM14" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HN14" t="n">
+      <c r="HN14" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10434,8 +10476,11 @@
       <c r="HM15" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="HN15" t="n">
+      <c r="HN15" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11104,8 +11149,11 @@
       <c r="HM16" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HN16" t="n">
+      <c r="HN16" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11774,8 +11822,11 @@
       <c r="HM17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HN17" t="n">
+      <c r="HN17" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12444,8 +12495,11 @@
       <c r="HM18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HN18" t="n">
+      <c r="HN18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13114,8 +13168,11 @@
       <c r="HM19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HN19" t="n">
+      <c r="HN19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13784,8 +13841,11 @@
       <c r="HM20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HN20" t="n">
+      <c r="HN20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14454,8 +14514,11 @@
       <c r="HM21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN21" t="n">
+      <c r="HN21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15124,8 +15187,11 @@
       <c r="HM22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HN22" t="n">
+      <c r="HN22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15794,7 +15860,10 @@
       <c r="HM23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HN23" t="n">
+      <c r="HN23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16464,8 +16533,11 @@
       <c r="HM24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HN24" t="n">
+      <c r="HN24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17134,8 +17206,11 @@
       <c r="HM25" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HN25" t="n">
+      <c r="HN25" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17804,8 +17879,11 @@
       <c r="HM26" s="1" t="n">
         <v>34.27</v>
       </c>
-      <c r="HN26" t="n">
+      <c r="HN26" s="1" t="n">
         <v>26.62</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>26.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18474,8 +18552,11 @@
       <c r="HM27" s="1" t="n">
         <v>15.08</v>
       </c>
-      <c r="HN27" t="n">
+      <c r="HN27" s="1" t="n">
         <v>17.3</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>14.76</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19144,8 +19225,11 @@
       <c r="HM28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HN28" t="n">
+      <c r="HN28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19814,8 +19898,11 @@
       <c r="HM29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HN29" t="n">
+      <c r="HN29" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20484,8 +20571,11 @@
       <c r="HM30" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HN30" t="n">
+      <c r="HN30" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21154,8 +21244,11 @@
       <c r="HM31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HN31" t="n">
+      <c r="HN31" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21824,8 +21917,11 @@
       <c r="HM32" s="1" t="n">
         <v>1.64</v>
       </c>
-      <c r="HN32" t="n">
+      <c r="HN32" s="1" t="n">
         <v>2.95</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22494,8 +22590,11 @@
       <c r="HM33" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="HN33" t="n">
+      <c r="HN33" s="1" t="n">
         <v>4.54</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23164,8 +23263,11 @@
       <c r="HM34" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="HN34" t="n">
+      <c r="HN34" s="1" t="n">
         <v>30.5</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23834,8 +23936,11 @@
       <c r="HM35" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HN35" t="n">
+      <c r="HN35" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24504,8 +24609,11 @@
       <c r="HM36" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="HN36" t="n">
+      <c r="HN36" s="1" t="n">
         <v>188.1</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25174,8 +25282,11 @@
       <c r="HM37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HN37" t="n">
+      <c r="HN37" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25844,8 +25955,11 @@
       <c r="HM38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="HN38" t="n">
+      <c r="HN38" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26514,8 +26628,11 @@
       <c r="HM39" s="1" t="n">
         <v>90.5</v>
       </c>
-      <c r="HN39" t="n">
+      <c r="HN39" s="1" t="n">
         <v>97.5</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>105.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27184,7 +27301,10 @@
       <c r="HM40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HN40" t="n">
+      <c r="HN40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -27854,7 +27974,10 @@
       <c r="HM41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HN41" t="n">
+      <c r="HN41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28524,8 +28647,11 @@
       <c r="HM42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HN42" t="n">
+      <c r="HN42" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29194,8 +29320,11 @@
       <c r="HM43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HN43" t="n">
+      <c r="HN43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -29864,8 +29993,11 @@
       <c r="HM44" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="HN44" t="n">
+      <c r="HN44" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30534,8 +30666,11 @@
       <c r="HM45" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="HN45" t="n">
+      <c r="HN45" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31204,8 +31339,11 @@
       <c r="HM46" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="HN46" t="n">
+      <c r="HN46" s="1" t="n">
         <v>260</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -31874,8 +32012,11 @@
       <c r="HM47" s="1" t="n">
         <v>74.5</v>
       </c>
-      <c r="HN47" t="n">
+      <c r="HN47" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32544,8 +32685,11 @@
       <c r="HM48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HN48" t="n">
+      <c r="HN48" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33214,7 +33358,10 @@
       <c r="HM49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN49" t="n">
+      <c r="HN49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -33884,8 +34031,11 @@
       <c r="HM50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN50" t="n">
+      <c r="HN50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34554,8 +34704,11 @@
       <c r="HM51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HN51" t="n">
+      <c r="HN51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35224,8 +35377,11 @@
       <c r="HM52" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HN52" t="n">
+      <c r="HN52" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -35894,8 +36050,11 @@
       <c r="HM53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HN53" t="n">
+      <c r="HN53" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36564,8 +36723,11 @@
       <c r="HM54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN54" t="n">
+      <c r="HN54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37234,8 +37396,11 @@
       <c r="HM55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HN55" t="n">
+      <c r="HN55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -37904,8 +38069,11 @@
       <c r="HM56" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="HN56" t="n">
+      <c r="HN56" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38574,8 +38742,11 @@
       <c r="HM57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="HN57" t="n">
+      <c r="HN57" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39244,8 +39415,11 @@
       <c r="HM58" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="HN58" t="n">
+      <c r="HN58" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -39914,8 +40088,11 @@
       <c r="HM59" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="HN59" t="n">
+      <c r="HN59" s="1" t="n">
         <v>371</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40584,8 +40761,11 @@
       <c r="HM60" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="HN60" t="n">
+      <c r="HN60" s="1" t="n">
         <v>1.65</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41254,8 +41434,11 @@
       <c r="HM61" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="HN61" t="n">
+      <c r="HN61" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -41924,8 +42107,11 @@
       <c r="HM62" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HN62" t="n">
+      <c r="HN62" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42594,8 +42780,11 @@
       <c r="HM63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HN63" t="n">
+      <c r="HN63" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43264,8 +43453,11 @@
       <c r="HM64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HN64" t="n">
+      <c r="HN64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -43934,8 +44126,11 @@
       <c r="HM65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HN65" t="n">
+      <c r="HN65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44604,8 +44799,11 @@
       <c r="HM66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HN66" t="n">
+      <c r="HN66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45274,8 +45472,11 @@
       <c r="HM67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HN67" t="n">
+      <c r="HN67" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -45944,7 +46145,10 @@
       <c r="HM68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HN68" t="n">
+      <c r="HN68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -46614,7 +46818,10 @@
       <c r="HM69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HN69" t="n">
+      <c r="HN69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -47284,8 +47491,11 @@
       <c r="HM70" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HN70" t="n">
+      <c r="HN70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -47954,8 +48164,11 @@
       <c r="HM71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HN71" t="n">
+      <c r="HN71" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48624,8 +48837,11 @@
       <c r="HM72" s="1" t="n">
         <v>25.07</v>
       </c>
-      <c r="HN72" t="n">
+      <c r="HN72" s="1" t="n">
         <v>23.19</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>35.22</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49294,8 +49510,11 @@
       <c r="HM73" s="1" t="n">
         <v>12.53</v>
       </c>
-      <c r="HN73" t="n">
+      <c r="HN73" s="1" t="n">
         <v>14.27</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>16.68</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -49964,8 +50183,11 @@
       <c r="HM74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HN74" t="n">
+      <c r="HN74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50634,8 +50856,11 @@
       <c r="HM75" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HN75" t="n">
+      <c r="HN75" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51304,7 +51529,10 @@
       <c r="HM76" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HN76" t="n">
+      <c r="HN76" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HO76" t="n">
         <v>47</v>
       </c>
     </row>
@@ -51974,8 +52202,11 @@
       <c r="HM77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HN77" t="n">
+      <c r="HN77" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52644,8 +52875,11 @@
       <c r="HM78" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="HN78" t="n">
+      <c r="HN78" s="1" t="n">
         <v>1.85</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53314,8 +53548,11 @@
       <c r="HM79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HN79" t="n">
+      <c r="HN79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -53984,8 +54221,11 @@
       <c r="HM80" s="1" t="n">
         <v>38.7</v>
       </c>
-      <c r="HN80" t="n">
+      <c r="HN80" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54654,8 +54894,11 @@
       <c r="HM81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HN81" t="n">
+      <c r="HN81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55324,8 +55567,11 @@
       <c r="HM82" s="1" t="n">
         <v>185.5</v>
       </c>
-      <c r="HN82" t="n">
+      <c r="HN82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -55994,8 +56240,11 @@
       <c r="HM83" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="HN83" t="n">
+      <c r="HN83" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56664,8 +56913,11 @@
       <c r="HM84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HN84" t="n">
+      <c r="HN84" s="1" t="n">
         <v>26.41</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57334,8 +57586,11 @@
       <c r="HM85" s="1" t="n">
         <v>116.1</v>
       </c>
-      <c r="HN85" t="n">
+      <c r="HN85" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58004,8 +58259,11 @@
       <c r="HM86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HN86" t="n">
+      <c r="HN86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -58674,8 +58932,11 @@
       <c r="HM87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HN87" t="n">
+      <c r="HN87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59344,8 +59605,11 @@
       <c r="HM88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HN88" t="n">
+      <c r="HN88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60014,8 +60278,11 @@
       <c r="HM89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HN89" t="n">
+      <c r="HN89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60684,8 +60951,11 @@
       <c r="HM90" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HN90" t="n">
+      <c r="HN90" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61354,8 +61624,11 @@
       <c r="HM91" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="HN91" t="n">
+      <c r="HN91" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62024,8 +62297,11 @@
       <c r="HM92" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="HN92" t="n">
+      <c r="HN92" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62694,8 +62970,11 @@
       <c r="HM93" s="1" t="n">
         <v>71.3</v>
       </c>
-      <c r="HN93" t="n">
+      <c r="HN93" s="1" t="n">
         <v>74.40000000000001</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63364,8 +63643,11 @@
       <c r="HM94" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HN94" t="n">
+      <c r="HN94" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64034,8 +64316,11 @@
       <c r="HM95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HN95" t="n">
+      <c r="HN95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -64704,8 +64989,11 @@
       <c r="HM96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HN96" t="n">
+      <c r="HN96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65374,8 +65662,11 @@
       <c r="HM97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HN97" t="n">
+      <c r="HN97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66044,7 +66335,10 @@
       <c r="HM98" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HN98" t="n">
+      <c r="HN98" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HO98" t="n">
         <v>47</v>
       </c>
     </row>
@@ -66714,8 +67008,11 @@
       <c r="HM99" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HN99" t="n">
+      <c r="HN99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67384,8 +67681,11 @@
       <c r="HM100" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HN100" t="n">
+      <c r="HN100" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68054,8 +68354,11 @@
       <c r="HM101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HN101" t="n">
+      <c r="HN101" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -68724,8 +69027,11 @@
       <c r="HM102" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="HN102" t="n">
+      <c r="HN102" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1057,8 +1057,11 @@
       <c r="HN1" s="1" t="n">
         <v>10336</v>
       </c>
-      <c r="HO1" t="n">
+      <c r="HO1" s="1" t="n">
         <v>10351</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10358</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1730,7 +1733,10 @@
       <c r="HN2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HO2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HP2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2403,8 +2409,11 @@
       <c r="HN3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HO3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3076,8 +3085,11 @@
       <c r="HN4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HO4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3749,8 +3761,11 @@
       <c r="HN5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HO5" t="n">
+      <c r="HO5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4422,8 +4437,11 @@
       <c r="HN6" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HO6" t="n">
+      <c r="HO6" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5095,8 +5113,11 @@
       <c r="HN7" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="HO7" t="n">
+      <c r="HO7" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5768,8 +5789,11 @@
       <c r="HN8" s="1" t="n">
         <v>-21</v>
       </c>
-      <c r="HO8" t="n">
+      <c r="HO8" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6441,7 +6465,10 @@
       <c r="HN9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HO9" t="n">
+      <c r="HO9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,8 +7141,11 @@
       <c r="HN10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO10" t="n">
+      <c r="HO10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7787,8 +7817,11 @@
       <c r="HN11" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="HO11" t="n">
+      <c r="HO11" s="1" t="n">
         <v>262</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8460,8 +8493,11 @@
       <c r="HN12" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="HO12" t="n">
+      <c r="HO12" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9133,8 +9169,11 @@
       <c r="HN13" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="HO13" t="n">
+      <c r="HO13" s="1" t="n">
         <v>428</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9806,8 +9845,11 @@
       <c r="HN14" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="HO14" t="n">
+      <c r="HO14" s="1" t="n">
         <v>1.58</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10479,8 +10521,11 @@
       <c r="HN15" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HO15" t="n">
+      <c r="HO15" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11152,8 +11197,11 @@
       <c r="HN16" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HO16" t="n">
+      <c r="HO16" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11825,8 +11873,11 @@
       <c r="HN17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HO17" t="n">
+      <c r="HO17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12498,8 +12549,11 @@
       <c r="HN18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO18" t="n">
+      <c r="HO18" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13171,8 +13225,11 @@
       <c r="HN19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HO19" t="n">
+      <c r="HO19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13844,8 +13901,11 @@
       <c r="HN20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO20" t="n">
+      <c r="HO20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14517,8 +14577,11 @@
       <c r="HN21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HO21" t="n">
+      <c r="HO21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15190,8 +15253,11 @@
       <c r="HN22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HO22" t="n">
+      <c r="HO22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15863,8 +15929,11 @@
       <c r="HN23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO23" t="n">
+      <c r="HO23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16536,8 +16605,11 @@
       <c r="HN24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO24" t="n">
+      <c r="HO24" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17209,8 +17281,11 @@
       <c r="HN25" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HO25" t="n">
+      <c r="HO25" s="1" t="n">
         <v>55.2</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17882,8 +17957,11 @@
       <c r="HN26" s="1" t="n">
         <v>26.62</v>
       </c>
-      <c r="HO26" t="n">
+      <c r="HO26" s="1" t="n">
         <v>26.75</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>40.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18555,8 +18633,11 @@
       <c r="HN27" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="HO27" t="n">
+      <c r="HO27" s="1" t="n">
         <v>14.76</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>14.72</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19228,8 +19309,11 @@
       <c r="HN28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HO28" t="n">
+      <c r="HO28" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19901,8 +19985,11 @@
       <c r="HN29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HO29" t="n">
+      <c r="HO29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20574,8 +20661,11 @@
       <c r="HN30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HO30" t="n">
+      <c r="HO30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21247,8 +21337,11 @@
       <c r="HN31" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HO31" t="n">
+      <c r="HO31" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -21920,8 +22013,11 @@
       <c r="HN32" s="1" t="n">
         <v>2.95</v>
       </c>
-      <c r="HO32" t="n">
+      <c r="HO32" s="1" t="n">
         <v>2.21</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22593,8 +22689,11 @@
       <c r="HN33" s="1" t="n">
         <v>4.54</v>
       </c>
-      <c r="HO33" t="n">
+      <c r="HO33" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>6.22</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23266,8 +23365,11 @@
       <c r="HN34" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="HO34" t="n">
+      <c r="HO34" s="1" t="n">
         <v>42.2</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -23939,8 +24041,11 @@
       <c r="HN35" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HO35" t="n">
+      <c r="HO35" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24612,8 +24717,11 @@
       <c r="HN36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HO36" t="n">
+      <c r="HO36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25285,8 +25393,11 @@
       <c r="HN37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HO37" t="n">
+      <c r="HO37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -25958,8 +26069,11 @@
       <c r="HN38" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="HO38" t="n">
+      <c r="HO38" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26631,8 +26745,11 @@
       <c r="HN39" s="1" t="n">
         <v>97.5</v>
       </c>
-      <c r="HO39" t="n">
+      <c r="HO39" s="1" t="n">
         <v>105.4</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>100.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27304,8 +27421,11 @@
       <c r="HN40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO40" t="n">
+      <c r="HO40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -27977,7 +28097,10 @@
       <c r="HN41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO41" t="n">
+      <c r="HO41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28650,8 +28773,11 @@
       <c r="HN42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HO42" t="n">
+      <c r="HO42" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29323,7 +29449,10 @@
       <c r="HN43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HO43" t="n">
+      <c r="HO43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29996,8 +30125,11 @@
       <c r="HN44" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HO44" t="n">
+      <c r="HO44" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30669,8 +30801,11 @@
       <c r="HN45" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="HO45" t="n">
+      <c r="HO45" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31342,8 +31477,11 @@
       <c r="HN46" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="HO46" t="n">
+      <c r="HO46" s="1" t="n">
         <v>316</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32015,8 +32153,11 @@
       <c r="HN47" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="HO47" t="n">
+      <c r="HO47" s="1" t="n">
         <v>73.8</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>69.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32688,8 +32829,11 @@
       <c r="HN48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HO48" t="n">
+      <c r="HO48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33361,8 +33505,11 @@
       <c r="HN49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HO49" t="n">
+      <c r="HO49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34034,8 +34181,11 @@
       <c r="HN50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO50" t="n">
+      <c r="HO50" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34707,8 +34857,11 @@
       <c r="HN51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HO51" t="n">
+      <c r="HO51" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35380,8 +35533,11 @@
       <c r="HN52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HO52" t="n">
+      <c r="HO52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36053,8 +36209,11 @@
       <c r="HN53" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HO53" t="n">
+      <c r="HO53" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36726,8 +36885,11 @@
       <c r="HN54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HO54" t="n">
+      <c r="HO54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37399,8 +37561,11 @@
       <c r="HN55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HO55" t="n">
+      <c r="HO55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38072,8 +38237,11 @@
       <c r="HN56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="HO56" t="n">
+      <c r="HO56" s="1" t="n">
         <v>56.2</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -38745,8 +38913,11 @@
       <c r="HN57" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="HO57" t="n">
+      <c r="HO57" s="1" t="n">
         <v>196</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39418,8 +39589,11 @@
       <c r="HN58" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HO58" t="n">
+      <c r="HO58" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40091,8 +40265,11 @@
       <c r="HN59" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="HO59" t="n">
+      <c r="HO59" s="1" t="n">
         <v>317</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40764,8 +40941,11 @@
       <c r="HN60" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HO60" t="n">
+      <c r="HO60" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41437,8 +41617,11 @@
       <c r="HN61" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="HO61" t="n">
+      <c r="HO61" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42110,8 +42293,11 @@
       <c r="HN62" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HO62" t="n">
+      <c r="HO62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42783,8 +42969,11 @@
       <c r="HN63" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HO63" t="n">
+      <c r="HO63" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43456,8 +43645,11 @@
       <c r="HN64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HO64" t="n">
+      <c r="HO64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44129,8 +44321,11 @@
       <c r="HN65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HO65" t="n">
+      <c r="HO65" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -44802,8 +44997,11 @@
       <c r="HN66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HO66" t="n">
+      <c r="HO66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45475,7 +45673,10 @@
       <c r="HN67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO67" t="n">
+      <c r="HO67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -46148,8 +46349,11 @@
       <c r="HN68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HO68" t="n">
+      <c r="HO68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -46821,8 +47025,11 @@
       <c r="HN69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HO69" t="n">
+      <c r="HO69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47494,7 +47701,10 @@
       <c r="HN70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HO70" t="n">
+      <c r="HO70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HP70" t="n">
         <v>19</v>
       </c>
     </row>
@@ -48167,8 +48377,11 @@
       <c r="HN71" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="HO71" t="n">
+      <c r="HO71" s="1" t="n">
         <v>47.4</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -48840,8 +49053,11 @@
       <c r="HN72" s="1" t="n">
         <v>23.19</v>
       </c>
-      <c r="HO72" t="n">
+      <c r="HO72" s="1" t="n">
         <v>35.22</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>45.12</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49513,8 +49729,11 @@
       <c r="HN73" s="1" t="n">
         <v>14.27</v>
       </c>
-      <c r="HO73" t="n">
+      <c r="HO73" s="1" t="n">
         <v>16.68</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50186,8 +50405,11 @@
       <c r="HN74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HO74" t="n">
+      <c r="HO74" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -50859,8 +51081,11 @@
       <c r="HN75" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HO75" t="n">
+      <c r="HO75" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51532,8 +51757,11 @@
       <c r="HN76" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HO76" t="n">
+      <c r="HO76" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52205,8 +52433,11 @@
       <c r="HN77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HO77" t="n">
+      <c r="HO77" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -52878,8 +53109,11 @@
       <c r="HN78" s="1" t="n">
         <v>1.85</v>
       </c>
-      <c r="HO78" t="n">
+      <c r="HO78" s="1" t="n">
         <v>2.26</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53551,8 +53785,11 @@
       <c r="HN79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HO79" t="n">
+      <c r="HO79" s="1" t="n">
         <v>4.78</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54224,8 +54461,11 @@
       <c r="HN80" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HO80" t="n">
+      <c r="HO80" s="1" t="n">
         <v>39.5</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -54897,8 +55137,11 @@
       <c r="HN81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HO81" t="n">
+      <c r="HO81" s="1" t="n">
         <v>20.9</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55570,7 +55813,10 @@
       <c r="HN82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="HO82" t="n">
+      <c r="HO82" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="HP82" t="n">
         <v>186.3</v>
       </c>
     </row>
@@ -56243,8 +56489,11 @@
       <c r="HN83" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="HO83" t="n">
+      <c r="HO83" s="1" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>83.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -56916,8 +57165,11 @@
       <c r="HN84" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="HO84" t="n">
+      <c r="HO84" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57589,8 +57841,11 @@
       <c r="HN85" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HO85" t="n">
+      <c r="HO85" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58262,7 +58517,10 @@
       <c r="HN86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO86" t="n">
+      <c r="HO86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP86" t="n">
         <v>10</v>
       </c>
     </row>
@@ -58935,7 +59193,10 @@
       <c r="HN87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HO87" t="n">
+      <c r="HO87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -59608,8 +59869,11 @@
       <c r="HN88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HO88" t="n">
+      <c r="HO88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60281,8 +60545,11 @@
       <c r="HN89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HO89" t="n">
+      <c r="HO89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -60954,8 +61221,11 @@
       <c r="HN90" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="HO90" t="n">
+      <c r="HO90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61627,8 +61897,11 @@
       <c r="HN91" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="HO91" t="n">
+      <c r="HO91" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62300,8 +62573,11 @@
       <c r="HN92" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="HO92" t="n">
+      <c r="HO92" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -62973,8 +63249,11 @@
       <c r="HN93" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="HO93" t="n">
+      <c r="HO93" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63646,8 +63925,11 @@
       <c r="HN94" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HO94" t="n">
+      <c r="HO94" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64319,7 +64601,10 @@
       <c r="HN95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HO95" t="n">
+      <c r="HO95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -64992,8 +65277,11 @@
       <c r="HN96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO96" t="n">
+      <c r="HO96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65665,8 +65953,11 @@
       <c r="HN97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HO97" t="n">
+      <c r="HO97" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66338,8 +66629,11 @@
       <c r="HN98" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HO98" t="n">
+      <c r="HO98" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67011,8 +67305,11 @@
       <c r="HN99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HO99" t="n">
+      <c r="HO99" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67684,8 +67981,11 @@
       <c r="HN100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HO100" t="n">
+      <c r="HO100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68357,7 +68657,10 @@
       <c r="HN101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HO101" t="n">
+      <c r="HO101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -69030,8 +69333,11 @@
       <c r="HN102" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="HO102" t="n">
+      <c r="HO102" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1060,8 +1060,11 @@
       <c r="HO1" s="1" t="n">
         <v>10351</v>
       </c>
-      <c r="HP1" t="n">
+      <c r="HP1" s="1" t="n">
         <v>10358</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>10367</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1736,7 +1739,10 @@
       <c r="HO2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HP2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HQ2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2412,8 +2418,11 @@
       <c r="HO3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HP3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3088,8 +3097,11 @@
       <c r="HO4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HP4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3764,7 +3776,10 @@
       <c r="HO5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HP5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,8 +4455,11 @@
       <c r="HO6" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HP6" t="n">
+      <c r="HP6" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5116,8 +5134,11 @@
       <c r="HO7" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HP7" t="n">
+      <c r="HP7" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5792,8 +5813,11 @@
       <c r="HO8" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HP8" t="n">
+      <c r="HP8" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>-28</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6468,8 +6492,11 @@
       <c r="HO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP9" t="n">
+      <c r="HP9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7144,8 +7171,11 @@
       <c r="HO10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HP10" t="n">
+      <c r="HP10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7820,8 +7850,11 @@
       <c r="HO11" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="HP11" t="n">
+      <c r="HP11" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8496,8 +8529,11 @@
       <c r="HO12" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="HP12" t="n">
+      <c r="HP12" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9172,8 +9208,11 @@
       <c r="HO13" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="HP13" t="n">
+      <c r="HP13" s="1" t="n">
         <v>368</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9848,8 +9887,11 @@
       <c r="HO14" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="HP14" t="n">
+      <c r="HP14" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10524,8 +10566,11 @@
       <c r="HO15" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="HP15" t="n">
+      <c r="HP15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11200,8 +11245,11 @@
       <c r="HO16" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HP16" t="n">
+      <c r="HP16" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11876,8 +11924,11 @@
       <c r="HO17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HP17" t="n">
+      <c r="HP17" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12552,8 +12603,11 @@
       <c r="HO18" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP18" t="n">
+      <c r="HP18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13228,8 +13282,11 @@
       <c r="HO19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP19" t="n">
+      <c r="HP19" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13904,7 +13961,10 @@
       <c r="HO20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HP20" t="n">
+      <c r="HP20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -14580,7 +14640,10 @@
       <c r="HO21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP21" t="n">
+      <c r="HP21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15256,8 +15319,11 @@
       <c r="HO22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HP22" t="n">
+      <c r="HP22" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -15932,8 +15998,11 @@
       <c r="HO23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP23" t="n">
+      <c r="HP23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16608,8 +16677,11 @@
       <c r="HO24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP24" t="n">
+      <c r="HP24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17284,8 +17356,11 @@
       <c r="HO25" s="1" t="n">
         <v>55.2</v>
       </c>
-      <c r="HP25" t="n">
+      <c r="HP25" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -17960,8 +18035,11 @@
       <c r="HO26" s="1" t="n">
         <v>26.75</v>
       </c>
-      <c r="HP26" t="n">
+      <c r="HP26" s="1" t="n">
         <v>40.89</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18636,8 +18714,11 @@
       <c r="HO27" s="1" t="n">
         <v>14.76</v>
       </c>
-      <c r="HP27" t="n">
+      <c r="HP27" s="1" t="n">
         <v>14.72</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>14.48</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19312,8 +19393,11 @@
       <c r="HO28" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HP28" t="n">
+      <c r="HP28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HQ28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -19988,7 +20072,10 @@
       <c r="HO29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HP29" t="n">
+      <c r="HP29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HQ29" t="n">
         <v>59</v>
       </c>
     </row>
@@ -20664,8 +20751,11 @@
       <c r="HO30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HP30" t="n">
+      <c r="HP30" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21340,8 +21430,11 @@
       <c r="HO31" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HP31" t="n">
+      <c r="HP31" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22016,8 +22109,11 @@
       <c r="HO32" s="1" t="n">
         <v>2.21</v>
       </c>
-      <c r="HP32" t="n">
+      <c r="HP32" s="1" t="n">
         <v>2.24</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22692,8 +22788,11 @@
       <c r="HO33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP33" t="n">
+      <c r="HP33" s="1" t="n">
         <v>6.22</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>6.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23368,8 +23467,11 @@
       <c r="HO34" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="HP34" t="n">
+      <c r="HP34" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24044,8 +24146,11 @@
       <c r="HO35" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HP35" t="n">
+      <c r="HP35" s="1" t="n">
         <v>16.1</v>
+      </c>
+      <c r="HQ35" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24720,8 +24825,11 @@
       <c r="HO36" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="HP36" t="n">
+      <c r="HP36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="HQ36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25396,8 +25504,11 @@
       <c r="HO37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="HP37" t="n">
+      <c r="HP37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26072,8 +26183,11 @@
       <c r="HO38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HP38" t="n">
+      <c r="HP38" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="HQ38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -26748,8 +26862,11 @@
       <c r="HO39" s="1" t="n">
         <v>105.4</v>
       </c>
-      <c r="HP39" t="n">
+      <c r="HP39" s="1" t="n">
         <v>100.5</v>
+      </c>
+      <c r="HQ39" t="n">
+        <v>109.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27424,8 +27541,11 @@
       <c r="HO40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP40" t="n">
+      <c r="HP40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28100,8 +28220,11 @@
       <c r="HO41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP41" t="n">
+      <c r="HP41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HQ41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28776,8 +28899,11 @@
       <c r="HO42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP42" t="n">
+      <c r="HP42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HQ42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29452,7 +29578,10 @@
       <c r="HO43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP43" t="n">
+      <c r="HP43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30128,8 +30257,11 @@
       <c r="HO44" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="HP44" t="n">
+      <c r="HP44" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30804,8 +30936,11 @@
       <c r="HO45" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="HP45" t="n">
+      <c r="HP45" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31480,8 +31615,11 @@
       <c r="HO46" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="HP46" t="n">
+      <c r="HP46" s="1" t="n">
         <v>255</v>
+      </c>
+      <c r="HQ46" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32156,8 +32294,11 @@
       <c r="HO47" s="1" t="n">
         <v>73.8</v>
       </c>
-      <c r="HP47" t="n">
+      <c r="HP47" s="1" t="n">
         <v>69.3</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32832,7 +32973,10 @@
       <c r="HO48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HP48" t="n">
+      <c r="HP48" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HQ48" t="n">
         <v>59</v>
       </c>
     </row>
@@ -33508,8 +33652,11 @@
       <c r="HO49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP49" t="n">
+      <c r="HP49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HQ49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34184,8 +34331,11 @@
       <c r="HO50" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HP50" t="n">
+      <c r="HP50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -34860,8 +35010,11 @@
       <c r="HO51" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HP51" t="n">
+      <c r="HP51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HQ51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35536,8 +35689,11 @@
       <c r="HO52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HP52" t="n">
+      <c r="HP52" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36212,8 +36368,11 @@
       <c r="HO53" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HP53" t="n">
+      <c r="HP53" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -36888,7 +37047,10 @@
       <c r="HO54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP54" t="n">
+      <c r="HP54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37564,7 +37726,10 @@
       <c r="HO55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP55" t="n">
+      <c r="HP55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38240,7 +38405,10 @@
       <c r="HO56" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="HP56" t="n">
+      <c r="HP56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HQ56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -38916,8 +39084,11 @@
       <c r="HO57" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="HP57" t="n">
+      <c r="HP57" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="HQ57" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39592,8 +39763,11 @@
       <c r="HO58" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="HP58" t="n">
+      <c r="HP58" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40268,8 +40442,11 @@
       <c r="HO59" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="HP59" t="n">
+      <c r="HP59" s="1" t="n">
         <v>361</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -40944,8 +41121,11 @@
       <c r="HO60" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="HP60" t="n">
+      <c r="HP60" s="1" t="n">
         <v>2.25</v>
+      </c>
+      <c r="HQ60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41620,8 +41800,11 @@
       <c r="HO61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HP61" t="n">
+      <c r="HP61" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="HQ61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42296,8 +42479,11 @@
       <c r="HO62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HP62" t="n">
+      <c r="HP62" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -42972,8 +43158,11 @@
       <c r="HO63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HP63" t="n">
+      <c r="HP63" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43648,8 +43837,11 @@
       <c r="HO64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP64" t="n">
+      <c r="HP64" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44324,8 +44516,11 @@
       <c r="HO65" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP65" t="n">
+      <c r="HP65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45000,8 +45195,11 @@
       <c r="HO66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP66" t="n">
+      <c r="HP66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -45676,8 +45874,11 @@
       <c r="HO67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP67" t="n">
+      <c r="HP67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46352,8 +46553,11 @@
       <c r="HO68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HP68" t="n">
+      <c r="HP68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HQ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47028,8 +47232,11 @@
       <c r="HO69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP69" t="n">
+      <c r="HP69" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HQ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47704,8 +47911,11 @@
       <c r="HO70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HP70" t="n">
+      <c r="HP70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HQ70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48380,8 +48590,11 @@
       <c r="HO71" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="HP71" t="n">
+      <c r="HP71" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="HQ71" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49056,8 +49269,11 @@
       <c r="HO72" s="1" t="n">
         <v>35.22</v>
       </c>
-      <c r="HP72" t="n">
+      <c r="HP72" s="1" t="n">
         <v>45.12</v>
+      </c>
+      <c r="HQ72" t="n">
+        <v>26.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49732,8 +49948,11 @@
       <c r="HO73" s="1" t="n">
         <v>16.68</v>
       </c>
-      <c r="HP73" t="n">
+      <c r="HP73" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50408,8 +50627,11 @@
       <c r="HO74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP74" t="n">
+      <c r="HP74" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51084,8 +51306,11 @@
       <c r="HO75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HP75" t="n">
+      <c r="HP75" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51760,8 +51985,11 @@
       <c r="HO76" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HP76" t="n">
+      <c r="HP76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52436,8 +52664,11 @@
       <c r="HO77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HP77" t="n">
+      <c r="HP77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53112,8 +53343,11 @@
       <c r="HO78" s="1" t="n">
         <v>2.26</v>
       </c>
-      <c r="HP78" t="n">
+      <c r="HP78" s="1" t="n">
         <v>2.37</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -53788,8 +54022,11 @@
       <c r="HO79" s="1" t="n">
         <v>4.78</v>
       </c>
-      <c r="HP79" t="n">
+      <c r="HP79" s="1" t="n">
         <v>5.62</v>
+      </c>
+      <c r="HQ79" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54464,8 +54701,11 @@
       <c r="HO80" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="HP80" t="n">
+      <c r="HP80" s="1" t="n">
         <v>28.9</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55140,8 +55380,11 @@
       <c r="HO81" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="HP81" t="n">
+      <c r="HP81" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -55816,8 +56059,11 @@
       <c r="HO82" s="1" t="n">
         <v>186.3</v>
       </c>
-      <c r="HP82" t="n">
+      <c r="HP82" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -56492,8 +56738,11 @@
       <c r="HO83" s="1" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="HP83" t="n">
+      <c r="HP83" s="1" t="n">
         <v>83.7</v>
+      </c>
+      <c r="HQ83" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57168,8 +57417,11 @@
       <c r="HO84" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="HP84" t="n">
+      <c r="HP84" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -57844,8 +58096,11 @@
       <c r="HO85" s="1" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="HP85" t="n">
+      <c r="HP85" s="1" t="n">
         <v>73.7</v>
+      </c>
+      <c r="HQ85" t="n">
+        <v>101.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58520,8 +58775,11 @@
       <c r="HO86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP86" t="n">
+      <c r="HP86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59196,8 +59454,11 @@
       <c r="HO87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP87" t="n">
+      <c r="HP87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -59872,8 +60133,11 @@
       <c r="HO88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP88" t="n">
+      <c r="HP88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HQ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60548,8 +60812,11 @@
       <c r="HO89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP89" t="n">
+      <c r="HP89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HQ89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -61224,8 +61491,11 @@
       <c r="HO90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="HP90" t="n">
+      <c r="HP90" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="HQ90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -61900,8 +62170,11 @@
       <c r="HO91" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HP91" t="n">
+      <c r="HP91" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="HQ91" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62576,8 +62849,11 @@
       <c r="HO92" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="HP92" t="n">
+      <c r="HP92" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="HQ92" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63252,8 +63528,11 @@
       <c r="HO93" s="1" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="HP93" t="n">
+      <c r="HP93" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="HQ93" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -63928,8 +64207,11 @@
       <c r="HO94" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HP94" t="n">
+      <c r="HP94" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HQ94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64604,8 +64886,11 @@
       <c r="HO95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP95" t="n">
+      <c r="HP95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65280,8 +65565,11 @@
       <c r="HO96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP96" t="n">
+      <c r="HP96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -65956,8 +66244,11 @@
       <c r="HO97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP97" t="n">
+      <c r="HP97" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HQ97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66632,8 +66923,11 @@
       <c r="HO98" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HP98" t="n">
+      <c r="HP98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HQ98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67308,8 +67602,11 @@
       <c r="HO99" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HP99" t="n">
+      <c r="HP99" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HQ99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -67984,8 +68281,11 @@
       <c r="HO100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP100" t="n">
+      <c r="HP100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68660,8 +68960,11 @@
       <c r="HO101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HP101" t="n">
+      <c r="HP101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HQ101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -69336,8 +69639,11 @@
       <c r="HO102" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="HP102" t="n">
+      <c r="HP102" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="HQ102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1063,8 +1131,11 @@
       <c r="HP1" s="1" t="n">
         <v>10358</v>
       </c>
-      <c r="HQ1" t="n">
+      <c r="HQ1" s="1" t="n">
         <v>10367</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>10375</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1742,7 +1813,10 @@
       <c r="HP2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HQ2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HR2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2421,8 +2495,11 @@
       <c r="HP3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HQ3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3100,7 +3177,10 @@
       <c r="HP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HQ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3859,10 @@
       <c r="HP5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HQ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,8 +4541,11 @@
       <c r="HP6" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HQ6" t="n">
+      <c r="HQ6" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5137,8 +5223,11 @@
       <c r="HP7" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HQ7" t="n">
+      <c r="HQ7" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5816,8 +5905,11 @@
       <c r="HP8" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ8" t="n">
+      <c r="HQ8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6495,7 +6587,10 @@
       <c r="HP9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ9" t="n">
+      <c r="HQ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7174,8 +7269,11 @@
       <c r="HP10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HQ10" t="n">
+      <c r="HQ10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7853,8 +7951,11 @@
       <c r="HP11" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="HQ11" t="n">
+      <c r="HQ11" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8532,8 +8633,11 @@
       <c r="HP12" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="HQ12" t="n">
+      <c r="HQ12" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9211,8 +9315,11 @@
       <c r="HP13" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="HQ13" t="n">
+      <c r="HQ13" s="1" t="n">
         <v>333</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9890,8 +9997,11 @@
       <c r="HP14" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="HQ14" t="n">
+      <c r="HQ14" s="1" t="n">
         <v>1.77</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10569,8 +10679,11 @@
       <c r="HP15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="HQ15" t="n">
+      <c r="HQ15" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11248,8 +11361,11 @@
       <c r="HP16" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HQ16" t="n">
+      <c r="HQ16" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -11927,8 +12043,11 @@
       <c r="HP17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HQ17" t="n">
+      <c r="HQ17" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12606,8 +12725,11 @@
       <c r="HP18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HQ18" t="n">
+      <c r="HQ18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13285,8 +13407,11 @@
       <c r="HP19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HQ19" t="n">
+      <c r="HQ19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -13964,8 +14089,11 @@
       <c r="HP20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HQ20" t="n">
+      <c r="HQ20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14643,8 +14771,11 @@
       <c r="HP21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ21" t="n">
+      <c r="HQ21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15322,8 +15453,11 @@
       <c r="HP22" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HQ22" t="n">
+      <c r="HQ22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16001,8 +16135,11 @@
       <c r="HP23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HQ23" t="n">
+      <c r="HQ23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16680,8 +16817,11 @@
       <c r="HP24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HQ24" t="n">
+      <c r="HQ24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17359,8 +17499,11 @@
       <c r="HP25" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HQ25" t="n">
+      <c r="HQ25" s="1" t="n">
         <v>39.1</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18038,8 +18181,11 @@
       <c r="HP26" s="1" t="n">
         <v>40.89</v>
       </c>
-      <c r="HQ26" t="n">
+      <c r="HQ26" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>29.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18717,8 +18863,11 @@
       <c r="HP27" s="1" t="n">
         <v>14.72</v>
       </c>
-      <c r="HQ27" t="n">
+      <c r="HQ27" s="1" t="n">
         <v>14.48</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>14.24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19396,8 +19545,11 @@
       <c r="HP28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HQ28" t="n">
+      <c r="HQ28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20075,8 +20227,11 @@
       <c r="HP29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HQ29" t="n">
+      <c r="HQ29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20754,8 +20909,11 @@
       <c r="HP30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HQ30" t="n">
+      <c r="HQ30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21433,8 +21591,11 @@
       <c r="HP31" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HQ31" t="n">
+      <c r="HQ31" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22112,8 +22273,11 @@
       <c r="HP32" s="1" t="n">
         <v>2.24</v>
       </c>
-      <c r="HQ32" t="n">
+      <c r="HQ32" s="1" t="n">
         <v>2.48</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22791,8 +22955,11 @@
       <c r="HP33" s="1" t="n">
         <v>6.22</v>
       </c>
-      <c r="HQ33" t="n">
+      <c r="HQ33" s="1" t="n">
         <v>6.33</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23470,8 +23637,11 @@
       <c r="HP34" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="HQ34" t="n">
+      <c r="HQ34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24149,8 +24319,11 @@
       <c r="HP35" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="HQ35" t="n">
+      <c r="HQ35" s="1" t="n">
         <v>15.8</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -24828,8 +25001,11 @@
       <c r="HP36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="HQ36" t="n">
+      <c r="HQ36" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="HR36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25507,8 +25683,11 @@
       <c r="HP37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="HQ37" t="n">
+      <c r="HQ37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="HR37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26186,7 +26365,10 @@
       <c r="HP38" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="HQ38" t="n">
+      <c r="HQ38" s="1" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HR38" t="n">
         <v>26.33</v>
       </c>
     </row>
@@ -26865,8 +27047,11 @@
       <c r="HP39" s="1" t="n">
         <v>100.5</v>
       </c>
-      <c r="HQ39" t="n">
+      <c r="HQ39" s="1" t="n">
         <v>109.4</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>108.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27544,8 +27729,11 @@
       <c r="HP40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HQ40" t="n">
+      <c r="HQ40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28223,8 +28411,11 @@
       <c r="HP41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HQ41" t="n">
+      <c r="HQ41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -28902,7 +29093,10 @@
       <c r="HP42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ42" t="n">
+      <c r="HQ42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -29581,7 +29775,10 @@
       <c r="HP43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HQ43" t="n">
+      <c r="HQ43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30260,8 +30457,11 @@
       <c r="HP44" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="HQ44" t="n">
+      <c r="HQ44" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -30939,8 +31139,11 @@
       <c r="HP45" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="HQ45" t="n">
+      <c r="HQ45" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31618,8 +31821,11 @@
       <c r="HP46" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="HQ46" t="n">
+      <c r="HQ46" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32297,8 +32503,11 @@
       <c r="HP47" s="1" t="n">
         <v>69.3</v>
       </c>
-      <c r="HQ47" t="n">
+      <c r="HQ47" s="1" t="n">
         <v>68.2</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -32976,8 +33185,11 @@
       <c r="HP48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HQ48" t="n">
+      <c r="HQ48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33655,8 +33867,11 @@
       <c r="HP49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HQ49" t="n">
+      <c r="HQ49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34334,8 +34549,11 @@
       <c r="HP50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ50" t="n">
+      <c r="HQ50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35013,8 +35231,11 @@
       <c r="HP51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HQ51" t="n">
+      <c r="HQ51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35692,8 +35913,11 @@
       <c r="HP52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HQ52" t="n">
+      <c r="HQ52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36371,8 +36595,11 @@
       <c r="HP53" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HQ53" t="n">
+      <c r="HQ53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37050,8 +37277,11 @@
       <c r="HP54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HQ54" t="n">
+      <c r="HQ54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37729,8 +37959,11 @@
       <c r="HP55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ55" t="n">
+      <c r="HQ55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38408,8 +38641,11 @@
       <c r="HP56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HQ56" t="n">
+      <c r="HQ56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39087,8 +39323,11 @@
       <c r="HP57" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="HQ57" t="n">
+      <c r="HQ57" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -39766,8 +40005,11 @@
       <c r="HP58" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="HQ58" t="n">
+      <c r="HQ58" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40445,8 +40687,11 @@
       <c r="HP59" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="HQ59" t="n">
+      <c r="HQ59" s="1" t="n">
         <v>400</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41124,8 +41369,11 @@
       <c r="HP60" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="HQ60" t="n">
+      <c r="HQ60" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -41803,8 +42051,11 @@
       <c r="HP61" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="HQ61" t="n">
+      <c r="HQ61" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42482,8 +42733,11 @@
       <c r="HP62" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HQ62" t="n">
+      <c r="HQ62" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43161,8 +43415,11 @@
       <c r="HP63" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HQ63" t="n">
+      <c r="HQ63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -43840,8 +44097,11 @@
       <c r="HP64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HQ64" t="n">
+      <c r="HQ64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44519,8 +44779,11 @@
       <c r="HP65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HQ65" t="n">
+      <c r="HQ65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45198,7 +45461,10 @@
       <c r="HP66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HQ66" t="n">
+      <c r="HQ66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR66" t="n">
         <v>15</v>
       </c>
     </row>
@@ -45877,8 +46143,11 @@
       <c r="HP67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ67" t="n">
+      <c r="HQ67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46556,8 +46825,11 @@
       <c r="HP68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HQ68" t="n">
+      <c r="HQ68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47235,8 +47507,11 @@
       <c r="HP69" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HQ69" t="n">
+      <c r="HQ69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -47914,8 +48189,11 @@
       <c r="HP70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HQ70" t="n">
+      <c r="HQ70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48593,8 +48871,11 @@
       <c r="HP71" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="HQ71" t="n">
+      <c r="HQ71" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49272,8 +49553,11 @@
       <c r="HP72" s="1" t="n">
         <v>45.12</v>
       </c>
-      <c r="HQ72" t="n">
+      <c r="HQ72" s="1" t="n">
         <v>26.67</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>23.53</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -49951,8 +50235,11 @@
       <c r="HP73" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HQ73" t="n">
+      <c r="HQ73" s="1" t="n">
         <v>19.05</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>12.61</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50630,8 +50917,11 @@
       <c r="HP74" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HQ74" t="n">
+      <c r="HQ74" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51309,8 +51599,11 @@
       <c r="HP75" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HQ75" t="n">
+      <c r="HQ75" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -51988,8 +52281,11 @@
       <c r="HP76" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HQ76" t="n">
+      <c r="HQ76" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52667,8 +52963,11 @@
       <c r="HP77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HQ77" t="n">
+      <c r="HQ77" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53346,8 +53645,11 @@
       <c r="HP78" s="1" t="n">
         <v>2.37</v>
       </c>
-      <c r="HQ78" t="n">
+      <c r="HQ78" s="1" t="n">
         <v>2.29</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54025,8 +54327,11 @@
       <c r="HP79" s="1" t="n">
         <v>5.62</v>
       </c>
-      <c r="HQ79" t="n">
+      <c r="HQ79" s="1" t="n">
         <v>3.2</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -54704,8 +55009,11 @@
       <c r="HP80" s="1" t="n">
         <v>28.9</v>
       </c>
-      <c r="HQ80" t="n">
+      <c r="HQ80" s="1" t="n">
         <v>43.8</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55383,8 +55691,11 @@
       <c r="HP81" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="HQ81" t="n">
+      <c r="HQ81" s="1" t="n">
         <v>31.2</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56062,8 +56373,11 @@
       <c r="HP82" s="1" t="n">
         <v>186.3</v>
       </c>
-      <c r="HQ82" t="n">
+      <c r="HQ82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -56741,8 +57055,11 @@
       <c r="HP83" s="1" t="n">
         <v>83.7</v>
       </c>
-      <c r="HQ83" t="n">
+      <c r="HQ83" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57420,8 +57737,11 @@
       <c r="HP84" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="HQ84" t="n">
+      <c r="HQ84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58099,8 +58419,11 @@
       <c r="HP85" s="1" t="n">
         <v>73.7</v>
       </c>
-      <c r="HQ85" t="n">
+      <c r="HQ85" s="1" t="n">
         <v>101.6</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>109.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -58778,8 +59101,11 @@
       <c r="HP86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HQ86" t="n">
+      <c r="HQ86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59457,7 +59783,10 @@
       <c r="HP87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ87" t="n">
+      <c r="HQ87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -60136,8 +60465,11 @@
       <c r="HP88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HQ88" t="n">
+      <c r="HQ88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -60815,8 +61147,11 @@
       <c r="HP89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HQ89" t="n">
+      <c r="HQ89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HR89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -61494,8 +61829,11 @@
       <c r="HP90" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="HQ90" t="n">
+      <c r="HQ90" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62173,8 +62511,11 @@
       <c r="HP91" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="HQ91" t="n">
+      <c r="HQ91" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -62852,8 +63193,11 @@
       <c r="HP92" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="HQ92" t="n">
+      <c r="HQ92" s="1" t="n">
         <v>304</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63531,8 +63875,11 @@
       <c r="HP93" s="1" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="HQ93" t="n">
+      <c r="HQ93" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64210,8 +64557,11 @@
       <c r="HP94" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HQ94" t="n">
+      <c r="HQ94" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -64889,8 +65239,11 @@
       <c r="HP95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ95" t="n">
+      <c r="HQ95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65568,8 +65921,11 @@
       <c r="HP96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HQ96" t="n">
+      <c r="HQ96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66247,8 +66603,11 @@
       <c r="HP97" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HQ97" t="n">
+      <c r="HQ97" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -66926,8 +67285,11 @@
       <c r="HP98" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HQ98" t="n">
+      <c r="HQ98" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67605,8 +67967,11 @@
       <c r="HP99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HQ99" t="n">
+      <c r="HQ99" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68284,8 +68649,11 @@
       <c r="HP100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HQ100" t="n">
+      <c r="HQ100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -68963,8 +69331,11 @@
       <c r="HP101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HQ101" t="n">
+      <c r="HQ101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -69642,8 +70013,11 @@
       <c r="HP102" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="HQ102" t="n">
+      <c r="HQ102" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -85,74 +85,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -445,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1134,8 +1066,11 @@
       <c r="HQ1" s="1" t="n">
         <v>10367</v>
       </c>
-      <c r="HR1" t="n">
+      <c r="HR1" s="1" t="n">
         <v>10375</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10383</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1816,7 +1751,10 @@
       <c r="HQ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HR2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HS2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2498,8 +2436,11 @@
       <c r="HQ3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HR3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3180,8 +3121,11 @@
       <c r="HQ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HR4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3862,7 +3806,10 @@
       <c r="HQ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HR5" t="n">
+      <c r="HR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,8 +4491,11 @@
       <c r="HQ6" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HR6" t="n">
+      <c r="HR6" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5226,8 +5176,11 @@
       <c r="HQ7" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="HR7" t="n">
+      <c r="HR7" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5908,8 +5861,11 @@
       <c r="HQ8" s="1" t="n">
         <v>-28</v>
       </c>
-      <c r="HR8" t="n">
+      <c r="HR8" s="1" t="n">
         <v>-18</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6590,8 +6546,11 @@
       <c r="HQ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HR9" t="n">
+      <c r="HR9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7272,8 +7231,11 @@
       <c r="HQ10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HR10" t="n">
+      <c r="HR10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7954,8 +7916,11 @@
       <c r="HQ11" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="HR11" t="n">
+      <c r="HR11" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8636,8 +8601,11 @@
       <c r="HQ12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HR12" t="n">
+      <c r="HR12" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9318,8 +9286,11 @@
       <c r="HQ13" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="HR13" t="n">
+      <c r="HR13" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10000,8 +9971,11 @@
       <c r="HQ14" s="1" t="n">
         <v>1.77</v>
       </c>
-      <c r="HR14" t="n">
+      <c r="HR14" s="1" t="n">
         <v>1.68</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10682,8 +10656,11 @@
       <c r="HQ15" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="HR15" t="n">
+      <c r="HR15" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11364,8 +11341,11 @@
       <c r="HQ16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HR16" t="n">
+      <c r="HR16" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12046,8 +12026,11 @@
       <c r="HQ17" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HR17" t="n">
+      <c r="HR17" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12728,8 +12711,11 @@
       <c r="HQ18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HR18" t="n">
+      <c r="HR18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13410,7 +13396,10 @@
       <c r="HQ19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR19" t="n">
+      <c r="HR19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HS19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14092,8 +14081,11 @@
       <c r="HQ20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HR20" t="n">
+      <c r="HR20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14774,8 +14766,11 @@
       <c r="HQ21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR21" t="n">
+      <c r="HR21" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15456,8 +15451,11 @@
       <c r="HQ22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HR22" t="n">
+      <c r="HR22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16138,8 +16136,11 @@
       <c r="HQ23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR23" t="n">
+      <c r="HR23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16820,8 +16821,11 @@
       <c r="HQ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HR24" t="n">
+      <c r="HR24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17502,8 +17506,11 @@
       <c r="HQ25" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="HR25" t="n">
+      <c r="HR25" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18184,8 +18191,11 @@
       <c r="HQ26" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HR26" t="n">
+      <c r="HR26" s="1" t="n">
         <v>29.67</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>18.53</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18866,8 +18876,11 @@
       <c r="HQ27" s="1" t="n">
         <v>14.48</v>
       </c>
-      <c r="HR27" t="n">
+      <c r="HR27" s="1" t="n">
         <v>14.24</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>12.57</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19548,8 +19561,11 @@
       <c r="HQ28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HR28" t="n">
+      <c r="HR28" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20230,8 +20246,11 @@
       <c r="HQ29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HR29" t="n">
+      <c r="HR29" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20912,8 +20931,11 @@
       <c r="HQ30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HR30" t="n">
+      <c r="HR30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21594,8 +21616,11 @@
       <c r="HQ31" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HR31" t="n">
+      <c r="HR31" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22276,8 +22301,11 @@
       <c r="HQ32" s="1" t="n">
         <v>2.48</v>
       </c>
-      <c r="HR32" t="n">
+      <c r="HR32" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22958,8 +22986,11 @@
       <c r="HQ33" s="1" t="n">
         <v>6.33</v>
       </c>
-      <c r="HR33" t="n">
+      <c r="HR33" s="1" t="n">
         <v>4.83</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23640,8 +23671,11 @@
       <c r="HQ34" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HR34" t="n">
+      <c r="HR34" s="1" t="n">
         <v>41.4</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24322,8 +24356,11 @@
       <c r="HQ35" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="HR35" t="n">
+      <c r="HR35" s="1" t="n">
         <v>20.7</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25004,8 +25041,11 @@
       <c r="HQ36" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="HR36" t="n">
+      <c r="HR36" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25686,8 +25726,11 @@
       <c r="HQ37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="HR37" t="n">
+      <c r="HR37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26368,8 +26411,11 @@
       <c r="HQ38" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="HR38" t="n">
+      <c r="HR38" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27050,8 +27096,11 @@
       <c r="HQ39" s="1" t="n">
         <v>109.4</v>
       </c>
-      <c r="HR39" t="n">
+      <c r="HR39" s="1" t="n">
         <v>108.4</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27732,8 +27781,11 @@
       <c r="HQ40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR40" t="n">
+      <c r="HR40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28414,8 +28466,11 @@
       <c r="HQ41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR41" t="n">
+      <c r="HR41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29096,7 +29151,10 @@
       <c r="HQ42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR42" t="n">
+      <c r="HR42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -29778,8 +29836,11 @@
       <c r="HQ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR43" t="n">
+      <c r="HR43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30460,8 +30521,11 @@
       <c r="HQ44" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HR44" t="n">
+      <c r="HR44" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31142,8 +31206,11 @@
       <c r="HQ45" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="HR45" t="n">
+      <c r="HR45" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31824,8 +31891,11 @@
       <c r="HQ46" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="HR46" t="n">
+      <c r="HR46" s="1" t="n">
         <v>255</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32506,8 +32576,11 @@
       <c r="HQ47" s="1" t="n">
         <v>68.2</v>
       </c>
-      <c r="HR47" t="n">
+      <c r="HR47" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33188,8 +33261,11 @@
       <c r="HQ48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HR48" t="n">
+      <c r="HR48" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33870,8 +33946,11 @@
       <c r="HQ49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HR49" t="n">
+      <c r="HR49" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34552,8 +34631,11 @@
       <c r="HQ50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HR50" t="n">
+      <c r="HR50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35234,8 +35316,11 @@
       <c r="HQ51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HR51" t="n">
+      <c r="HR51" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -35916,8 +36001,11 @@
       <c r="HQ52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HR52" t="n">
+      <c r="HR52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36598,8 +36686,11 @@
       <c r="HQ53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HR53" t="n">
+      <c r="HR53" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37280,8 +37371,11 @@
       <c r="HQ54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR54" t="n">
+      <c r="HR54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -37962,8 +38056,11 @@
       <c r="HQ55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR55" t="n">
+      <c r="HR55" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38644,8 +38741,11 @@
       <c r="HQ56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HR56" t="n">
+      <c r="HR56" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>84.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39326,8 +39426,11 @@
       <c r="HQ57" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="HR57" t="n">
+      <c r="HR57" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40008,8 +40111,11 @@
       <c r="HQ58" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="HR58" t="n">
+      <c r="HR58" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40690,8 +40796,11 @@
       <c r="HQ59" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="HR59" t="n">
+      <c r="HR59" s="1" t="n">
         <v>353</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41372,8 +41481,11 @@
       <c r="HQ60" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="HR60" t="n">
+      <c r="HR60" s="1" t="n">
         <v>1.69</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42054,8 +42166,11 @@
       <c r="HQ61" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="HR61" t="n">
+      <c r="HR61" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42736,8 +42851,11 @@
       <c r="HQ62" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HR62" t="n">
+      <c r="HR62" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43418,8 +43536,11 @@
       <c r="HQ63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HR63" t="n">
+      <c r="HR63" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44100,8 +44221,11 @@
       <c r="HQ64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR64" t="n">
+      <c r="HR64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44782,8 +44906,11 @@
       <c r="HQ65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HR65" t="n">
+      <c r="HR65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45464,8 +45591,11 @@
       <c r="HQ66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR66" t="n">
+      <c r="HR66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46146,8 +46276,11 @@
       <c r="HQ67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HR67" t="n">
+      <c r="HR67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46828,8 +46961,11 @@
       <c r="HQ68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HR68" t="n">
+      <c r="HR68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47510,7 +47646,10 @@
       <c r="HQ69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HR69" t="n">
+      <c r="HR69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -48192,8 +48331,11 @@
       <c r="HQ70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HR70" t="n">
+      <c r="HR70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -48874,8 +49016,11 @@
       <c r="HQ71" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="HR71" t="n">
+      <c r="HR71" s="1" t="n">
         <v>53.6</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49556,8 +49701,11 @@
       <c r="HQ72" s="1" t="n">
         <v>26.67</v>
       </c>
-      <c r="HR72" t="n">
+      <c r="HR72" s="1" t="n">
         <v>23.53</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>22.69</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50238,8 +50386,11 @@
       <c r="HQ73" s="1" t="n">
         <v>19.05</v>
       </c>
-      <c r="HR73" t="n">
+      <c r="HR73" s="1" t="n">
         <v>12.61</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>13.44</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -50920,8 +51071,11 @@
       <c r="HQ74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HR74" t="n">
+      <c r="HR74" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51602,8 +51756,11 @@
       <c r="HQ75" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HR75" t="n">
+      <c r="HR75" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52284,8 +52441,11 @@
       <c r="HQ76" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HR76" t="n">
+      <c r="HR76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -52966,8 +53126,11 @@
       <c r="HQ77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HR77" t="n">
+      <c r="HR77" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53648,8 +53811,11 @@
       <c r="HQ78" s="1" t="n">
         <v>2.29</v>
       </c>
-      <c r="HR78" t="n">
+      <c r="HR78" s="1" t="n">
         <v>2.18</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54330,8 +54496,11 @@
       <c r="HQ79" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="HR79" t="n">
+      <c r="HR79" s="1" t="n">
         <v>4.07</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55012,8 +55181,11 @@
       <c r="HQ80" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="HR80" t="n">
+      <c r="HR80" s="1" t="n">
         <v>42.6</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55694,8 +55866,11 @@
       <c r="HQ81" s="1" t="n">
         <v>31.2</v>
       </c>
-      <c r="HR81" t="n">
+      <c r="HR81" s="1" t="n">
         <v>24.6</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56376,8 +56551,11 @@
       <c r="HQ82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HR82" t="n">
+      <c r="HR82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57058,8 +57236,11 @@
       <c r="HQ83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="HR83" t="n">
+      <c r="HR83" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57740,8 +57921,11 @@
       <c r="HQ84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HR84" t="n">
+      <c r="HR84" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58422,8 +58606,11 @@
       <c r="HQ85" s="1" t="n">
         <v>101.6</v>
       </c>
-      <c r="HR85" t="n">
+      <c r="HR85" s="1" t="n">
         <v>109.8</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59104,8 +59291,11 @@
       <c r="HQ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR86" t="n">
+      <c r="HR86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59786,7 +59976,10 @@
       <c r="HQ87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HR87" t="n">
+      <c r="HR87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -60468,8 +60661,11 @@
       <c r="HQ88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR88" t="n">
+      <c r="HR88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61150,8 +61346,11 @@
       <c r="HQ89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HR89" t="n">
+      <c r="HR89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -61832,8 +62031,11 @@
       <c r="HQ90" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="HR90" t="n">
+      <c r="HR90" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62514,8 +62716,11 @@
       <c r="HQ91" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="HR91" t="n">
+      <c r="HR91" s="1" t="n">
         <v>197</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63196,8 +63401,11 @@
       <c r="HQ92" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="HR92" t="n">
+      <c r="HR92" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -63878,8 +64086,11 @@
       <c r="HQ93" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HR93" t="n">
+      <c r="HR93" s="1" t="n">
         <v>71.7</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64560,8 +64771,11 @@
       <c r="HQ94" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HR94" t="n">
+      <c r="HR94" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -65242,8 +65456,11 @@
       <c r="HQ95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HR95" t="n">
+      <c r="HR95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -65924,8 +66141,11 @@
       <c r="HQ96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HR96" t="n">
+      <c r="HR96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66606,8 +66826,11 @@
       <c r="HQ97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HR97" t="n">
+      <c r="HR97" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -67288,8 +67511,11 @@
       <c r="HQ98" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HR98" t="n">
+      <c r="HR98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -67970,8 +68196,11 @@
       <c r="HQ99" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HR99" t="n">
+      <c r="HR99" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68652,8 +68881,11 @@
       <c r="HQ100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HR100" t="n">
+      <c r="HR100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69334,8 +69566,11 @@
       <c r="HQ101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HR101" t="n">
+      <c r="HR101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70016,8 +70251,11 @@
       <c r="HQ102" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="HR102" t="n">
+      <c r="HR102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>81.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1069,8 +1069,11 @@
       <c r="HR1" s="1" t="n">
         <v>10375</v>
       </c>
-      <c r="HS1" t="n">
+      <c r="HS1" s="1" t="n">
         <v>10383</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>10396</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1754,7 +1757,10 @@
       <c r="HR2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HS2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HT2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2439,8 +2445,11 @@
       <c r="HR3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HS3" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3124,7 +3133,10 @@
       <c r="HR4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HS4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,8 +3821,11 @@
       <c r="HR5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS5" t="n">
+      <c r="HS5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4494,8 +4509,11 @@
       <c r="HR6" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HS6" t="n">
+      <c r="HS6" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5179,7 +5197,10 @@
       <c r="HR7" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="HS7" t="n">
+      <c r="HS7" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="HT7" t="n">
         <v>107</v>
       </c>
     </row>
@@ -5864,8 +5885,11 @@
       <c r="HR8" s="1" t="n">
         <v>-18</v>
       </c>
-      <c r="HS8" t="n">
+      <c r="HS8" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6549,8 +6573,11 @@
       <c r="HR9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HS9" t="n">
+      <c r="HS9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7234,8 +7261,11 @@
       <c r="HR10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HS10" t="n">
+      <c r="HS10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7919,8 +7949,11 @@
       <c r="HR11" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="HS11" t="n">
+      <c r="HS11" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8604,8 +8637,11 @@
       <c r="HR12" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="HS12" t="n">
+      <c r="HS12" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9289,8 +9325,11 @@
       <c r="HR13" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="HS13" t="n">
+      <c r="HS13" s="1" t="n">
         <v>352</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -9974,8 +10013,11 @@
       <c r="HR14" s="1" t="n">
         <v>1.68</v>
       </c>
-      <c r="HS14" t="n">
+      <c r="HS14" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10659,7 +10701,10 @@
       <c r="HR15" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="HS15" t="n">
+      <c r="HS15" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="HT15" t="n">
         <v>83</v>
       </c>
     </row>
@@ -11344,8 +11389,11 @@
       <c r="HR16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HS16" t="n">
+      <c r="HS16" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12029,8 +12077,11 @@
       <c r="HR17" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HS17" t="n">
+      <c r="HS17" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12714,8 +12765,11 @@
       <c r="HR18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HS18" t="n">
+      <c r="HS18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13399,8 +13453,11 @@
       <c r="HR19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HS19" t="n">
+      <c r="HS19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14084,8 +14141,11 @@
       <c r="HR20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS20" t="n">
+      <c r="HS20" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14769,8 +14829,11 @@
       <c r="HR21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS21" t="n">
+      <c r="HS21" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15454,8 +15517,11 @@
       <c r="HR22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS22" t="n">
+      <c r="HS22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16139,8 +16205,11 @@
       <c r="HR23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS23" t="n">
+      <c r="HS23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -16824,8 +16893,11 @@
       <c r="HR24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HS24" t="n">
+      <c r="HS24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17509,8 +17581,11 @@
       <c r="HR25" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HS25" t="n">
+      <c r="HS25" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18194,8 +18269,11 @@
       <c r="HR26" s="1" t="n">
         <v>29.67</v>
       </c>
-      <c r="HS26" t="n">
+      <c r="HS26" s="1" t="n">
         <v>18.53</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>24.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18879,8 +18957,11 @@
       <c r="HR27" s="1" t="n">
         <v>14.24</v>
       </c>
-      <c r="HS27" t="n">
+      <c r="HS27" s="1" t="n">
         <v>12.57</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19564,8 +19645,11 @@
       <c r="HR28" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HS28" t="n">
+      <c r="HS28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20249,8 +20333,11 @@
       <c r="HR29" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HS29" t="n">
+      <c r="HS29" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -20934,8 +21021,11 @@
       <c r="HR30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HS30" t="n">
+      <c r="HS30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21619,8 +21709,11 @@
       <c r="HR31" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HS31" t="n">
+      <c r="HS31" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22304,8 +22397,11 @@
       <c r="HR32" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="HS32" t="n">
+      <c r="HS32" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -22989,8 +23085,11 @@
       <c r="HR33" s="1" t="n">
         <v>4.83</v>
       </c>
-      <c r="HS33" t="n">
+      <c r="HS33" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23674,8 +23773,11 @@
       <c r="HR34" s="1" t="n">
         <v>41.4</v>
       </c>
-      <c r="HS34" t="n">
+      <c r="HS34" s="1" t="n">
         <v>45.6</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>56.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24359,8 +24461,11 @@
       <c r="HR35" s="1" t="n">
         <v>20.7</v>
       </c>
-      <c r="HS35" t="n">
+      <c r="HS35" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25044,7 +25149,10 @@
       <c r="HR36" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="HS36" t="n">
+      <c r="HS36" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HT36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -25729,8 +25837,11 @@
       <c r="HR37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="HS37" t="n">
+      <c r="HS37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26414,8 +26525,11 @@
       <c r="HR38" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="HS38" t="n">
+      <c r="HS38" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27099,8 +27213,11 @@
       <c r="HR39" s="1" t="n">
         <v>108.4</v>
       </c>
-      <c r="HS39" t="n">
+      <c r="HS39" s="1" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27784,8 +27901,11 @@
       <c r="HR40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HS40" t="n">
+      <c r="HS40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28469,7 +28589,10 @@
       <c r="HR41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HS41" t="n">
+      <c r="HS41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29154,7 +29277,10 @@
       <c r="HR42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HS42" t="n">
+      <c r="HS42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -29839,8 +29965,11 @@
       <c r="HR43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HS43" t="n">
+      <c r="HS43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30524,8 +30653,11 @@
       <c r="HR44" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="HS44" t="n">
+      <c r="HS44" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31209,8 +31341,11 @@
       <c r="HR45" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="HS45" t="n">
+      <c r="HS45" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -31894,8 +32029,11 @@
       <c r="HR46" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="HS46" t="n">
+      <c r="HS46" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32579,8 +32717,11 @@
       <c r="HR47" s="1" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="HS47" t="n">
+      <c r="HS47" s="1" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33264,8 +33405,11 @@
       <c r="HR48" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HS48" t="n">
+      <c r="HS48" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -33949,8 +34093,11 @@
       <c r="HR49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HS49" t="n">
+      <c r="HS49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34634,8 +34781,11 @@
       <c r="HR50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS50" t="n">
+      <c r="HS50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35319,8 +35469,11 @@
       <c r="HR51" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HS51" t="n">
+      <c r="HS51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36004,8 +36157,11 @@
       <c r="HR52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HS52" t="n">
+      <c r="HS52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36689,8 +36845,11 @@
       <c r="HR53" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HS53" t="n">
+      <c r="HS53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37374,8 +37533,11 @@
       <c r="HR54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HS54" t="n">
+      <c r="HS54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38059,8 +38221,11 @@
       <c r="HR55" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS55" t="n">
+      <c r="HS55" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38744,8 +38909,11 @@
       <c r="HR56" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="HS56" t="n">
+      <c r="HS56" s="1" t="n">
         <v>84.2</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39429,8 +39597,11 @@
       <c r="HR57" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="HS57" t="n">
+      <c r="HS57" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40114,8 +40285,11 @@
       <c r="HR58" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HS58" t="n">
+      <c r="HS58" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40799,8 +40973,11 @@
       <c r="HR59" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="HS59" t="n">
+      <c r="HS59" s="1" t="n">
         <v>363</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41484,8 +41661,11 @@
       <c r="HR60" s="1" t="n">
         <v>1.69</v>
       </c>
-      <c r="HS60" t="n">
+      <c r="HS60" s="1" t="n">
         <v>1.52</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42169,8 +42349,11 @@
       <c r="HR61" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HS61" t="n">
+      <c r="HS61" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -42854,8 +43037,11 @@
       <c r="HR62" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="HS62" t="n">
+      <c r="HS62" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43539,8 +43725,11 @@
       <c r="HR63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HS63" t="n">
+      <c r="HS63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44224,8 +44413,11 @@
       <c r="HR64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HS64" t="n">
+      <c r="HS64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -44909,8 +45101,11 @@
       <c r="HR65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HS65" t="n">
+      <c r="HS65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45594,7 +45789,10 @@
       <c r="HR66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HS66" t="n">
+      <c r="HS66" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HT66" t="n">
         <v>16</v>
       </c>
     </row>
@@ -46279,8 +46477,11 @@
       <c r="HR67" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS67" t="n">
+      <c r="HS67" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -46964,8 +47165,11 @@
       <c r="HR68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HS68" t="n">
+      <c r="HS68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47649,8 +47853,11 @@
       <c r="HR69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HS69" t="n">
+      <c r="HS69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48334,7 +48541,10 @@
       <c r="HR70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HS70" t="n">
+      <c r="HS70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HT70" t="n">
         <v>27</v>
       </c>
     </row>
@@ -49019,7 +49229,10 @@
       <c r="HR71" s="1" t="n">
         <v>53.6</v>
       </c>
-      <c r="HS71" t="n">
+      <c r="HS71" s="1" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="HT71" t="n">
         <v>59.3</v>
       </c>
     </row>
@@ -49704,8 +49917,11 @@
       <c r="HR72" s="1" t="n">
         <v>23.53</v>
       </c>
-      <c r="HS72" t="n">
+      <c r="HS72" s="1" t="n">
         <v>22.69</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>22.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50389,8 +50605,11 @@
       <c r="HR73" s="1" t="n">
         <v>12.61</v>
       </c>
-      <c r="HS73" t="n">
+      <c r="HS73" s="1" t="n">
         <v>13.44</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51074,8 +51293,11 @@
       <c r="HR74" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HS74" t="n">
+      <c r="HS74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51759,8 +51981,11 @@
       <c r="HR75" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HS75" t="n">
+      <c r="HS75" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HT75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52444,8 +52669,11 @@
       <c r="HR76" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HS76" t="n">
+      <c r="HS76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53129,8 +53357,11 @@
       <c r="HR77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HS77" t="n">
+      <c r="HS77" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -53814,8 +54045,11 @@
       <c r="HR78" s="1" t="n">
         <v>2.18</v>
       </c>
-      <c r="HS78" t="n">
+      <c r="HS78" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54499,8 +54733,11 @@
       <c r="HR79" s="1" t="n">
         <v>4.07</v>
       </c>
-      <c r="HS79" t="n">
+      <c r="HS79" s="1" t="n">
         <v>3.94</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55184,8 +55421,11 @@
       <c r="HR80" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="HS80" t="n">
+      <c r="HS80" s="1" t="n">
         <v>39.7</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -55869,8 +56109,11 @@
       <c r="HR81" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="HS81" t="n">
+      <c r="HS81" s="1" t="n">
         <v>25.4</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>26.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56554,8 +56797,11 @@
       <c r="HR82" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="HS82" t="n">
+      <c r="HS82" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57239,8 +57485,11 @@
       <c r="HR83" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="HS83" t="n">
+      <c r="HS83" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -57924,8 +58173,11 @@
       <c r="HR84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HS84" t="n">
+      <c r="HS84" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58609,8 +58861,11 @@
       <c r="HR85" s="1" t="n">
         <v>109.8</v>
       </c>
-      <c r="HS85" t="n">
+      <c r="HS85" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>95.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59294,8 +59549,11 @@
       <c r="HR86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HS86" t="n">
+      <c r="HS86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -59979,8 +60237,11 @@
       <c r="HR87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HS87" t="n">
+      <c r="HS87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -60664,8 +60925,11 @@
       <c r="HR88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HS88" t="n">
+      <c r="HS88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61349,8 +61613,11 @@
       <c r="HR89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HS89" t="n">
+      <c r="HS89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62034,8 +62301,11 @@
       <c r="HR90" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="HS90" t="n">
+      <c r="HS90" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62719,8 +62989,11 @@
       <c r="HR91" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="HS91" t="n">
+      <c r="HS91" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63404,8 +63677,11 @@
       <c r="HR92" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="HS92" t="n">
+      <c r="HS92" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64089,8 +64365,11 @@
       <c r="HR93" s="1" t="n">
         <v>71.7</v>
       </c>
-      <c r="HS93" t="n">
+      <c r="HS93" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>77.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -64774,8 +65053,11 @@
       <c r="HR94" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HS94" t="n">
+      <c r="HS94" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -65459,7 +65741,10 @@
       <c r="HR95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HS95" t="n">
+      <c r="HS95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HT95" t="n">
         <v>15</v>
       </c>
     </row>
@@ -66144,8 +66429,11 @@
       <c r="HR96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HS96" t="n">
+      <c r="HS96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -66829,8 +67117,11 @@
       <c r="HR97" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HS97" t="n">
+      <c r="HS97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -67514,8 +67805,11 @@
       <c r="HR98" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HS98" t="n">
+      <c r="HS98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -68199,8 +68493,11 @@
       <c r="HR99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HS99" t="n">
+      <c r="HS99" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -68884,8 +69181,11 @@
       <c r="HR100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HS100" t="n">
+      <c r="HS100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69569,8 +69869,11 @@
       <c r="HR101" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HS101" t="n">
+      <c r="HS101" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70254,8 +70557,11 @@
       <c r="HR102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HS102" t="n">
+      <c r="HS102" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>68.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1072,8 +1072,11 @@
       <c r="HS1" s="1" t="n">
         <v>10383</v>
       </c>
-      <c r="HT1" t="n">
+      <c r="HT1" s="1" t="n">
         <v>10396</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>10402</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1760,7 +1763,10 @@
       <c r="HS2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HT2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HU2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2448,8 +2454,11 @@
       <c r="HS3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HT3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3136,7 +3145,10 @@
       <c r="HS4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HT4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,7 +3836,10 @@
       <c r="HS5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HT5" t="n">
+      <c r="HT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4512,8 +4527,11 @@
       <c r="HS6" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HT6" t="n">
+      <c r="HT6" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5200,8 +5218,11 @@
       <c r="HS7" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="HT7" t="n">
+      <c r="HT7" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5888,8 +5909,11 @@
       <c r="HS8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT8" t="n">
+      <c r="HT8" s="1" t="n">
         <v>-16</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>-26</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6576,7 +6600,10 @@
       <c r="HS9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HT9" t="n">
+      <c r="HT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7264,8 +7291,11 @@
       <c r="HS10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HT10" t="n">
+      <c r="HT10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7952,8 +7982,11 @@
       <c r="HS11" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="HT11" t="n">
+      <c r="HT11" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8640,8 +8673,11 @@
       <c r="HS12" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="HT12" t="n">
+      <c r="HT12" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9328,8 +9364,11 @@
       <c r="HS13" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="HT13" t="n">
+      <c r="HT13" s="1" t="n">
         <v>320</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10016,8 +10055,11 @@
       <c r="HS14" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="HT14" t="n">
+      <c r="HT14" s="1" t="n">
         <v>1.64</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10704,8 +10746,11 @@
       <c r="HS15" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HT15" t="n">
+      <c r="HT15" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11392,8 +11437,11 @@
       <c r="HS16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HT16" t="n">
+      <c r="HT16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12080,8 +12128,11 @@
       <c r="HS17" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HT17" t="n">
+      <c r="HT17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12768,8 +12819,11 @@
       <c r="HS18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HT18" t="n">
+      <c r="HT18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13456,8 +13510,11 @@
       <c r="HS19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HT19" t="n">
+      <c r="HT19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14144,8 +14201,11 @@
       <c r="HS20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HT20" t="n">
+      <c r="HT20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14832,8 +14892,11 @@
       <c r="HS21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT21" t="n">
+      <c r="HT21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15520,8 +15583,11 @@
       <c r="HS22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT22" t="n">
+      <c r="HT22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16208,7 +16274,10 @@
       <c r="HS23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HT23" t="n">
+      <c r="HT23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16896,8 +16965,11 @@
       <c r="HS24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HT24" t="n">
+      <c r="HT24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17584,8 +17656,11 @@
       <c r="HS25" s="1" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="HT25" t="n">
+      <c r="HT25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18272,8 +18347,11 @@
       <c r="HS26" s="1" t="n">
         <v>18.53</v>
       </c>
-      <c r="HT26" t="n">
+      <c r="HT26" s="1" t="n">
         <v>24.62</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -18960,8 +19038,11 @@
       <c r="HS27" s="1" t="n">
         <v>12.57</v>
       </c>
-      <c r="HT27" t="n">
+      <c r="HT27" s="1" t="n">
         <v>12.31</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>18.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19648,8 +19729,11 @@
       <c r="HS28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HT28" t="n">
+      <c r="HT28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HU28" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20336,8 +20420,11 @@
       <c r="HS29" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HT29" t="n">
+      <c r="HT29" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21024,8 +21111,11 @@
       <c r="HS30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HT30" t="n">
+      <c r="HT30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21712,8 +21802,11 @@
       <c r="HS31" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HT31" t="n">
+      <c r="HT31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22400,8 +22493,11 @@
       <c r="HS32" s="1" t="n">
         <v>2.04</v>
       </c>
-      <c r="HT32" t="n">
+      <c r="HT32" s="1" t="n">
         <v>1.69</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23088,8 +23184,11 @@
       <c r="HS33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT33" t="n">
+      <c r="HT33" s="1" t="n">
         <v>3.38</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23776,8 +23875,11 @@
       <c r="HS34" s="1" t="n">
         <v>45.6</v>
       </c>
-      <c r="HT34" t="n">
+      <c r="HT34" s="1" t="n">
         <v>56.8</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24464,8 +24566,11 @@
       <c r="HS35" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HT35" t="n">
+      <c r="HT35" s="1" t="n">
         <v>29.5</v>
+      </c>
+      <c r="HU35" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25152,8 +25257,11 @@
       <c r="HS36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HT36" t="n">
+      <c r="HT36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HU36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25840,7 +25948,10 @@
       <c r="HS37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="HT37" t="n">
+      <c r="HT37" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HU37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -26528,8 +26639,11 @@
       <c r="HS38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HT38" t="n">
+      <c r="HT38" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="HU38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27216,8 +27330,11 @@
       <c r="HS39" s="1" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="HT39" t="n">
+      <c r="HT39" s="1" t="n">
         <v>92.59999999999999</v>
+      </c>
+      <c r="HU39" t="n">
+        <v>95.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -27904,8 +28021,11 @@
       <c r="HS40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT40" t="n">
+      <c r="HT40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HU40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28592,8 +28712,11 @@
       <c r="HS41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT41" t="n">
+      <c r="HT41" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29280,8 +29403,11 @@
       <c r="HS42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HT42" t="n">
+      <c r="HT42" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HU42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -29968,8 +30094,11 @@
       <c r="HS43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT43" t="n">
+      <c r="HT43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30656,8 +30785,11 @@
       <c r="HS44" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HT44" t="n">
+      <c r="HT44" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31344,8 +31476,11 @@
       <c r="HS45" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="HT45" t="n">
+      <c r="HT45" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32032,8 +32167,11 @@
       <c r="HS46" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="HT46" t="n">
+      <c r="HT46" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="HU46" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32720,8 +32858,11 @@
       <c r="HS47" s="1" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="HT47" t="n">
+      <c r="HT47" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HU47" t="n">
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33408,8 +33549,11 @@
       <c r="HS48" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HT48" t="n">
+      <c r="HT48" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HU48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34096,8 +34240,11 @@
       <c r="HS49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT49" t="n">
+      <c r="HT49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HU49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34784,8 +34931,11 @@
       <c r="HS50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT50" t="n">
+      <c r="HT50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35472,8 +35622,11 @@
       <c r="HS51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HT51" t="n">
+      <c r="HT51" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HU51" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36160,8 +36313,11 @@
       <c r="HS52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HT52" t="n">
+      <c r="HT52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -36848,8 +37004,11 @@
       <c r="HS53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HT53" t="n">
+      <c r="HT53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37536,7 +37695,10 @@
       <c r="HS54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT54" t="n">
+      <c r="HT54" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38224,8 +38386,11 @@
       <c r="HS55" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT55" t="n">
+      <c r="HT55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -38912,8 +39077,11 @@
       <c r="HS56" s="1" t="n">
         <v>84.2</v>
       </c>
-      <c r="HT56" t="n">
+      <c r="HT56" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="HU56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39600,8 +39768,11 @@
       <c r="HS57" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="HT57" t="n">
+      <c r="HT57" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="HU57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40288,8 +40459,11 @@
       <c r="HS58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="HT58" t="n">
+      <c r="HT58" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="HU58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -40976,8 +41150,11 @@
       <c r="HS59" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="HT59" t="n">
+      <c r="HT59" s="1" t="n">
         <v>359</v>
+      </c>
+      <c r="HU59" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41664,8 +41841,11 @@
       <c r="HS60" s="1" t="n">
         <v>1.52</v>
       </c>
-      <c r="HT60" t="n">
+      <c r="HT60" s="1" t="n">
         <v>1.6</v>
+      </c>
+      <c r="HU60" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42352,8 +42532,11 @@
       <c r="HS61" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="HT61" t="n">
+      <c r="HT61" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="HU61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43040,8 +43223,11 @@
       <c r="HS62" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HT62" t="n">
+      <c r="HT62" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HU62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -43728,8 +43914,11 @@
       <c r="HS63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HT63" t="n">
+      <c r="HT63" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HU63" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44416,8 +44605,11 @@
       <c r="HS64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HT64" t="n">
+      <c r="HT64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45104,8 +45296,11 @@
       <c r="HS65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HT65" t="n">
+      <c r="HT65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HU65" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45792,8 +45987,11 @@
       <c r="HS66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HT66" t="n">
+      <c r="HT66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HU66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46480,8 +46678,11 @@
       <c r="HS67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT67" t="n">
+      <c r="HT67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47168,8 +47369,11 @@
       <c r="HS68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HT68" t="n">
+      <c r="HT68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -47856,8 +48060,11 @@
       <c r="HS69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HT69" t="n">
+      <c r="HT69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HU69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48544,8 +48751,11 @@
       <c r="HS70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HT70" t="n">
+      <c r="HT70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HU70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49232,8 +49442,11 @@
       <c r="HS71" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="HT71" t="n">
+      <c r="HT71" s="1" t="n">
         <v>59.3</v>
+      </c>
+      <c r="HU71" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -49920,8 +50133,11 @@
       <c r="HS72" s="1" t="n">
         <v>22.69</v>
       </c>
-      <c r="HT72" t="n">
+      <c r="HT72" s="1" t="n">
         <v>22.44</v>
+      </c>
+      <c r="HU72" t="n">
+        <v>27.69</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50608,8 +50824,11 @@
       <c r="HS73" s="1" t="n">
         <v>13.44</v>
       </c>
-      <c r="HT73" t="n">
+      <c r="HT73" s="1" t="n">
         <v>13.3</v>
+      </c>
+      <c r="HU73" t="n">
+        <v>12.41</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51296,8 +51515,11 @@
       <c r="HS74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HT74" t="n">
+      <c r="HT74" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HU74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -51984,8 +52206,11 @@
       <c r="HS75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HT75" t="n">
+      <c r="HT75" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HU75" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52672,8 +52897,11 @@
       <c r="HS76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HT76" t="n">
+      <c r="HT76" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53360,8 +53588,11 @@
       <c r="HS77" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HT77" t="n">
+      <c r="HT77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HU77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54048,8 +54279,11 @@
       <c r="HS78" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="HT78" t="n">
+      <c r="HT78" s="1" t="n">
         <v>2.22</v>
+      </c>
+      <c r="HU78" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54736,8 +54970,11 @@
       <c r="HS79" s="1" t="n">
         <v>3.94</v>
       </c>
-      <c r="HT79" t="n">
+      <c r="HT79" s="1" t="n">
         <v>3.75</v>
+      </c>
+      <c r="HU79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55424,8 +55661,11 @@
       <c r="HS80" s="1" t="n">
         <v>39.7</v>
       </c>
-      <c r="HT80" t="n">
+      <c r="HT80" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HU80" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56112,8 +56352,11 @@
       <c r="HS81" s="1" t="n">
         <v>25.4</v>
       </c>
-      <c r="HT81" t="n">
+      <c r="HT81" s="1" t="n">
         <v>26.7</v>
+      </c>
+      <c r="HU81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -56800,8 +57043,11 @@
       <c r="HS82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HT82" t="n">
+      <c r="HT82" s="1" t="n">
         <v>186.9</v>
+      </c>
+      <c r="HU82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57488,8 +57734,11 @@
       <c r="HS83" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HT83" t="n">
+      <c r="HT83" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="HU83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58176,8 +58425,11 @@
       <c r="HS84" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="HT84" t="n">
+      <c r="HT84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HU84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -58864,8 +59116,11 @@
       <c r="HS85" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HT85" t="n">
+      <c r="HT85" s="1" t="n">
         <v>95.3</v>
+      </c>
+      <c r="HU85" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59552,8 +59807,11 @@
       <c r="HS86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT86" t="n">
+      <c r="HT86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -60240,8 +60498,11 @@
       <c r="HS87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HT87" t="n">
+      <c r="HT87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HU87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -60928,8 +61189,11 @@
       <c r="HS88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HT88" t="n">
+      <c r="HT88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HU88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61616,8 +61880,11 @@
       <c r="HS89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HT89" t="n">
+      <c r="HT89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HU89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62304,8 +62571,11 @@
       <c r="HS90" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="HT90" t="n">
+      <c r="HT90" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="HU90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -62992,8 +63262,11 @@
       <c r="HS91" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="HT91" t="n">
+      <c r="HT91" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="HU91" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63680,8 +63953,11 @@
       <c r="HS92" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="HT92" t="n">
+      <c r="HT92" s="1" t="n">
         <v>277</v>
+      </c>
+      <c r="HU92" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64368,8 +64644,11 @@
       <c r="HS93" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="HT93" t="n">
+      <c r="HT93" s="1" t="n">
         <v>77.2</v>
+      </c>
+      <c r="HU93" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65056,8 +65335,11 @@
       <c r="HS94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HT94" t="n">
+      <c r="HT94" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HU94" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -65744,8 +66026,11 @@
       <c r="HS95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HT95" t="n">
+      <c r="HT95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HU95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -66432,8 +66717,11 @@
       <c r="HS96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT96" t="n">
+      <c r="HT96" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HU96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67120,8 +67408,11 @@
       <c r="HS97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HT97" t="n">
+      <c r="HT97" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HU97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -67808,8 +68099,11 @@
       <c r="HS98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HT98" t="n">
+      <c r="HT98" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HU98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -68496,7 +68790,10 @@
       <c r="HS99" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HT99" t="n">
+      <c r="HT99" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="HU99" t="n">
         <v>52</v>
       </c>
     </row>
@@ -69184,8 +69481,11 @@
       <c r="HS100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HT100" t="n">
+      <c r="HT100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -69872,8 +70172,11 @@
       <c r="HS101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HT101" t="n">
+      <c r="HT101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HU101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70560,8 +70863,11 @@
       <c r="HS102" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="HT102" t="n">
+      <c r="HT102" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="HU102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1075,8 +1075,11 @@
       <c r="HT1" s="1" t="n">
         <v>10396</v>
       </c>
-      <c r="HU1" t="n">
+      <c r="HU1" s="1" t="n">
         <v>10402</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>10409</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1766,7 +1769,10 @@
       <c r="HT2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HU2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HV2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2457,8 +2463,11 @@
       <c r="HT3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HU3" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3148,8 +3157,11 @@
       <c r="HT4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HU4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3839,7 +3851,10 @@
       <c r="HT5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HU5" t="n">
+      <c r="HU5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4530,8 +4545,11 @@
       <c r="HT6" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HU6" t="n">
+      <c r="HU6" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5221,8 +5239,11 @@
       <c r="HT7" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="HU7" t="n">
+      <c r="HU7" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5912,8 +5933,11 @@
       <c r="HT8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="HU8" t="n">
+      <c r="HU8" s="1" t="n">
         <v>-26</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6603,8 +6627,11 @@
       <c r="HT9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HU9" t="n">
+      <c r="HU9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7294,8 +7321,11 @@
       <c r="HT10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HU10" t="n">
+      <c r="HU10" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -7985,8 +8015,11 @@
       <c r="HT11" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="HU11" t="n">
+      <c r="HU11" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8676,8 +8709,11 @@
       <c r="HT12" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="HU12" t="n">
+      <c r="HU12" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9367,8 +9403,11 @@
       <c r="HT13" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="HU13" t="n">
+      <c r="HU13" s="1" t="n">
         <v>340</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10058,8 +10097,11 @@
       <c r="HT14" s="1" t="n">
         <v>1.64</v>
       </c>
-      <c r="HU14" t="n">
+      <c r="HU14" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10749,8 +10791,11 @@
       <c r="HT15" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="HU15" t="n">
+      <c r="HU15" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11440,8 +11485,11 @@
       <c r="HT16" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HU16" t="n">
+      <c r="HU16" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12131,8 +12179,11 @@
       <c r="HT17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HU17" t="n">
+      <c r="HU17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12822,8 +12873,11 @@
       <c r="HT18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HU18" t="n">
+      <c r="HU18" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13513,8 +13567,11 @@
       <c r="HT19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HU19" t="n">
+      <c r="HU19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14204,8 +14261,11 @@
       <c r="HT20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HU20" t="n">
+      <c r="HU20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14895,8 +14955,11 @@
       <c r="HT21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HU21" t="n">
+      <c r="HU21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15586,7 +15649,10 @@
       <c r="HT22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HU22" t="n">
+      <c r="HU22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -16277,7 +16343,10 @@
       <c r="HT23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HU23" t="n">
+      <c r="HU23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16968,8 +17037,11 @@
       <c r="HT24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HU24" t="n">
+      <c r="HU24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17659,8 +17731,11 @@
       <c r="HT25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HU25" t="n">
+      <c r="HU25" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18350,8 +18425,11 @@
       <c r="HT26" s="1" t="n">
         <v>24.62</v>
       </c>
-      <c r="HU26" t="n">
+      <c r="HU26" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19041,8 +19119,11 @@
       <c r="HT27" s="1" t="n">
         <v>12.31</v>
       </c>
-      <c r="HU27" t="n">
+      <c r="HU27" s="1" t="n">
         <v>18.89</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>17.95</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19732,8 +19813,11 @@
       <c r="HT28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HU28" t="n">
+      <c r="HU28" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20423,8 +20507,11 @@
       <c r="HT29" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HU29" t="n">
+      <c r="HU29" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21114,8 +21201,11 @@
       <c r="HT30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HU30" t="n">
+      <c r="HU30" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21805,8 +21895,11 @@
       <c r="HT31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HU31" t="n">
+      <c r="HU31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22496,8 +22589,11 @@
       <c r="HT32" s="1" t="n">
         <v>1.69</v>
       </c>
-      <c r="HU32" t="n">
+      <c r="HU32" s="1" t="n">
         <v>2.94</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23187,8 +23283,11 @@
       <c r="HT33" s="1" t="n">
         <v>3.38</v>
       </c>
-      <c r="HU33" t="n">
+      <c r="HU33" s="1" t="n">
         <v>5.3</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23878,8 +23977,11 @@
       <c r="HT34" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="HU34" t="n">
+      <c r="HU34" s="1" t="n">
         <v>32.1</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24569,8 +24671,11 @@
       <c r="HT35" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="HU35" t="n">
+      <c r="HU35" s="1" t="n">
         <v>18.9</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25260,8 +25365,11 @@
       <c r="HT36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HU36" t="n">
+      <c r="HU36" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -25951,8 +26059,11 @@
       <c r="HT37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HU37" t="n">
+      <c r="HU37" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26642,8 +26753,11 @@
       <c r="HT38" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="HU38" t="n">
+      <c r="HU38" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27333,8 +27447,11 @@
       <c r="HT39" s="1" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="HU39" t="n">
+      <c r="HU39" s="1" t="n">
         <v>95.7</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28024,8 +28141,11 @@
       <c r="HT40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HU40" t="n">
+      <c r="HU40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HV40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28715,8 +28835,11 @@
       <c r="HT41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HU41" t="n">
+      <c r="HU41" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29406,7 +29529,10 @@
       <c r="HT42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HU42" t="n">
+      <c r="HU42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30097,8 +30223,11 @@
       <c r="HT43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HU43" t="n">
+      <c r="HU43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30788,8 +30917,11 @@
       <c r="HT44" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HU44" t="n">
+      <c r="HU44" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31479,8 +31611,11 @@
       <c r="HT45" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HU45" t="n">
+      <c r="HU45" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32170,8 +32305,11 @@
       <c r="HT46" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="HU46" t="n">
+      <c r="HU46" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -32861,8 +32999,11 @@
       <c r="HT47" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HU47" t="n">
+      <c r="HU47" s="1" t="n">
         <v>65.59999999999999</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33552,8 +33693,11 @@
       <c r="HT48" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HU48" t="n">
+      <c r="HU48" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34243,8 +34387,11 @@
       <c r="HT49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HU49" t="n">
+      <c r="HU49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -34934,8 +35081,11 @@
       <c r="HT50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HU50" t="n">
+      <c r="HU50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35625,8 +35775,11 @@
       <c r="HT51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HU51" t="n">
+      <c r="HU51" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36316,8 +36469,11 @@
       <c r="HT52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HU52" t="n">
+      <c r="HU52" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37007,8 +37163,11 @@
       <c r="HT53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HU53" t="n">
+      <c r="HU53" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37698,8 +37857,11 @@
       <c r="HT54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HU54" t="n">
+      <c r="HU54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38389,8 +38551,11 @@
       <c r="HT55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HU55" t="n">
+      <c r="HU55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39080,8 +39245,11 @@
       <c r="HT56" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HU56" t="n">
+      <c r="HU56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39771,8 +39939,11 @@
       <c r="HT57" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="HU57" t="n">
+      <c r="HU57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40462,8 +40633,11 @@
       <c r="HT58" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HU58" t="n">
+      <c r="HU58" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41153,8 +41327,11 @@
       <c r="HT59" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="HU59" t="n">
+      <c r="HU59" s="1" t="n">
         <v>360</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -41844,8 +42021,11 @@
       <c r="HT60" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="HU60" t="n">
+      <c r="HU60" s="1" t="n">
         <v>1.54</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42535,8 +42715,11 @@
       <c r="HT61" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="HU61" t="n">
+      <c r="HU61" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43226,7 +43409,10 @@
       <c r="HT62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HU62" t="n">
+      <c r="HU62" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HV62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -43917,8 +44103,11 @@
       <c r="HT63" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HU63" t="n">
+      <c r="HU63" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44608,8 +44797,11 @@
       <c r="HT64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HU64" t="n">
+      <c r="HU64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45299,8 +45491,11 @@
       <c r="HT65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HU65" t="n">
+      <c r="HU65" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -45990,8 +46185,11 @@
       <c r="HT66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HU66" t="n">
+      <c r="HU66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46681,8 +46879,11 @@
       <c r="HT67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HU67" t="n">
+      <c r="HU67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47372,8 +47573,11 @@
       <c r="HT68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HU68" t="n">
+      <c r="HU68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48063,8 +48267,11 @@
       <c r="HT69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HU69" t="n">
+      <c r="HU69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48754,8 +48961,11 @@
       <c r="HT70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HU70" t="n">
+      <c r="HU70" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49445,8 +49655,11 @@
       <c r="HT71" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="HU71" t="n">
+      <c r="HU71" s="1" t="n">
         <v>44.8</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50136,8 +50349,11 @@
       <c r="HT72" s="1" t="n">
         <v>22.44</v>
       </c>
-      <c r="HU72" t="n">
+      <c r="HU72" s="1" t="n">
         <v>27.69</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>42.89</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -50827,8 +51043,11 @@
       <c r="HT73" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="HU73" t="n">
+      <c r="HU73" s="1" t="n">
         <v>12.41</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>21.44</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51518,8 +51737,11 @@
       <c r="HT74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HU74" t="n">
+      <c r="HU74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52209,8 +52431,11 @@
       <c r="HT75" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HU75" t="n">
+      <c r="HU75" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="HV75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -52900,8 +53125,11 @@
       <c r="HT76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HU76" t="n">
+      <c r="HU76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53591,8 +53819,11 @@
       <c r="HT77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HU77" t="n">
+      <c r="HU77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HV77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54282,8 +54513,11 @@
       <c r="HT78" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="HU78" t="n">
+      <c r="HU78" s="1" t="n">
         <v>1.79</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -54973,8 +55207,11 @@
       <c r="HT79" s="1" t="n">
         <v>3.75</v>
       </c>
-      <c r="HU79" t="n">
+      <c r="HU79" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55664,8 +55901,11 @@
       <c r="HT80" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HU80" t="n">
+      <c r="HU80" s="1" t="n">
         <v>46.2</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56355,8 +56595,11 @@
       <c r="HT81" s="1" t="n">
         <v>26.7</v>
       </c>
-      <c r="HU81" t="n">
+      <c r="HU81" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57046,8 +57289,11 @@
       <c r="HT82" s="1" t="n">
         <v>186.9</v>
       </c>
-      <c r="HU82" t="n">
+      <c r="HU82" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -57737,8 +57983,11 @@
       <c r="HT83" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="HU83" t="n">
+      <c r="HU83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58428,7 +58677,10 @@
       <c r="HT84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HU84" t="n">
+      <c r="HU84" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HV84" t="n">
         <v>24.91</v>
       </c>
     </row>
@@ -59119,8 +59371,11 @@
       <c r="HT85" s="1" t="n">
         <v>95.3</v>
       </c>
-      <c r="HU85" t="n">
+      <c r="HU85" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -59810,8 +60065,11 @@
       <c r="HT86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HU86" t="n">
+      <c r="HU86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -60501,8 +60759,11 @@
       <c r="HT87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HU87" t="n">
+      <c r="HU87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -61192,8 +61453,11 @@
       <c r="HT88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HU88" t="n">
+      <c r="HU88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HV88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -61883,7 +62147,10 @@
       <c r="HT89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HU89" t="n">
+      <c r="HU89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -62574,8 +62841,11 @@
       <c r="HT90" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HU90" t="n">
+      <c r="HU90" s="1" t="n">
         <v>152</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63265,8 +63535,11 @@
       <c r="HT91" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="HU91" t="n">
+      <c r="HU91" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -63956,8 +64229,11 @@
       <c r="HT92" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="HU92" t="n">
+      <c r="HU92" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64647,8 +64923,11 @@
       <c r="HT93" s="1" t="n">
         <v>77.2</v>
       </c>
-      <c r="HU93" t="n">
+      <c r="HU93" s="1" t="n">
         <v>67.2</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65338,8 +65617,11 @@
       <c r="HT94" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HU94" t="n">
+      <c r="HU94" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66029,8 +66311,11 @@
       <c r="HT95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HU95" t="n">
+      <c r="HU95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -66720,8 +67005,11 @@
       <c r="HT96" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HU96" t="n">
+      <c r="HU96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67411,8 +67699,11 @@
       <c r="HT97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HU97" t="n">
+      <c r="HU97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68102,8 +68393,11 @@
       <c r="HT98" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HU98" t="n">
+      <c r="HU98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -68793,8 +69087,11 @@
       <c r="HT99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HU99" t="n">
+      <c r="HU99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -69484,8 +69781,11 @@
       <c r="HT100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HU100" t="n">
+      <c r="HU100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -70175,8 +70475,11 @@
       <c r="HT101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HU101" t="n">
+      <c r="HU101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -70866,8 +71169,11 @@
       <c r="HT102" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="HU102" t="n">
+      <c r="HU102" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1078,8 +1078,11 @@
       <c r="HU1" s="1" t="n">
         <v>10402</v>
       </c>
-      <c r="HV1" t="n">
+      <c r="HV1" s="1" t="n">
         <v>10409</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10421</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1772,7 +1775,10 @@
       <c r="HU2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HV2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HW2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2466,8 +2472,11 @@
       <c r="HU3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HV3" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3160,8 +3169,11 @@
       <c r="HU4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HV4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3854,7 +3866,10 @@
       <c r="HU5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HV5" t="n">
+      <c r="HV5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4548,8 +4563,11 @@
       <c r="HU6" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HV6" t="n">
+      <c r="HV6" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5242,8 +5260,11 @@
       <c r="HU7" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="HV7" t="n">
+      <c r="HV7" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5936,8 +5957,11 @@
       <c r="HU8" s="1" t="n">
         <v>-26</v>
       </c>
-      <c r="HV8" t="n">
+      <c r="HV8" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6630,8 +6654,11 @@
       <c r="HU9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HV9" t="n">
+      <c r="HV9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7324,8 +7351,11 @@
       <c r="HU10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HV10" t="n">
+      <c r="HV10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8018,8 +8048,11 @@
       <c r="HU11" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="HV11" t="n">
+      <c r="HV11" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8712,8 +8745,11 @@
       <c r="HU12" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="HV12" t="n">
+      <c r="HV12" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9406,8 +9442,11 @@
       <c r="HU13" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="HV13" t="n">
+      <c r="HV13" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10100,8 +10139,11 @@
       <c r="HU14" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="HV14" t="n">
+      <c r="HV14" s="1" t="n">
         <v>1.58</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10794,8 +10836,11 @@
       <c r="HU15" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HV15" t="n">
+      <c r="HV15" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11488,8 +11533,11 @@
       <c r="HU16" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="HV16" t="n">
+      <c r="HV16" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12182,8 +12230,11 @@
       <c r="HU17" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HV17" t="n">
+      <c r="HV17" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12876,8 +12927,11 @@
       <c r="HU18" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HV18" t="n">
+      <c r="HV18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13570,8 +13624,11 @@
       <c r="HU19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HV19" t="n">
+      <c r="HV19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14264,8 +14321,11 @@
       <c r="HU20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV20" t="n">
+      <c r="HV20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -14958,8 +15018,11 @@
       <c r="HU21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV21" t="n">
+      <c r="HV21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15652,8 +15715,11 @@
       <c r="HU22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV22" t="n">
+      <c r="HV22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16346,8 +16412,11 @@
       <c r="HU23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HV23" t="n">
+      <c r="HV23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17040,8 +17109,11 @@
       <c r="HU24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HV24" t="n">
+      <c r="HV24" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17734,8 +17806,11 @@
       <c r="HU25" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HV25" t="n">
+      <c r="HV25" s="1" t="n">
         <v>61.9</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18428,8 +18503,11 @@
       <c r="HU26" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HV26" t="n">
+      <c r="HV26" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>27.55</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19122,8 +19200,11 @@
       <c r="HU27" s="1" t="n">
         <v>18.89</v>
       </c>
-      <c r="HV27" t="n">
+      <c r="HV27" s="1" t="n">
         <v>17.95</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>13.17</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19816,8 +19897,11 @@
       <c r="HU28" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HV28" t="n">
+      <c r="HV28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20510,8 +20594,11 @@
       <c r="HU29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HV29" t="n">
+      <c r="HV29" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21204,8 +21291,11 @@
       <c r="HU30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV30" t="n">
+      <c r="HV30" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21898,8 +21988,11 @@
       <c r="HU31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HV31" t="n">
+      <c r="HV31" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22592,8 +22685,11 @@
       <c r="HU32" s="1" t="n">
         <v>2.94</v>
       </c>
-      <c r="HV32" t="n">
+      <c r="HV32" s="1" t="n">
         <v>2.86</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23286,8 +23382,11 @@
       <c r="HU33" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="HV33" t="n">
+      <c r="HV33" s="1" t="n">
         <v>4.62</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -23980,8 +24079,11 @@
       <c r="HU34" s="1" t="n">
         <v>32.1</v>
       </c>
-      <c r="HV34" t="n">
+      <c r="HV34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24674,8 +24776,11 @@
       <c r="HU35" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="HV35" t="n">
+      <c r="HV35" s="1" t="n">
         <v>21.7</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25368,8 +25473,11 @@
       <c r="HU36" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="HV36" t="n">
+      <c r="HV36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26062,8 +26170,11 @@
       <c r="HU37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HV37" t="n">
+      <c r="HV37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26756,8 +26867,11 @@
       <c r="HU38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HV38" t="n">
+      <c r="HV38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27450,8 +27564,11 @@
       <c r="HU39" s="1" t="n">
         <v>95.7</v>
       </c>
-      <c r="HV39" t="n">
+      <c r="HV39" s="1" t="n">
         <v>95.5</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28144,8 +28261,11 @@
       <c r="HU40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV40" t="n">
+      <c r="HV40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28838,8 +28958,11 @@
       <c r="HU41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HV41" t="n">
+      <c r="HV41" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29532,7 +29655,10 @@
       <c r="HU42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HV42" t="n">
+      <c r="HV42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30226,8 +30352,11 @@
       <c r="HU43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV43" t="n">
+      <c r="HV43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -30920,8 +31049,11 @@
       <c r="HU44" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="HV44" t="n">
+      <c r="HV44" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31614,8 +31746,11 @@
       <c r="HU45" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="HV45" t="n">
+      <c r="HV45" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32308,8 +32443,11 @@
       <c r="HU46" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="HV46" t="n">
+      <c r="HV46" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33002,8 +33140,11 @@
       <c r="HU47" s="1" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="HV47" t="n">
+      <c r="HV47" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33696,8 +33837,11 @@
       <c r="HU48" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HV48" t="n">
+      <c r="HV48" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34390,8 +34534,11 @@
       <c r="HU49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HV49" t="n">
+      <c r="HV49" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35084,7 +35231,10 @@
       <c r="HU50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HV50" t="n">
+      <c r="HV50" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW50" t="n">
         <v>9</v>
       </c>
     </row>
@@ -35778,8 +35928,11 @@
       <c r="HU51" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HV51" t="n">
+      <c r="HV51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36472,8 +36625,11 @@
       <c r="HU52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HV52" t="n">
+      <c r="HV52" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37166,8 +37322,11 @@
       <c r="HU53" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HV53" t="n">
+      <c r="HV53" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -37860,8 +38019,11 @@
       <c r="HU54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV54" t="n">
+      <c r="HV54" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38554,8 +38716,11 @@
       <c r="HU55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV55" t="n">
+      <c r="HV55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39248,8 +39413,11 @@
       <c r="HU56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HV56" t="n">
+      <c r="HV56" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -39942,8 +40110,11 @@
       <c r="HU57" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="HV57" t="n">
+      <c r="HV57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40636,8 +40807,11 @@
       <c r="HU58" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HV58" t="n">
+      <c r="HV58" s="1" t="n">
         <v>178</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41330,8 +41504,11 @@
       <c r="HU59" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="HV59" t="n">
+      <c r="HV59" s="1" t="n">
         <v>386</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42024,8 +42201,11 @@
       <c r="HU60" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="HV60" t="n">
+      <c r="HV60" s="1" t="n">
         <v>1.17</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42718,8 +42898,11 @@
       <c r="HU61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HV61" t="n">
+      <c r="HV61" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43412,8 +43595,11 @@
       <c r="HU62" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HV62" t="n">
+      <c r="HV62" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44106,8 +44292,11 @@
       <c r="HU63" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HV63" t="n">
+      <c r="HV63" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44800,8 +44989,11 @@
       <c r="HU64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HV64" t="n">
+      <c r="HV64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45494,8 +45686,11 @@
       <c r="HU65" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HV65" t="n">
+      <c r="HV65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46188,8 +46383,11 @@
       <c r="HU66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HV66" t="n">
+      <c r="HV66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -46882,8 +47080,11 @@
       <c r="HU67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV67" t="n">
+      <c r="HV67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47576,8 +47777,11 @@
       <c r="HU68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HV68" t="n">
+      <c r="HV68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48270,8 +48474,11 @@
       <c r="HU69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV69" t="n">
+      <c r="HV69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -48964,8 +49171,11 @@
       <c r="HU70" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HV70" t="n">
+      <c r="HV70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49658,8 +49868,11 @@
       <c r="HU71" s="1" t="n">
         <v>44.8</v>
       </c>
-      <c r="HV71" t="n">
+      <c r="HV71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50352,8 +50565,11 @@
       <c r="HU72" s="1" t="n">
         <v>27.69</v>
       </c>
-      <c r="HV72" t="n">
+      <c r="HV72" s="1" t="n">
         <v>42.89</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>24.27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51046,8 +51262,11 @@
       <c r="HU73" s="1" t="n">
         <v>12.41</v>
       </c>
-      <c r="HV73" t="n">
+      <c r="HV73" s="1" t="n">
         <v>21.44</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>14.56</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51740,8 +51959,11 @@
       <c r="HU74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HV74" t="n">
+      <c r="HV74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52434,8 +52656,11 @@
       <c r="HU75" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HV75" t="n">
+      <c r="HV75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53128,8 +53353,11 @@
       <c r="HU76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HV76" t="n">
+      <c r="HV76" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -53822,8 +54050,11 @@
       <c r="HU77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HV77" t="n">
+      <c r="HV77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54516,8 +54747,11 @@
       <c r="HU78" s="1" t="n">
         <v>1.79</v>
       </c>
-      <c r="HV78" t="n">
+      <c r="HV78" s="1" t="n">
         <v>2.72</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55210,8 +55444,11 @@
       <c r="HU79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HV79" t="n">
+      <c r="HV79" s="1" t="n">
         <v>5.44</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>3.87</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -55904,8 +56141,11 @@
       <c r="HU80" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="HV80" t="n">
+      <c r="HV80" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56598,8 +56838,11 @@
       <c r="HU81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HV81" t="n">
+      <c r="HV81" s="1" t="n">
         <v>18.4</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>25.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57292,7 +57535,10 @@
       <c r="HU82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="HV82" t="n">
+      <c r="HV82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HW82" t="n">
         <v>187.7</v>
       </c>
     </row>
@@ -57986,8 +58232,11 @@
       <c r="HU83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="HV83" t="n">
+      <c r="HV83" s="1" t="n">
         <v>85.09999999999999</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58680,8 +58929,11 @@
       <c r="HU84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="HV84" t="n">
+      <c r="HV84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59374,8 +59626,11 @@
       <c r="HU85" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="HV85" t="n">
+      <c r="HV85" s="1" t="n">
         <v>82.40000000000001</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>103.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60068,8 +60323,11 @@
       <c r="HU86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HV86" t="n">
+      <c r="HV86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -60762,8 +61020,11 @@
       <c r="HU87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HV87" t="n">
+      <c r="HV87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -61456,8 +61717,11 @@
       <c r="HU88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV88" t="n">
+      <c r="HV88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62150,8 +62414,11 @@
       <c r="HU89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HV89" t="n">
+      <c r="HV89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -62844,8 +63111,11 @@
       <c r="HU90" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="HV90" t="n">
+      <c r="HV90" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63538,8 +63808,11 @@
       <c r="HU91" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="HV91" t="n">
+      <c r="HV91" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64232,8 +64505,11 @@
       <c r="HU92" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HV92" t="n">
+      <c r="HV92" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -64926,8 +65202,11 @@
       <c r="HU93" s="1" t="n">
         <v>67.2</v>
       </c>
-      <c r="HV93" t="n">
+      <c r="HV93" s="1" t="n">
         <v>72.5</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65620,8 +65899,11 @@
       <c r="HU94" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HV94" t="n">
+      <c r="HV94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66314,8 +66596,11 @@
       <c r="HU95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HV95" t="n">
+      <c r="HV95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67008,8 +67293,11 @@
       <c r="HU96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HV96" t="n">
+      <c r="HV96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67702,8 +67990,11 @@
       <c r="HU97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HV97" t="n">
+      <c r="HV97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68396,8 +68687,11 @@
       <c r="HU98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HV98" t="n">
+      <c r="HV98" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69090,8 +69384,11 @@
       <c r="HU99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HV99" t="n">
+      <c r="HV99" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -69784,7 +70081,10 @@
       <c r="HU100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HV100" t="n">
+      <c r="HV100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -70478,8 +70778,11 @@
       <c r="HU101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HV101" t="n">
+      <c r="HV101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71172,8 +71475,11 @@
       <c r="HU102" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="HV102" t="n">
+      <c r="HV102" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1081,8 +1081,11 @@
       <c r="HV1" s="1" t="n">
         <v>10409</v>
       </c>
-      <c r="HW1" t="n">
+      <c r="HW1" s="1" t="n">
         <v>10421</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10426</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1778,7 +1781,10 @@
       <c r="HV2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HW2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HX2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2475,8 +2481,11 @@
       <c r="HV3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HW3" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3172,8 +3181,11 @@
       <c r="HV4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HW4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3869,8 +3881,11 @@
       <c r="HV5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="HW5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4566,8 +4581,11 @@
       <c r="HV6" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HW6" t="n">
+      <c r="HW6" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5263,8 +5281,11 @@
       <c r="HV7" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HW7" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5960,7 +5981,10 @@
       <c r="HV8" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HW8" t="n">
+      <c r="HW8" s="1" t="n">
+        <v>-22</v>
+      </c>
+      <c r="HX8" t="n">
         <v>-22</v>
       </c>
     </row>
@@ -6657,7 +6681,10 @@
       <c r="HV9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW9" t="n">
+      <c r="HW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7354,8 +7381,11 @@
       <c r="HV10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW10" t="n">
+      <c r="HW10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8051,8 +8081,11 @@
       <c r="HV11" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="HW11" t="n">
+      <c r="HW11" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8748,8 +8781,11 @@
       <c r="HV12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HW12" t="n">
+      <c r="HW12" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9445,8 +9481,11 @@
       <c r="HV13" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="HW13" t="n">
+      <c r="HW13" s="1" t="n">
         <v>303</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10142,8 +10181,11 @@
       <c r="HV14" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="HW14" t="n">
+      <c r="HW14" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10839,8 +10881,11 @@
       <c r="HV15" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="HW15" t="n">
+      <c r="HW15" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11536,8 +11581,11 @@
       <c r="HV16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HW16" t="n">
+      <c r="HW16" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12233,8 +12281,11 @@
       <c r="HV17" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HW17" t="n">
+      <c r="HW17" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12930,8 +12981,11 @@
       <c r="HV18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HW18" t="n">
+      <c r="HW18" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13627,8 +13681,11 @@
       <c r="HV19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HW19" t="n">
+      <c r="HW19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14324,8 +14381,11 @@
       <c r="HV20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HW20" t="n">
+      <c r="HW20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15021,8 +15081,11 @@
       <c r="HV21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW21" t="n">
+      <c r="HW21" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15718,8 +15781,11 @@
       <c r="HV22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW22" t="n">
+      <c r="HW22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16415,8 +16481,11 @@
       <c r="HV23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW23" t="n">
+      <c r="HW23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17112,7 +17181,10 @@
       <c r="HV24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HW24" t="n">
+      <c r="HW24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -17809,8 +17881,11 @@
       <c r="HV25" s="1" t="n">
         <v>61.9</v>
       </c>
-      <c r="HW25" t="n">
+      <c r="HW25" s="1" t="n">
         <v>47.8</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18506,8 +18581,11 @@
       <c r="HV26" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HW26" t="n">
+      <c r="HW26" s="1" t="n">
         <v>27.55</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19203,8 +19281,11 @@
       <c r="HV27" s="1" t="n">
         <v>17.95</v>
       </c>
-      <c r="HW27" t="n">
+      <c r="HW27" s="1" t="n">
         <v>13.17</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>15.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19900,8 +19981,11 @@
       <c r="HV28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HW28" t="n">
+      <c r="HW28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20597,7 +20681,10 @@
       <c r="HV29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HW29" t="n">
+      <c r="HW29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HX29" t="n">
         <v>50</v>
       </c>
     </row>
@@ -21294,7 +21381,10 @@
       <c r="HV30" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HW30" t="n">
+      <c r="HW30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HX30" t="n">
         <v>42</v>
       </c>
     </row>
@@ -21991,8 +22081,11 @@
       <c r="HV31" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HW31" t="n">
+      <c r="HW31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22688,8 +22781,11 @@
       <c r="HV32" s="1" t="n">
         <v>2.86</v>
       </c>
-      <c r="HW32" t="n">
+      <c r="HW32" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23385,8 +23481,11 @@
       <c r="HV33" s="1" t="n">
         <v>4.62</v>
       </c>
-      <c r="HW33" t="n">
+      <c r="HW33" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24082,8 +24181,11 @@
       <c r="HV34" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HW34" t="n">
+      <c r="HW34" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24779,8 +24881,11 @@
       <c r="HV35" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="HW35" t="n">
+      <c r="HW35" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25476,8 +25581,11 @@
       <c r="HV36" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="HW36" t="n">
+      <c r="HW36" s="1" t="n">
         <v>188.1</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26173,8 +26281,11 @@
       <c r="HV37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="HW37" t="n">
+      <c r="HW37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26870,8 +26981,11 @@
       <c r="HV38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HW38" t="n">
+      <c r="HW38" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27567,8 +27681,11 @@
       <c r="HV39" s="1" t="n">
         <v>95.5</v>
       </c>
-      <c r="HW39" t="n">
+      <c r="HW39" s="1" t="n">
         <v>98.59999999999999</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28264,8 +28381,11 @@
       <c r="HV40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW40" t="n">
+      <c r="HW40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28961,8 +29081,11 @@
       <c r="HV41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW41" t="n">
+      <c r="HW41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29658,7 +29781,10 @@
       <c r="HV42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HW42" t="n">
+      <c r="HW42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30355,7 +30481,10 @@
       <c r="HV43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW43" t="n">
+      <c r="HW43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31052,8 +31181,11 @@
       <c r="HV44" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="HW44" t="n">
+      <c r="HW44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31749,8 +31881,11 @@
       <c r="HV45" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="HW45" t="n">
+      <c r="HW45" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32446,8 +32581,11 @@
       <c r="HV46" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="HW46" t="n">
+      <c r="HW46" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33143,8 +33281,11 @@
       <c r="HV47" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="HW47" t="n">
+      <c r="HW47" s="1" t="n">
         <v>66.3</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33840,7 +33981,10 @@
       <c r="HV48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HW48" t="n">
+      <c r="HW48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HX48" t="n">
         <v>50</v>
       </c>
     </row>
@@ -34537,8 +34681,11 @@
       <c r="HV49" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HW49" t="n">
+      <c r="HW49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35234,8 +35381,11 @@
       <c r="HV50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW50" t="n">
+      <c r="HW50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -35931,8 +36081,11 @@
       <c r="HV51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HW51" t="n">
+      <c r="HW51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36628,7 +36781,10 @@
       <c r="HV52" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HW52" t="n">
+      <c r="HW52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HX52" t="n">
         <v>42</v>
       </c>
     </row>
@@ -37325,8 +37481,11 @@
       <c r="HV53" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HW53" t="n">
+      <c r="HW53" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38022,8 +38181,11 @@
       <c r="HV54" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HW54" t="n">
+      <c r="HW54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38719,8 +38881,11 @@
       <c r="HV55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW55" t="n">
+      <c r="HW55" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39416,8 +39581,11 @@
       <c r="HV56" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="HW56" t="n">
+      <c r="HW56" s="1" t="n">
         <v>27.3</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40113,8 +40281,11 @@
       <c r="HV57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="HW57" t="n">
+      <c r="HW57" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40810,8 +40981,11 @@
       <c r="HV58" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="HW58" t="n">
+      <c r="HW58" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41507,8 +41681,11 @@
       <c r="HV59" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="HW59" t="n">
+      <c r="HW59" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42204,8 +42381,11 @@
       <c r="HV60" s="1" t="n">
         <v>1.17</v>
       </c>
-      <c r="HW60" t="n">
+      <c r="HW60" s="1" t="n">
         <v>1.89</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42901,8 +43081,11 @@
       <c r="HV61" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HW61" t="n">
+      <c r="HW61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43598,8 +43781,11 @@
       <c r="HV62" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HW62" t="n">
+      <c r="HW62" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44295,8 +44481,11 @@
       <c r="HV63" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HW63" t="n">
+      <c r="HW63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -44992,8 +45181,11 @@
       <c r="HV64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HW64" t="n">
+      <c r="HW64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45689,8 +45881,11 @@
       <c r="HV65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HW65" t="n">
+      <c r="HW65" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46386,8 +46581,11 @@
       <c r="HV66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW66" t="n">
+      <c r="HW66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47083,8 +47281,11 @@
       <c r="HV67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW67" t="n">
+      <c r="HW67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47780,8 +47981,11 @@
       <c r="HV68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW68" t="n">
+      <c r="HW68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48477,7 +48681,10 @@
       <c r="HV69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HW69" t="n">
+      <c r="HW69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX69" t="n">
         <v>5</v>
       </c>
     </row>
@@ -49174,7 +49381,10 @@
       <c r="HV70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HW70" t="n">
+      <c r="HW70" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -49871,8 +50081,11 @@
       <c r="HV71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HW71" t="n">
+      <c r="HW71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50568,8 +50781,11 @@
       <c r="HV72" s="1" t="n">
         <v>42.89</v>
       </c>
-      <c r="HW72" t="n">
+      <c r="HW72" s="1" t="n">
         <v>24.27</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51265,8 +51481,11 @@
       <c r="HV73" s="1" t="n">
         <v>21.44</v>
       </c>
-      <c r="HW73" t="n">
+      <c r="HW73" s="1" t="n">
         <v>14.56</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>14.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51962,8 +52181,11 @@
       <c r="HV74" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HW74" t="n">
+      <c r="HW74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52659,8 +52881,11 @@
       <c r="HV75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HW75" t="n">
+      <c r="HW75" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53356,8 +53581,11 @@
       <c r="HV76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HW76" t="n">
+      <c r="HW76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54053,8 +54281,11 @@
       <c r="HV77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HW77" t="n">
+      <c r="HW77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54750,8 +54981,11 @@
       <c r="HV78" s="1" t="n">
         <v>2.72</v>
       </c>
-      <c r="HW78" t="n">
+      <c r="HW78" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55447,8 +55681,11 @@
       <c r="HV79" s="1" t="n">
         <v>5.44</v>
       </c>
-      <c r="HW79" t="n">
+      <c r="HW79" s="1" t="n">
         <v>3.87</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56144,8 +56381,11 @@
       <c r="HV80" s="1" t="n">
         <v>32.7</v>
       </c>
-      <c r="HW80" t="n">
+      <c r="HW80" s="1" t="n">
         <v>34.5</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56841,8 +57081,11 @@
       <c r="HV81" s="1" t="n">
         <v>18.4</v>
       </c>
-      <c r="HW81" t="n">
+      <c r="HW81" s="1" t="n">
         <v>25.9</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57538,8 +57781,11 @@
       <c r="HV82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HW82" t="n">
+      <c r="HW82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58235,8 +58481,11 @@
       <c r="HV83" s="1" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="HW83" t="n">
+      <c r="HW83" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58932,8 +59181,11 @@
       <c r="HV84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="HW84" t="n">
+      <c r="HW84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59629,8 +59881,11 @@
       <c r="HV85" s="1" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="HW85" t="n">
+      <c r="HW85" s="1" t="n">
         <v>103.1</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>103.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60326,8 +60581,11 @@
       <c r="HV86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW86" t="n">
+      <c r="HW86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61023,7 +61281,10 @@
       <c r="HV87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HW87" t="n">
+      <c r="HW87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -61720,8 +61981,11 @@
       <c r="HV88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HW88" t="n">
+      <c r="HW88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62417,8 +62681,11 @@
       <c r="HV89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW89" t="n">
+      <c r="HW89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63114,8 +63381,11 @@
       <c r="HV90" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="HW90" t="n">
+      <c r="HW90" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63811,8 +64081,11 @@
       <c r="HV91" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="HW91" t="n">
+      <c r="HW91" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64508,8 +64781,11 @@
       <c r="HV92" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="HW92" t="n">
+      <c r="HW92" s="1" t="n">
         <v>283</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65205,8 +65481,11 @@
       <c r="HV93" s="1" t="n">
         <v>72.5</v>
       </c>
-      <c r="HW93" t="n">
+      <c r="HW93" s="1" t="n">
         <v>77.7</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65902,8 +66181,11 @@
       <c r="HV94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HW94" t="n">
+      <c r="HW94" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66599,8 +66881,11 @@
       <c r="HV95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW95" t="n">
+      <c r="HW95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67296,8 +67581,11 @@
       <c r="HV96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HW96" t="n">
+      <c r="HW96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67993,8 +68281,11 @@
       <c r="HV97" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HW97" t="n">
+      <c r="HW97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68690,8 +68981,11 @@
       <c r="HV98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HW98" t="n">
+      <c r="HW98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69387,8 +69681,11 @@
       <c r="HV99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HW99" t="n">
+      <c r="HW99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70084,8 +70381,11 @@
       <c r="HV100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW100" t="n">
+      <c r="HW100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -70781,8 +71081,11 @@
       <c r="HV101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW101" t="n">
+      <c r="HW101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71478,8 +71781,11 @@
       <c r="HV102" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="HW102" t="n">
+      <c r="HW102" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1084,8 +1084,11 @@
       <c r="HW1" s="1" t="n">
         <v>10421</v>
       </c>
-      <c r="HX1" t="n">
+      <c r="HX1" s="1" t="n">
         <v>10426</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10440</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1784,7 +1787,10 @@
       <c r="HW2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HX2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HY2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2484,8 +2490,11 @@
       <c r="HW3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HX3" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3184,8 +3193,11 @@
       <c r="HW4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HX4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3884,8 +3896,11 @@
       <c r="HW5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="HX5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4584,8 +4599,11 @@
       <c r="HW6" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="HX6" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5284,8 +5302,11 @@
       <c r="HW7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="HX7" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5984,8 +6005,11 @@
       <c r="HW8" s="1" t="n">
         <v>-22</v>
       </c>
-      <c r="HX8" t="n">
+      <c r="HX8" s="1" t="n">
         <v>-22</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>-36</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6684,7 +6708,10 @@
       <c r="HW9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX9" t="n">
+      <c r="HX9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7384,8 +7411,11 @@
       <c r="HW10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX10" t="n">
+      <c r="HX10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8084,8 +8114,11 @@
       <c r="HW11" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="HX11" t="n">
+      <c r="HX11" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8784,8 +8817,11 @@
       <c r="HW12" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HX12" t="n">
+      <c r="HX12" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9484,8 +9520,11 @@
       <c r="HW13" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="HX13" t="n">
+      <c r="HX13" s="1" t="n">
         <v>357</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10184,8 +10223,11 @@
       <c r="HW14" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="HX14" t="n">
+      <c r="HX14" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10884,8 +10926,11 @@
       <c r="HW15" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HX15" t="n">
+      <c r="HX15" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11584,8 +11629,11 @@
       <c r="HW16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HX16" t="n">
+      <c r="HX16" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12284,8 +12332,11 @@
       <c r="HW17" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HX17" t="n">
+      <c r="HX17" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12984,8 +13035,11 @@
       <c r="HW18" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HX18" t="n">
+      <c r="HX18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13684,8 +13738,11 @@
       <c r="HW19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HX19" t="n">
+      <c r="HX19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14384,8 +14441,11 @@
       <c r="HW20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX20" t="n">
+      <c r="HX20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15084,8 +15144,11 @@
       <c r="HW21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HX21" t="n">
+      <c r="HX21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15784,8 +15847,11 @@
       <c r="HW22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX22" t="n">
+      <c r="HX22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16484,7 +16550,10 @@
       <c r="HW23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HX23" t="n">
+      <c r="HX23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17184,8 +17253,11 @@
       <c r="HW24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HX24" t="n">
+      <c r="HX24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17884,8 +17956,11 @@
       <c r="HW25" s="1" t="n">
         <v>47.8</v>
       </c>
-      <c r="HX25" t="n">
+      <c r="HX25" s="1" t="n">
         <v>43.5</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18584,8 +18659,11 @@
       <c r="HW26" s="1" t="n">
         <v>27.55</v>
       </c>
-      <c r="HX26" t="n">
+      <c r="HX26" s="1" t="n">
         <v>35.7</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>34.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19284,8 +19362,11 @@
       <c r="HW27" s="1" t="n">
         <v>13.17</v>
       </c>
-      <c r="HX27" t="n">
+      <c r="HX27" s="1" t="n">
         <v>15.52</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>14.76</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19984,8 +20065,11 @@
       <c r="HW28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HX28" t="n">
+      <c r="HX28" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20684,8 +20768,11 @@
       <c r="HW29" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HX29" t="n">
+      <c r="HX29" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21384,8 +21471,11 @@
       <c r="HW30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HX30" t="n">
+      <c r="HX30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22084,8 +22174,11 @@
       <c r="HW31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HX31" t="n">
+      <c r="HX31" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22784,8 +22877,11 @@
       <c r="HW32" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="HX32" t="n">
+      <c r="HX32" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23484,8 +23580,11 @@
       <c r="HW33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX33" t="n">
+      <c r="HX33" s="1" t="n">
         <v>4.7</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24184,8 +24283,11 @@
       <c r="HW34" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="HX34" t="n">
+      <c r="HX34" s="1" t="n">
         <v>44.7</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24884,8 +24986,11 @@
       <c r="HW35" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HX35" t="n">
+      <c r="HX35" s="1" t="n">
         <v>21.3</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25584,8 +25689,11 @@
       <c r="HW36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HX36" t="n">
+      <c r="HX36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26284,8 +26392,11 @@
       <c r="HW37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="HX37" t="n">
+      <c r="HX37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26984,8 +27095,11 @@
       <c r="HW38" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HX38" t="n">
+      <c r="HX38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27684,8 +27798,11 @@
       <c r="HW39" s="1" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="HX39" t="n">
+      <c r="HX39" s="1" t="n">
         <v>102.2</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28384,7 +28501,10 @@
       <c r="HW40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HX40" t="n">
+      <c r="HX40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -29084,8 +29204,11 @@
       <c r="HW41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX41" t="n">
+      <c r="HX41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29784,7 +29907,10 @@
       <c r="HW42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX42" t="n">
+      <c r="HX42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30484,8 +30610,11 @@
       <c r="HW43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX43" t="n">
+      <c r="HX43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31184,8 +31313,11 @@
       <c r="HW44" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="HX44" t="n">
+      <c r="HX44" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31884,8 +32016,11 @@
       <c r="HW45" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="HX45" t="n">
+      <c r="HX45" s="1" t="n">
         <v>236</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32584,8 +32719,11 @@
       <c r="HW46" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="HX46" t="n">
+      <c r="HX46" s="1" t="n">
         <v>262</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33284,8 +33422,11 @@
       <c r="HW47" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="HX47" t="n">
+      <c r="HX47" s="1" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33984,8 +34125,11 @@
       <c r="HW48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HX48" t="n">
+      <c r="HX48" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34684,8 +34828,11 @@
       <c r="HW49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HX49" t="n">
+      <c r="HX49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35384,8 +35531,11 @@
       <c r="HW50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX50" t="n">
+      <c r="HX50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36084,8 +36234,11 @@
       <c r="HW51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HX51" t="n">
+      <c r="HX51" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36784,8 +36937,11 @@
       <c r="HW52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HX52" t="n">
+      <c r="HX52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37484,8 +37640,11 @@
       <c r="HW53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HX53" t="n">
+      <c r="HX53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38184,8 +38343,11 @@
       <c r="HW54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HX54" t="n">
+      <c r="HX54" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38884,8 +39046,11 @@
       <c r="HW55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HX55" t="n">
+      <c r="HX55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39584,8 +39749,11 @@
       <c r="HW56" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="HX56" t="n">
+      <c r="HX56" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40284,8 +40452,11 @@
       <c r="HW57" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="HX57" t="n">
+      <c r="HX57" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40984,8 +41155,11 @@
       <c r="HW58" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HX58" t="n">
+      <c r="HX58" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41684,8 +41858,11 @@
       <c r="HW59" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="HX59" t="n">
+      <c r="HX59" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42384,8 +42561,11 @@
       <c r="HW60" s="1" t="n">
         <v>1.89</v>
       </c>
-      <c r="HX60" t="n">
+      <c r="HX60" s="1" t="n">
         <v>2.23</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43084,8 +43264,11 @@
       <c r="HW61" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="HX61" t="n">
+      <c r="HX61" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43784,8 +43967,11 @@
       <c r="HW62" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="HX62" t="n">
+      <c r="HX62" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44484,8 +44670,11 @@
       <c r="HW63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HX63" t="n">
+      <c r="HX63" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45184,8 +45373,11 @@
       <c r="HW64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HX64" t="n">
+      <c r="HX64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45884,8 +46076,11 @@
       <c r="HW65" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HX65" t="n">
+      <c r="HX65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46584,8 +46779,11 @@
       <c r="HW66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HX66" t="n">
+      <c r="HX66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47284,8 +47482,11 @@
       <c r="HW67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX67" t="n">
+      <c r="HX67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47984,8 +48185,11 @@
       <c r="HW68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX68" t="n">
+      <c r="HX68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48684,8 +48888,11 @@
       <c r="HW69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX69" t="n">
+      <c r="HX69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -49384,8 +49591,11 @@
       <c r="HW70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HX70" t="n">
+      <c r="HX70" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50084,8 +50294,11 @@
       <c r="HW71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HX71" t="n">
+      <c r="HX71" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50784,8 +50997,11 @@
       <c r="HW72" s="1" t="n">
         <v>24.27</v>
       </c>
-      <c r="HX72" t="n">
+      <c r="HX72" s="1" t="n">
         <v>25.57</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>21.81</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51484,8 +51700,11 @@
       <c r="HW73" s="1" t="n">
         <v>14.56</v>
       </c>
-      <c r="HX73" t="n">
+      <c r="HX73" s="1" t="n">
         <v>14.32</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>15.86</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52184,8 +52403,11 @@
       <c r="HW74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HX74" t="n">
+      <c r="HX74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52884,8 +53106,11 @@
       <c r="HW75" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HX75" t="n">
+      <c r="HX75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53584,8 +53809,11 @@
       <c r="HW76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HX76" t="n">
+      <c r="HX76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54284,8 +54512,11 @@
       <c r="HW77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HX77" t="n">
+      <c r="HX77" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54984,8 +55215,11 @@
       <c r="HW78" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="HX78" t="n">
+      <c r="HX78" s="1" t="n">
         <v>2.28</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55684,8 +55918,11 @@
       <c r="HW79" s="1" t="n">
         <v>3.87</v>
       </c>
-      <c r="HX79" t="n">
+      <c r="HX79" s="1" t="n">
         <v>4.07</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56384,8 +56621,11 @@
       <c r="HW80" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="HX80" t="n">
+      <c r="HX80" s="1" t="n">
         <v>35.1</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57084,8 +57324,11 @@
       <c r="HW81" s="1" t="n">
         <v>25.9</v>
       </c>
-      <c r="HX81" t="n">
+      <c r="HX81" s="1" t="n">
         <v>24.6</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57784,8 +58027,11 @@
       <c r="HW82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HX82" t="n">
+      <c r="HX82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58484,8 +58730,11 @@
       <c r="HW83" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HX83" t="n">
+      <c r="HX83" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59184,8 +59433,11 @@
       <c r="HW84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="HX84" t="n">
+      <c r="HX84" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59884,8 +60136,11 @@
       <c r="HW85" s="1" t="n">
         <v>103.1</v>
       </c>
-      <c r="HX85" t="n">
+      <c r="HX85" s="1" t="n">
         <v>103.2</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>92.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60584,8 +60839,11 @@
       <c r="HW86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HX86" t="n">
+      <c r="HX86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61284,8 +61542,11 @@
       <c r="HW87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX87" t="n">
+      <c r="HX87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -61984,8 +62245,11 @@
       <c r="HW88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX88" t="n">
+      <c r="HX88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62684,8 +62948,11 @@
       <c r="HW89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX89" t="n">
+      <c r="HX89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63384,8 +63651,11 @@
       <c r="HW90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="HX90" t="n">
+      <c r="HX90" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64084,8 +64354,11 @@
       <c r="HW91" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="HX91" t="n">
+      <c r="HX91" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64784,8 +65057,11 @@
       <c r="HW92" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="HX92" t="n">
+      <c r="HX92" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65484,8 +65760,11 @@
       <c r="HW93" s="1" t="n">
         <v>77.7</v>
       </c>
-      <c r="HX93" t="n">
+      <c r="HX93" s="1" t="n">
         <v>71.8</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -66184,8 +66463,11 @@
       <c r="HW94" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HX94" t="n">
+      <c r="HX94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66884,8 +67166,11 @@
       <c r="HW95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX95" t="n">
+      <c r="HX95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67584,8 +67869,11 @@
       <c r="HW96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HX96" t="n">
+      <c r="HX96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -68284,8 +68572,11 @@
       <c r="HW97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HX97" t="n">
+      <c r="HX97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68984,8 +69275,11 @@
       <c r="HW98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HX98" t="n">
+      <c r="HX98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69684,8 +69978,11 @@
       <c r="HW99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HX99" t="n">
+      <c r="HX99" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70384,8 +70681,11 @@
       <c r="HW100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX100" t="n">
+      <c r="HX100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -71084,8 +71384,11 @@
       <c r="HW101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX101" t="n">
+      <c r="HX101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71784,8 +72087,11 @@
       <c r="HW102" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="HX102" t="n">
+      <c r="HX102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>56.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GS74" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="GV98" activeCellId="0" pane="topLeft" sqref="GV98"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1090,11 +1090,14 @@
       <c r="HY1" s="1" t="n">
         <v>10440</v>
       </c>
-      <c r="HZ1" t="n">
+      <c r="HZ1" s="1" t="n">
         <v>10445</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10461</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1796,11 +1799,14 @@
       <c r="HY2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2502,11 +2508,14 @@
       <c r="HY3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA3" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3208,11 +3217,14 @@
       <c r="HY4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3914,11 +3926,14 @@
       <c r="HY5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4620,11 +4635,14 @@
       <c r="HY6" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="IA6" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5326,11 +5344,14 @@
       <c r="HY7" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="IA7" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6032,11 +6053,14 @@
       <c r="HY8" s="1" t="n">
         <v>-36</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA8" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6738,11 +6762,14 @@
       <c r="HY9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7444,11 +7471,14 @@
       <c r="HY10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IA10" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8150,11 +8180,14 @@
       <c r="HY11" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11" s="1" t="n">
         <v>244</v>
       </c>
+      <c r="IA11" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8856,11 +8889,14 @@
       <c r="HY12" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12" s="1" t="n">
         <v>136</v>
       </c>
+      <c r="IA12" t="n">
+        <v>115</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9562,11 +9598,14 @@
       <c r="HY13" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13" s="1" t="n">
         <v>380</v>
       </c>
+      <c r="IA13" t="n">
+        <v>335</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10268,11 +10307,14 @@
       <c r="HY14" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14" s="1" t="n">
         <v>1.79</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.91</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10974,11 +11016,14 @@
       <c r="HY15" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="IA15" t="n">
+        <v>104</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11680,11 +11725,14 @@
       <c r="HY16" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="IA16" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12386,11 +12434,14 @@
       <c r="HY17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="HZ17" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="IA17" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13092,11 +13143,14 @@
       <c r="HY18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="HZ18" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IA18" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13798,11 +13852,14 @@
       <c r="HY19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="HZ19" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="IA19" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14504,11 +14561,14 @@
       <c r="HY20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IA20" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15210,11 +15270,14 @@
       <c r="HY21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA21" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15916,11 +15979,14 @@
       <c r="HY22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IA22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16622,11 +16688,14 @@
       <c r="HY23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17328,11 +17397,14 @@
       <c r="HY24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IA24" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18034,11 +18106,14 @@
       <c r="HY25" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25" s="1" t="n">
         <v>52.2</v>
       </c>
+      <c r="IA25" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -18740,11 +18815,14 @@
       <c r="HY26" s="1" t="n">
         <v>34.44</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26" s="1" t="n">
         <v>31.67</v>
       </c>
+      <c r="IA26" t="n">
+        <v>27.92</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19446,11 +19524,14 @@
       <c r="HY27" s="1" t="n">
         <v>14.76</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27" s="1" t="n">
         <v>16.52</v>
       </c>
+      <c r="IA27" t="n">
+        <v>16.75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20152,11 +20233,14 @@
       <c r="HY28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="IA28" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -20858,11 +20942,14 @@
       <c r="HY29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA29" t="n">
+        <v>59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -21564,11 +21651,14 @@
       <c r="HY30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA30" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22270,11 +22360,14 @@
       <c r="HY31" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA31" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -22976,11 +23069,14 @@
       <c r="HY32" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="HZ32" t="n">
+      <c r="HZ32" s="1" t="n">
         <v>2.35</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -23682,11 +23778,14 @@
       <c r="HY33" s="1" t="n">
         <v>5.44</v>
       </c>
-      <c r="HZ33" t="n">
+      <c r="HZ33" s="1" t="n">
         <v>4.5</v>
       </c>
+      <c r="IA33" t="n">
+        <v>3.33</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24388,11 +24487,14 @@
       <c r="HY34" s="1" t="n">
         <v>38.8</v>
       </c>
-      <c r="HZ34" t="n">
+      <c r="HZ34" s="1" t="n">
         <v>42.6</v>
       </c>
+      <c r="IA34" t="n">
+        <v>47.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -25094,11 +25196,14 @@
       <c r="HY35" s="1" t="n">
         <v>18.4</v>
       </c>
-      <c r="HZ35" t="n">
+      <c r="HZ35" s="1" t="n">
         <v>22.2</v>
       </c>
+      <c r="IA35" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -25800,11 +25905,14 @@
       <c r="HY36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HZ36" t="n">
+      <c r="HZ36" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="IA36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -26506,11 +26614,14 @@
       <c r="HY37" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="HZ37" t="n">
+      <c r="HZ37" s="1" t="n">
         <v>85.7</v>
       </c>
+      <c r="IA37" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27212,11 +27323,14 @@
       <c r="HY38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="HZ38" t="n">
+      <c r="HZ38" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -27918,11 +28032,14 @@
       <c r="HY39" s="1" t="n">
         <v>91.7</v>
       </c>
-      <c r="HZ39" t="n">
+      <c r="HZ39" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="IA39" t="n">
+        <v>99.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -28624,11 +28741,14 @@
       <c r="HY40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ40" t="n">
+      <c r="HZ40" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA40" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29330,11 +29450,14 @@
       <c r="HY41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ41" t="n">
+      <c r="HZ41" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA41" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -30036,11 +30159,14 @@
       <c r="HY42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ42" t="n">
+      <c r="HZ42" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA42" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -30742,11 +30868,14 @@
       <c r="HY43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ43" t="n">
+      <c r="HZ43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IA43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -31448,11 +31577,14 @@
       <c r="HY44" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="HZ44" t="n">
+      <c r="HZ44" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="IA44" t="n">
+        <v>122</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32154,11 +32286,14 @@
       <c r="HY45" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="HZ45" t="n">
+      <c r="HZ45" s="1" t="n">
         <v>251</v>
       </c>
+      <c r="IA45" t="n">
+        <v>205</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -32860,11 +32995,14 @@
       <c r="HY46" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="HZ46" t="n">
+      <c r="HZ46" s="1" t="n">
         <v>275</v>
       </c>
+      <c r="IA46" t="n">
+        <v>253</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -33566,11 +33704,14 @@
       <c r="HY47" s="1" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="HZ47" t="n">
+      <c r="HZ47" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="IA47" t="n">
+        <v>75.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34272,11 +34413,14 @@
       <c r="HY48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HZ48" t="n">
+      <c r="HZ48" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA48" t="n">
+        <v>59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -34978,11 +35122,14 @@
       <c r="HY49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HZ49" t="n">
+      <c r="HZ49" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IA49" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -35684,11 +35831,14 @@
       <c r="HY50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ50" t="n">
+      <c r="HZ50" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="IA50" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -36390,11 +36540,14 @@
       <c r="HY51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HZ51" t="n">
+      <c r="HZ51" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="IA51" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -37096,11 +37249,14 @@
       <c r="HY52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HZ52" t="n">
+      <c r="HZ52" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA52" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -37802,11 +37958,14 @@
       <c r="HY53" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="HZ53" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="IA53" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -38508,11 +38667,14 @@
       <c r="HY54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="HZ54" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IA54" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -39214,11 +39376,14 @@
       <c r="HY55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ55" t="n">
+      <c r="HZ55" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA55" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -39920,11 +40085,14 @@
       <c r="HY56" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="HZ56" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="IA56" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -40626,11 +40794,14 @@
       <c r="HY57" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="HZ57" s="1" t="n">
         <v>199</v>
       </c>
+      <c r="IA57" t="n">
+        <v>206</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -41332,11 +41503,14 @@
       <c r="HY58" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="HZ58" t="n">
+      <c r="HZ58" s="1" t="n">
         <v>127</v>
       </c>
+      <c r="IA58" t="n">
+        <v>117</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -42038,11 +42212,14 @@
       <c r="HY59" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="HZ59" t="n">
+      <c r="HZ59" s="1" t="n">
         <v>326</v>
       </c>
+      <c r="IA59" t="n">
+        <v>323</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -42744,11 +42921,14 @@
       <c r="HY60" s="1" t="n">
         <v>2.26</v>
       </c>
-      <c r="HZ60" t="n">
+      <c r="HZ60" s="1" t="n">
         <v>1.57</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.76</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -43450,11 +43630,14 @@
       <c r="HY61" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="HZ61" t="n">
+      <c r="HZ61" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="IA61" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -44156,11 +44339,14 @@
       <c r="HY62" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="HZ62" t="n">
+      <c r="HZ62" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="IA62" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -44862,11 +45048,14 @@
       <c r="HY63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="HZ63" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="IA63" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -45568,11 +45757,14 @@
       <c r="HY64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="HZ64" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="IA64" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -46274,11 +46466,14 @@
       <c r="HY65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="HZ65" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IA65" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -46980,11 +47175,14 @@
       <c r="HY66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="HZ66" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA66" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -47686,11 +47884,14 @@
       <c r="HY67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ67" t="n">
+      <c r="HZ67" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA67" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -48392,11 +48593,14 @@
       <c r="HY68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ68" t="n">
+      <c r="HZ68" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA68" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -49098,11 +49302,14 @@
       <c r="HY69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ69" t="n">
+      <c r="HZ69" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA69" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -49804,11 +50011,14 @@
       <c r="HY70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HZ70" t="n">
+      <c r="HZ70" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="IA70" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -50510,11 +50720,14 @@
       <c r="HY71" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="HZ71" s="1" t="n">
         <v>43.5</v>
       </c>
+      <c r="IA71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -51216,11 +51429,14 @@
       <c r="HY72" s="1" t="n">
         <v>21.81</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="HZ72" s="1" t="n">
         <v>32.6</v>
       </c>
+      <c r="IA72" t="n">
+        <v>40.38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -51922,11 +52138,14 @@
       <c r="HY73" s="1" t="n">
         <v>15.86</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="HZ73" s="1" t="n">
         <v>14.17</v>
       </c>
+      <c r="IA73" t="n">
+        <v>13.46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -52628,11 +52847,14 @@
       <c r="HY74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="HZ74" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IA74" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -53334,11 +53556,14 @@
       <c r="HY75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="HZ75" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA75" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -54040,11 +54265,14 @@
       <c r="HY76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HZ76" t="n">
+      <c r="HZ76" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="IA76" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -54746,11 +54974,14 @@
       <c r="HY77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HZ77" t="n">
+      <c r="HZ77" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="IA77" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -55452,11 +55683,14 @@
       <c r="HY78" s="1" t="n">
         <v>2.36</v>
       </c>
-      <c r="HZ78" t="n">
+      <c r="HZ78" s="1" t="n">
         <v>2.17</v>
       </c>
+      <c r="IA78" t="n">
+        <v>2.17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -56158,11 +56392,14 @@
       <c r="HY79" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="HZ79" t="n">
+      <c r="HZ79" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IA79" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -56864,11 +57101,14 @@
       <c r="HY80" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="HZ80" t="n">
+      <c r="HZ80" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IA80" t="n">
+        <v>40.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -57570,11 +57810,14 @@
       <c r="HY81" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="HZ81" t="n">
+      <c r="HZ81" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="IA81" t="n">
+        <v>15.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -58276,11 +58519,14 @@
       <c r="HY82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="HZ82" t="n">
+      <c r="HZ82" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="IA82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -58982,11 +59228,14 @@
       <c r="HY83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="HZ83" t="n">
+      <c r="HZ83" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="IA83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -59688,11 +59937,14 @@
       <c r="HY84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HZ84" t="n">
+      <c r="HZ84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="IA84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -60394,11 +60646,14 @@
       <c r="HY85" s="1" t="n">
         <v>92.5</v>
       </c>
-      <c r="HZ85" t="n">
+      <c r="HZ85" s="1" t="n">
         <v>83.2</v>
       </c>
+      <c r="IA85" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -61100,11 +61355,14 @@
       <c r="HY86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ86" t="n">
+      <c r="HZ86" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IA86" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -61806,11 +62064,14 @@
       <c r="HY87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ87" t="n">
+      <c r="HZ87" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IA87" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -62512,11 +62773,14 @@
       <c r="HY88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ88" t="n">
+      <c r="HZ88" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IA88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -63218,11 +63482,14 @@
       <c r="HY89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ89" t="n">
+      <c r="HZ89" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -63924,11 +64191,14 @@
       <c r="HY90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HZ90" t="n">
+      <c r="HZ90" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="IA90" t="n">
+        <v>123</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -64630,11 +64900,14 @@
       <c r="HY91" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="HZ91" t="n">
+      <c r="HZ91" s="1" t="n">
         <v>202</v>
       </c>
+      <c r="IA91" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -65336,11 +65609,14 @@
       <c r="HY92" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="HZ92" t="n">
+      <c r="HZ92" s="1" t="n">
         <v>246</v>
       </c>
+      <c r="IA92" t="n">
+        <v>229</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -66042,11 +66318,14 @@
       <c r="HY93" s="1" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="HZ93" t="n">
+      <c r="HZ93" s="1" t="n">
         <v>75.5</v>
       </c>
+      <c r="IA93" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -66748,11 +67027,14 @@
       <c r="HY94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HZ94" t="n">
+      <c r="HZ94" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA94" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -67454,11 +67736,14 @@
       <c r="HY95" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HZ95" t="n">
+      <c r="HZ95" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IA95" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -68160,11 +68445,14 @@
       <c r="HY96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ96" t="n">
+      <c r="HZ96" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA96" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -68866,11 +69154,14 @@
       <c r="HY97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HZ97" t="n">
+      <c r="HZ97" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IA97" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -69572,11 +69863,14 @@
       <c r="HY98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HZ98" t="n">
+      <c r="HZ98" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="IA98" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -70278,11 +70572,14 @@
       <c r="HY99" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ99" t="n">
+      <c r="HZ99" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IA99" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -70984,11 +71281,14 @@
       <c r="HY100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ100" t="n">
+      <c r="HZ100" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="IA100" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -71690,11 +71990,14 @@
       <c r="HY101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ101" t="n">
+      <c r="HZ101" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA101" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -72396,13 +72699,16 @@
       <c r="HY102" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="HZ102" t="n">
+      <c r="HZ102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1093,8 +1093,11 @@
       <c r="HZ1" s="1" t="n">
         <v>10445</v>
       </c>
-      <c r="IA1" t="n">
+      <c r="IA1" s="1" t="n">
         <v>10461</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10463</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1802,7 +1805,10 @@
       <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IA2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IB2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2511,8 +2517,11 @@
       <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IA3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3220,8 +3229,11 @@
       <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IA4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3929,7 +3941,10 @@
       <c r="HZ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,8 +4653,11 @@
       <c r="HZ6" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="IA6" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5347,8 +5365,11 @@
       <c r="HZ7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="IA7" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6056,8 +6077,11 @@
       <c r="HZ8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA8" t="n">
+      <c r="IA8" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>-26</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6765,8 +6789,11 @@
       <c r="HZ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IA9" t="n">
+      <c r="IA9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7474,8 +7501,11 @@
       <c r="HZ10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IA10" t="n">
+      <c r="IA10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8183,8 +8213,11 @@
       <c r="HZ11" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="IA11" t="n">
+      <c r="IA11" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8892,8 +8925,11 @@
       <c r="HZ12" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="IA12" t="n">
+      <c r="IA12" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9601,8 +9637,11 @@
       <c r="HZ13" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="IA13" t="n">
+      <c r="IA13" s="1" t="n">
         <v>335</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10310,8 +10349,11 @@
       <c r="HZ14" s="1" t="n">
         <v>1.79</v>
       </c>
-      <c r="IA14" t="n">
+      <c r="IA14" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11019,8 +11061,11 @@
       <c r="HZ15" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="IA15" t="n">
+      <c r="IA15" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11728,8 +11773,11 @@
       <c r="HZ16" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IA16" t="n">
+      <c r="IA16" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12437,8 +12485,11 @@
       <c r="HZ17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IA17" t="n">
+      <c r="IA17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13146,7 +13197,10 @@
       <c r="HZ18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IA18" t="n">
+      <c r="IA18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IB18" t="n">
         <v>21</v>
       </c>
     </row>
@@ -13855,7 +13909,10 @@
       <c r="HZ19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IA19" t="n">
+      <c r="IA19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -14564,8 +14621,11 @@
       <c r="HZ20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IA20" t="n">
+      <c r="IA20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15273,8 +15333,11 @@
       <c r="HZ21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA21" t="n">
+      <c r="IA21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15982,8 +16045,11 @@
       <c r="HZ22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IA22" t="n">
+      <c r="IA22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16691,8 +16757,11 @@
       <c r="HZ23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA23" t="n">
+      <c r="IA23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17400,8 +17469,11 @@
       <c r="HZ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IA24" t="n">
+      <c r="IA24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18109,8 +18181,11 @@
       <c r="HZ25" s="1" t="n">
         <v>52.2</v>
       </c>
-      <c r="IA25" t="n">
+      <c r="IA25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18818,8 +18893,11 @@
       <c r="HZ26" s="1" t="n">
         <v>31.67</v>
       </c>
-      <c r="IA26" t="n">
+      <c r="IA26" s="1" t="n">
         <v>27.92</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19527,8 +19605,11 @@
       <c r="HZ27" s="1" t="n">
         <v>16.52</v>
       </c>
-      <c r="IA27" t="n">
+      <c r="IA27" s="1" t="n">
         <v>16.75</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20236,8 +20317,11 @@
       <c r="HZ28" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IA28" t="n">
+      <c r="IA28" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20945,8 +21029,11 @@
       <c r="HZ29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA29" t="n">
+      <c r="IA29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21654,8 +21741,11 @@
       <c r="HZ30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA30" t="n">
+      <c r="IA30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22363,8 +22453,11 @@
       <c r="HZ31" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA31" t="n">
+      <c r="IA31" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23072,7 +23165,10 @@
       <c r="HZ32" s="1" t="n">
         <v>2.35</v>
       </c>
-      <c r="IA32" t="n">
+      <c r="IA32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23781,8 +23877,11 @@
       <c r="HZ33" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="IA33" t="n">
+      <c r="IA33" s="1" t="n">
         <v>3.33</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24490,8 +24589,11 @@
       <c r="HZ34" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="IA34" t="n">
+      <c r="IA34" s="1" t="n">
         <v>47.5</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25199,8 +25301,11 @@
       <c r="HZ35" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="IA35" t="n">
+      <c r="IA35" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25908,8 +26013,11 @@
       <c r="HZ36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="IA36" t="n">
+      <c r="IA36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26617,8 +26725,11 @@
       <c r="HZ37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="IA37" t="n">
+      <c r="IA37" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IB37" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27326,8 +27437,11 @@
       <c r="HZ38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IA38" t="n">
+      <c r="IA38" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28035,8 +28149,11 @@
       <c r="HZ39" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="IA39" t="n">
+      <c r="IA39" s="1" t="n">
         <v>99.8</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28744,8 +28861,11 @@
       <c r="HZ40" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA40" t="n">
+      <c r="IA40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29453,7 +29573,10 @@
       <c r="HZ41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA41" t="n">
+      <c r="IA41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IB41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30162,8 +30285,11 @@
       <c r="HZ42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA42" t="n">
+      <c r="IA42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -30871,8 +30997,11 @@
       <c r="HZ43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IA43" t="n">
+      <c r="IA43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31580,8 +31709,11 @@
       <c r="HZ44" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IA44" t="n">
+      <c r="IA44" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32289,8 +32421,11 @@
       <c r="HZ45" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="IA45" t="n">
+      <c r="IA45" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32998,8 +33133,11 @@
       <c r="HZ46" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="IA46" t="n">
+      <c r="IA46" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33707,8 +33845,11 @@
       <c r="HZ47" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="IA47" t="n">
+      <c r="IA47" s="1" t="n">
         <v>75.5</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34416,8 +34557,11 @@
       <c r="HZ48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA48" t="n">
+      <c r="IA48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35125,8 +35269,11 @@
       <c r="HZ49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IA49" t="n">
+      <c r="IA49" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IB49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35834,8 +35981,11 @@
       <c r="HZ50" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IA50" t="n">
+      <c r="IA50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36543,8 +36693,11 @@
       <c r="HZ51" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IA51" t="n">
+      <c r="IA51" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37252,8 +37405,11 @@
       <c r="HZ52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA52" t="n">
+      <c r="IA52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37961,8 +38117,11 @@
       <c r="HZ53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IA53" t="n">
+      <c r="IA53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38670,8 +38829,11 @@
       <c r="HZ54" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IA54" t="n">
+      <c r="IA54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39379,8 +39541,11 @@
       <c r="HZ55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA55" t="n">
+      <c r="IA55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40088,8 +40253,11 @@
       <c r="HZ56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IA56" t="n">
+      <c r="IA56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40797,8 +40965,11 @@
       <c r="HZ57" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="IA57" t="n">
+      <c r="IA57" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41506,8 +41677,11 @@
       <c r="HZ58" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="IA58" t="n">
+      <c r="IA58" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42215,8 +42389,11 @@
       <c r="HZ59" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="IA59" t="n">
+      <c r="IA59" s="1" t="n">
         <v>323</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42924,8 +43101,11 @@
       <c r="HZ60" s="1" t="n">
         <v>1.57</v>
       </c>
-      <c r="IA60" t="n">
+      <c r="IA60" s="1" t="n">
         <v>1.76</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43633,8 +43813,11 @@
       <c r="HZ61" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IA61" t="n">
+      <c r="IA61" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44342,8 +44525,11 @@
       <c r="HZ62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IA62" t="n">
+      <c r="IA62" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45051,8 +45237,11 @@
       <c r="HZ63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IA63" t="n">
+      <c r="IA63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45760,8 +45949,11 @@
       <c r="HZ64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IA64" t="n">
+      <c r="IA64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IB64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46469,8 +46661,11 @@
       <c r="HZ65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IA65" t="n">
+      <c r="IA65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47178,8 +47373,11 @@
       <c r="HZ66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA66" t="n">
+      <c r="IA66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47887,8 +48085,11 @@
       <c r="HZ67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA67" t="n">
+      <c r="IA67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48596,8 +48797,11 @@
       <c r="HZ68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA68" t="n">
+      <c r="IA68" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49305,7 +49509,10 @@
       <c r="HZ69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA69" t="n">
+      <c r="IA69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -50014,8 +50221,11 @@
       <c r="HZ70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IA70" t="n">
+      <c r="IA70" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50723,8 +50933,11 @@
       <c r="HZ71" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="IA71" t="n">
+      <c r="IA71" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51432,8 +51645,11 @@
       <c r="HZ72" s="1" t="n">
         <v>32.6</v>
       </c>
-      <c r="IA72" t="n">
+      <c r="IA72" s="1" t="n">
         <v>40.38</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>36.6</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52141,8 +52357,11 @@
       <c r="HZ73" s="1" t="n">
         <v>14.17</v>
       </c>
-      <c r="IA73" t="n">
+      <c r="IA73" s="1" t="n">
         <v>13.46</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52850,8 +53069,11 @@
       <c r="HZ74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IA74" t="n">
+      <c r="IA74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53559,8 +53781,11 @@
       <c r="HZ75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA75" t="n">
+      <c r="IA75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54268,8 +54493,11 @@
       <c r="HZ76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IA76" t="n">
+      <c r="IA76" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54977,8 +55205,11 @@
       <c r="HZ77" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IA77" t="n">
+      <c r="IA77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55686,8 +55917,11 @@
       <c r="HZ78" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="IA78" t="n">
+      <c r="IA78" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56395,8 +56629,11 @@
       <c r="HZ79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IA79" t="n">
+      <c r="IA79" s="1" t="n">
         <v>6.5</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57104,8 +57341,11 @@
       <c r="HZ80" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IA80" t="n">
+      <c r="IA80" s="1" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>30.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57813,8 +58053,11 @@
       <c r="HZ81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IA81" t="n">
+      <c r="IA81" s="1" t="n">
         <v>15.4</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58522,8 +58765,11 @@
       <c r="HZ82" s="1" t="n">
         <v>186.1</v>
       </c>
-      <c r="IA82" t="n">
+      <c r="IA82" s="1" t="n">
         <v>187.2</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59231,8 +59477,11 @@
       <c r="HZ83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IA83" t="n">
+      <c r="IA83" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59940,8 +60189,11 @@
       <c r="HZ84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IA84" t="n">
+      <c r="IA84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>27.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60649,8 +60901,11 @@
       <c r="HZ85" s="1" t="n">
         <v>83.2</v>
       </c>
-      <c r="IA85" t="n">
+      <c r="IA85" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>137.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61358,8 +61613,11 @@
       <c r="HZ86" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IA86" t="n">
+      <c r="IA86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62067,8 +62325,11 @@
       <c r="HZ87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IA87" t="n">
+      <c r="IA87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -62776,7 +63037,10 @@
       <c r="HZ88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IA88" t="n">
+      <c r="IA88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -63485,8 +63749,11 @@
       <c r="HZ89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA89" t="n">
+      <c r="IA89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64194,8 +64461,11 @@
       <c r="HZ90" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="IA90" t="n">
+      <c r="IA90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64903,8 +65173,11 @@
       <c r="HZ91" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="IA91" t="n">
+      <c r="IA91" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="IB91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65612,8 +65885,11 @@
       <c r="HZ92" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="IA92" t="n">
+      <c r="IA92" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66321,8 +66597,11 @@
       <c r="HZ93" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IA93" t="n">
+      <c r="IA93" s="1" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67030,8 +67309,11 @@
       <c r="HZ94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA94" t="n">
+      <c r="IA94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -67739,8 +68021,11 @@
       <c r="HZ95" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IA95" t="n">
+      <c r="IA95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -68448,8 +68733,11 @@
       <c r="HZ96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA96" t="n">
+      <c r="IA96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69157,8 +69445,11 @@
       <c r="HZ97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IA97" t="n">
+      <c r="IA97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -69866,8 +70157,11 @@
       <c r="HZ98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IA98" t="n">
+      <c r="IA98" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IB98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -70575,8 +70869,11 @@
       <c r="HZ99" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IA99" t="n">
+      <c r="IA99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71284,8 +71581,11 @@
       <c r="HZ100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IA100" t="n">
+      <c r="IA100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -71993,8 +72293,11 @@
       <c r="HZ101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA101" t="n">
+      <c r="IA101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -72702,8 +73005,11 @@
       <c r="HZ102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IA102" t="n">
+      <c r="IA102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1096,8 +1096,11 @@
       <c r="IA1" s="1" t="n">
         <v>10461</v>
       </c>
-      <c r="IB1" t="n">
+      <c r="IB1" s="1" t="n">
         <v>10463</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>10471</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1808,7 +1811,10 @@
       <c r="IA2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IB2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IC2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2520,8 +2526,11 @@
       <c r="IA3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IB3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3232,8 +3241,11 @@
       <c r="IA4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IB4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3944,7 +3956,10 @@
       <c r="IA5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,8 +4671,11 @@
       <c r="IA6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IB6" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5368,8 +5386,11 @@
       <c r="IA7" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IB7" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6080,8 +6101,11 @@
       <c r="IA8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IB8" t="n">
+      <c r="IB8" s="1" t="n">
         <v>-26</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6792,8 +6816,11 @@
       <c r="IA9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB9" t="n">
+      <c r="IB9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7504,8 +7531,11 @@
       <c r="IA10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB10" t="n">
+      <c r="IB10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8216,8 +8246,11 @@
       <c r="IA11" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="IB11" t="n">
+      <c r="IB11" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8928,8 +8961,11 @@
       <c r="IA12" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="IB12" t="n">
+      <c r="IB12" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9640,8 +9676,11 @@
       <c r="IA13" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="IB13" t="n">
+      <c r="IB13" s="1" t="n">
         <v>362</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10352,8 +10391,11 @@
       <c r="IA14" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="IB14" t="n">
+      <c r="IB14" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11064,8 +11106,11 @@
       <c r="IA15" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="IB15" t="n">
+      <c r="IB15" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11776,8 +11821,11 @@
       <c r="IA16" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IB16" t="n">
+      <c r="IB16" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12488,8 +12536,11 @@
       <c r="IA17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IB17" t="n">
+      <c r="IB17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13200,8 +13251,11 @@
       <c r="IA18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IB18" t="n">
+      <c r="IB18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13912,8 +13966,11 @@
       <c r="IA19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IB19" t="n">
+      <c r="IB19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14624,8 +14681,11 @@
       <c r="IA20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IB20" t="n">
+      <c r="IB20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15336,8 +15396,11 @@
       <c r="IA21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB21" t="n">
+      <c r="IB21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16048,8 +16111,11 @@
       <c r="IA22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB22" t="n">
+      <c r="IB22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16760,7 +16826,10 @@
       <c r="IA23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB23" t="n">
+      <c r="IB23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17472,8 +17541,11 @@
       <c r="IA24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IB24" t="n">
+      <c r="IB24" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18184,8 +18256,11 @@
       <c r="IA25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IB25" t="n">
+      <c r="IB25" s="1" t="n">
         <v>26.3</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18896,8 +18971,11 @@
       <c r="IA26" s="1" t="n">
         <v>27.92</v>
       </c>
-      <c r="IB26" t="n">
+      <c r="IB26" s="1" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19608,8 +19686,11 @@
       <c r="IA27" s="1" t="n">
         <v>16.75</v>
       </c>
-      <c r="IB27" t="n">
+      <c r="IB27" s="1" t="n">
         <v>19.05</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>13.46</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20320,8 +20401,11 @@
       <c r="IA28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IB28" t="n">
+      <c r="IB28" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21032,8 +21116,11 @@
       <c r="IA29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IB29" t="n">
+      <c r="IB29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21744,8 +21831,11 @@
       <c r="IA30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IB30" t="n">
+      <c r="IB30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22456,8 +22546,11 @@
       <c r="IA31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IB31" t="n">
+      <c r="IB31" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23168,8 +23261,11 @@
       <c r="IA32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IB32" t="n">
+      <c r="IB32" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23880,8 +23976,11 @@
       <c r="IA33" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="IB33" t="n">
+      <c r="IB33" s="1" t="n">
         <v>7.6</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24592,8 +24691,11 @@
       <c r="IA34" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="IB34" t="n">
+      <c r="IB34" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25304,8 +25406,11 @@
       <c r="IA35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IB35" t="n">
+      <c r="IB35" s="1" t="n">
         <v>13.2</v>
+      </c>
+      <c r="IC35" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26016,8 +26121,11 @@
       <c r="IA36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="IB36" t="n">
+      <c r="IB36" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IC36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26728,8 +26836,11 @@
       <c r="IA37" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IB37" t="n">
+      <c r="IB37" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="IC37" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27440,8 +27551,11 @@
       <c r="IA38" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="IB38" t="n">
+      <c r="IB38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IC38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28152,8 +28266,11 @@
       <c r="IA39" s="1" t="n">
         <v>99.8</v>
       </c>
-      <c r="IB39" t="n">
+      <c r="IB39" s="1" t="n">
         <v>94.40000000000001</v>
+      </c>
+      <c r="IC39" t="n">
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28864,8 +28981,11 @@
       <c r="IA40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB40" t="n">
+      <c r="IB40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IC40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29576,8 +29696,11 @@
       <c r="IA41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB41" t="n">
+      <c r="IB41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IC41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30288,8 +30411,11 @@
       <c r="IA42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB42" t="n">
+      <c r="IB42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IC42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31000,8 +31126,11 @@
       <c r="IA43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB43" t="n">
+      <c r="IB43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IC43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31712,8 +31841,11 @@
       <c r="IA44" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="IB44" t="n">
+      <c r="IB44" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32424,8 +32556,11 @@
       <c r="IA45" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IB45" t="n">
+      <c r="IB45" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33136,8 +33271,11 @@
       <c r="IA46" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="IB46" t="n">
+      <c r="IB46" s="1" t="n">
         <v>262</v>
+      </c>
+      <c r="IC46" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33848,8 +33986,11 @@
       <c r="IA47" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IB47" t="n">
+      <c r="IB47" s="1" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="IC47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34560,8 +34701,11 @@
       <c r="IA48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IB48" t="n">
+      <c r="IB48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IC48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35272,8 +35416,11 @@
       <c r="IA49" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB49" t="n">
+      <c r="IB49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC49" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35984,8 +36131,11 @@
       <c r="IA50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IB50" t="n">
+      <c r="IB50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IC50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36696,8 +36846,11 @@
       <c r="IA51" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IB51" t="n">
+      <c r="IB51" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37408,8 +37561,11 @@
       <c r="IA52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IB52" t="n">
+      <c r="IB52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38120,8 +38276,11 @@
       <c r="IA53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IB53" t="n">
+      <c r="IB53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38832,8 +38991,11 @@
       <c r="IA54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB54" t="n">
+      <c r="IB54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39544,8 +39706,11 @@
       <c r="IA55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB55" t="n">
+      <c r="IB55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40256,8 +40421,11 @@
       <c r="IA56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IB56" t="n">
+      <c r="IB56" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IC56" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40968,8 +41136,11 @@
       <c r="IA57" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="IB57" t="n">
+      <c r="IB57" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="IC57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41680,8 +41851,11 @@
       <c r="IA58" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="IB58" t="n">
+      <c r="IB58" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="IC58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42392,8 +42566,11 @@
       <c r="IA59" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="IB59" t="n">
+      <c r="IB59" s="1" t="n">
         <v>366</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43104,8 +43281,11 @@
       <c r="IA60" s="1" t="n">
         <v>1.76</v>
       </c>
-      <c r="IB60" t="n">
+      <c r="IB60" s="1" t="n">
         <v>1.73</v>
+      </c>
+      <c r="IC60" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43816,8 +43996,11 @@
       <c r="IA61" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IB61" t="n">
+      <c r="IB61" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44528,8 +44711,11 @@
       <c r="IA62" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IB62" t="n">
+      <c r="IB62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45240,8 +45426,11 @@
       <c r="IA63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IB63" t="n">
+      <c r="IB63" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45952,8 +46141,11 @@
       <c r="IA64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB64" t="n">
+      <c r="IB64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IC64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46664,8 +46856,11 @@
       <c r="IA65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IB65" t="n">
+      <c r="IB65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IC65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47376,8 +47571,11 @@
       <c r="IA66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IB66" t="n">
+      <c r="IB66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IC66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48088,8 +48286,11 @@
       <c r="IA67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB67" t="n">
+      <c r="IB67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IC67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48800,8 +49001,11 @@
       <c r="IA68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IB68" t="n">
+      <c r="IB68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IC68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49512,7 +49716,10 @@
       <c r="IA69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB69" t="n">
+      <c r="IB69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -50224,8 +50431,11 @@
       <c r="IA70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IB70" t="n">
+      <c r="IB70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IC70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50936,8 +51146,11 @@
       <c r="IA71" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IB71" t="n">
+      <c r="IB71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51648,8 +51861,11 @@
       <c r="IA72" s="1" t="n">
         <v>40.38</v>
       </c>
-      <c r="IB72" t="n">
+      <c r="IB72" s="1" t="n">
         <v>36.6</v>
+      </c>
+      <c r="IC72" t="n">
+        <v>39.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52360,8 +52576,11 @@
       <c r="IA73" s="1" t="n">
         <v>13.46</v>
       </c>
-      <c r="IB73" t="n">
+      <c r="IB73" s="1" t="n">
         <v>18.3</v>
+      </c>
+      <c r="IC73" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53072,8 +53291,11 @@
       <c r="IA74" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IB74" t="n">
+      <c r="IB74" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC74" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53784,8 +54006,11 @@
       <c r="IA75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IB75" t="n">
+      <c r="IB75" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IC75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54496,8 +54721,11 @@
       <c r="IA76" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IB76" t="n">
+      <c r="IB76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55208,8 +55436,11 @@
       <c r="IA77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IB77" t="n">
+      <c r="IB77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IC77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55920,8 +56151,11 @@
       <c r="IA78" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="IB78" t="n">
+      <c r="IB78" s="1" t="n">
         <v>2.8</v>
+      </c>
+      <c r="IC78" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56632,8 +56866,11 @@
       <c r="IA79" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="IB79" t="n">
+      <c r="IB79" s="1" t="n">
         <v>5.6</v>
+      </c>
+      <c r="IC79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57344,8 +57581,11 @@
       <c r="IA80" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="IB80" t="n">
+      <c r="IB80" s="1" t="n">
         <v>30.4</v>
+      </c>
+      <c r="IC80" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58056,8 +58296,11 @@
       <c r="IA81" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="IB81" t="n">
+      <c r="IB81" s="1" t="n">
         <v>17.9</v>
+      </c>
+      <c r="IC81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58768,8 +59011,11 @@
       <c r="IA82" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="IB82" t="n">
+      <c r="IB82" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IC82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59480,8 +59726,11 @@
       <c r="IA83" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="IB83" t="n">
+      <c r="IB83" s="1" t="n">
         <v>89.2</v>
+      </c>
+      <c r="IC83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60192,8 +60441,11 @@
       <c r="IA84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IB84" t="n">
+      <c r="IB84" s="1" t="n">
         <v>27.58</v>
+      </c>
+      <c r="IC84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60904,8 +61156,11 @@
       <c r="IA85" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IB85" t="n">
+      <c r="IB85" s="1" t="n">
         <v>137.1</v>
+      </c>
+      <c r="IC85" t="n">
+        <v>108.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61616,8 +61871,11 @@
       <c r="IA86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IB86" t="n">
+      <c r="IB86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62328,8 +62586,11 @@
       <c r="IA87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB87" t="n">
+      <c r="IB87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IC87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63040,7 +63301,10 @@
       <c r="IA88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB88" t="n">
+      <c r="IB88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -63752,8 +64016,11 @@
       <c r="IA89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB89" t="n">
+      <c r="IB89" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IC89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64464,8 +64731,11 @@
       <c r="IA90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IB90" t="n">
+      <c r="IB90" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="IC90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65176,8 +65446,11 @@
       <c r="IA91" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="IB91" t="n">
+      <c r="IB91" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="IC91" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65888,8 +66161,11 @@
       <c r="IA92" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="IB92" t="n">
+      <c r="IB92" s="1" t="n">
         <v>279</v>
+      </c>
+      <c r="IC92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66600,8 +66876,11 @@
       <c r="IA93" s="1" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="IB93" t="n">
+      <c r="IB93" s="1" t="n">
         <v>76.2</v>
+      </c>
+      <c r="IC93" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67312,8 +67591,11 @@
       <c r="IA94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IB94" t="n">
+      <c r="IB94" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IC94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68024,8 +68306,11 @@
       <c r="IA95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IB95" t="n">
+      <c r="IB95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IC95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -68736,8 +69021,11 @@
       <c r="IA96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IB96" t="n">
+      <c r="IB96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IC96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69448,8 +69736,11 @@
       <c r="IA97" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IB97" t="n">
+      <c r="IB97" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IC97" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70160,8 +70451,11 @@
       <c r="IA98" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IB98" t="n">
+      <c r="IB98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IC98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -70872,8 +71166,11 @@
       <c r="IA99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IB99" t="n">
+      <c r="IB99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IC99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71584,8 +71881,11 @@
       <c r="IA100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IB100" t="n">
+      <c r="IB100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72296,8 +72596,11 @@
       <c r="IA101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB101" t="n">
+      <c r="IB101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IC101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73008,8 +73311,11 @@
       <c r="IA102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IB102" t="n">
+      <c r="IB102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IC102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1099,8 +1099,11 @@
       <c r="IB1" s="1" t="n">
         <v>10463</v>
       </c>
-      <c r="IC1" t="n">
+      <c r="IC1" s="1" t="n">
         <v>10471</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>10480</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1814,7 +1817,10 @@
       <c r="IB2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IC2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="ID2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2529,8 +2535,11 @@
       <c r="IB3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IC3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3244,8 +3253,11 @@
       <c r="IB4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IC4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3959,7 +3971,10 @@
       <c r="IB5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,8 +4689,11 @@
       <c r="IB6" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="IC6" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5389,8 +5407,11 @@
       <c r="IB7" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="IC7" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6104,8 +6125,11 @@
       <c r="IB8" s="1" t="n">
         <v>-26</v>
       </c>
-      <c r="IC8" t="n">
+      <c r="IC8" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>-39</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6819,8 +6843,11 @@
       <c r="IB9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IC9" t="n">
+      <c r="IC9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7534,8 +7561,11 @@
       <c r="IB10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC10" t="n">
+      <c r="IC10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8249,8 +8279,11 @@
       <c r="IB11" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="IC11" t="n">
+      <c r="IC11" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8964,8 +8997,11 @@
       <c r="IB12" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IC12" t="n">
+      <c r="IC12" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9679,8 +9715,11 @@
       <c r="IB13" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="IC13" t="n">
+      <c r="IC13" s="1" t="n">
         <v>350</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10394,8 +10433,11 @@
       <c r="IB14" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="IC14" t="n">
+      <c r="IC14" s="1" t="n">
         <v>1.92</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11109,8 +11151,11 @@
       <c r="IB15" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="IC15" t="n">
+      <c r="IC15" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11824,8 +11869,11 @@
       <c r="IB16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IC16" t="n">
+      <c r="IC16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12539,7 +12587,10 @@
       <c r="IB17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IC17" t="n">
+      <c r="IC17" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="ID17" t="n">
         <v>23</v>
       </c>
     </row>
@@ -13254,8 +13305,11 @@
       <c r="IB18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IC18" t="n">
+      <c r="IC18" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13969,8 +14023,11 @@
       <c r="IB19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IC19" t="n">
+      <c r="IC19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14684,8 +14741,11 @@
       <c r="IB20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IC20" t="n">
+      <c r="IC20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15399,8 +15459,11 @@
       <c r="IB21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC21" t="n">
+      <c r="IC21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16114,8 +16177,11 @@
       <c r="IB22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IC22" t="n">
+      <c r="IC22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16829,8 +16895,11 @@
       <c r="IB23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC23" t="n">
+      <c r="IC23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17544,8 +17613,11 @@
       <c r="IB24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IC24" t="n">
+      <c r="IC24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18259,7 +18331,10 @@
       <c r="IB25" s="1" t="n">
         <v>26.3</v>
       </c>
-      <c r="IC25" t="n">
+      <c r="IC25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="ID25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -18974,8 +19049,11 @@
       <c r="IB26" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="IC26" t="n">
+      <c r="IC26" s="1" t="n">
         <v>26.92</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>31.09</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19689,8 +19767,11 @@
       <c r="IB27" s="1" t="n">
         <v>19.05</v>
       </c>
-      <c r="IC27" t="n">
+      <c r="IC27" s="1" t="n">
         <v>13.46</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>15.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20404,8 +20485,11 @@
       <c r="IB28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC28" t="n">
+      <c r="IC28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="ID28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21119,7 +21203,10 @@
       <c r="IB29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IC29" t="n">
+      <c r="IC29" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="ID29" t="n">
         <v>45</v>
       </c>
     </row>
@@ -21834,8 +21921,11 @@
       <c r="IB30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IC30" t="n">
+      <c r="IC30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22549,8 +22639,11 @@
       <c r="IB31" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IC31" t="n">
+      <c r="IC31" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23264,8 +23357,11 @@
       <c r="IB32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC32" t="n">
+      <c r="IC32" s="1" t="n">
         <v>2.08</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23979,8 +24075,11 @@
       <c r="IB33" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="IC33" t="n">
+      <c r="IC33" s="1" t="n">
         <v>4.15</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24694,8 +24793,11 @@
       <c r="IB34" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="IC34" t="n">
+      <c r="IC34" s="1" t="n">
         <v>42.6</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25409,8 +25511,11 @@
       <c r="IB35" s="1" t="n">
         <v>13.2</v>
       </c>
-      <c r="IC35" t="n">
+      <c r="IC35" s="1" t="n">
         <v>24.1</v>
+      </c>
+      <c r="ID35" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26124,8 +26229,11 @@
       <c r="IB36" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="IC36" t="n">
+      <c r="IC36" s="1" t="n">
         <v>187.2</v>
+      </c>
+      <c r="ID36" t="n">
+        <v>186.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26839,8 +26947,11 @@
       <c r="IB37" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IC37" t="n">
+      <c r="IC37" s="1" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="ID37" t="n">
+        <v>84.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27554,8 +27665,11 @@
       <c r="IB38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="IC38" t="n">
+      <c r="IC38" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="ID38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28269,8 +28383,11 @@
       <c r="IB39" s="1" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="IC39" t="n">
+      <c r="IC39" s="1" t="n">
         <v>96.40000000000001</v>
+      </c>
+      <c r="ID39" t="n">
+        <v>109.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28984,7 +29101,10 @@
       <c r="IB40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IC40" t="n">
+      <c r="IC40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29699,8 +29819,11 @@
       <c r="IB41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC41" t="n">
+      <c r="IC41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30414,8 +30537,11 @@
       <c r="IB42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IC42" t="n">
+      <c r="IC42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31129,8 +31255,11 @@
       <c r="IB43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC43" t="n">
+      <c r="IC43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31844,8 +31973,11 @@
       <c r="IB44" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="IC44" t="n">
+      <c r="IC44" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32559,8 +32691,11 @@
       <c r="IB45" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="IC45" t="n">
+      <c r="IC45" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33274,8 +33409,11 @@
       <c r="IB46" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="IC46" t="n">
+      <c r="IC46" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="ID46" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33989,8 +34127,11 @@
       <c r="IB47" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="IC47" t="n">
+      <c r="IC47" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="ID47" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34704,7 +34845,10 @@
       <c r="IB48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IC48" t="n">
+      <c r="IC48" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="ID48" t="n">
         <v>45</v>
       </c>
     </row>
@@ -35419,8 +35563,11 @@
       <c r="IB49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IC49" t="n">
+      <c r="IC49" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36134,8 +36281,11 @@
       <c r="IB50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IC50" t="n">
+      <c r="IC50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="ID50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36849,8 +36999,11 @@
       <c r="IB51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC51" t="n">
+      <c r="IC51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="ID51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37564,8 +37717,11 @@
       <c r="IB52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IC52" t="n">
+      <c r="IC52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38279,8 +38435,11 @@
       <c r="IB53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IC53" t="n">
+      <c r="IC53" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38994,8 +39153,11 @@
       <c r="IB54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC54" t="n">
+      <c r="IC54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39709,8 +39871,11 @@
       <c r="IB55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC55" t="n">
+      <c r="IC55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40424,8 +40589,11 @@
       <c r="IB56" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IC56" t="n">
+      <c r="IC56" s="1" t="n">
         <v>46.2</v>
+      </c>
+      <c r="ID56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41139,8 +41307,11 @@
       <c r="IB57" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="IC57" t="n">
+      <c r="IC57" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="ID57" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41854,8 +42025,11 @@
       <c r="IB58" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="IC58" t="n">
+      <c r="IC58" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="ID58" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42569,8 +42743,11 @@
       <c r="IB59" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="IC59" t="n">
+      <c r="IC59" s="1" t="n">
         <v>357</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43284,8 +43461,11 @@
       <c r="IB60" s="1" t="n">
         <v>1.73</v>
       </c>
-      <c r="IC60" t="n">
+      <c r="IC60" s="1" t="n">
         <v>1.51</v>
+      </c>
+      <c r="ID60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43999,8 +44179,11 @@
       <c r="IB61" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IC61" t="n">
+      <c r="IC61" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44714,8 +44897,11 @@
       <c r="IB62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IC62" t="n">
+      <c r="IC62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45429,8 +45615,11 @@
       <c r="IB63" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IC63" t="n">
+      <c r="IC63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46144,8 +46333,11 @@
       <c r="IB64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IC64" t="n">
+      <c r="IC64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="ID64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46859,8 +47051,11 @@
       <c r="IB65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IC65" t="n">
+      <c r="IC65" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47574,8 +47769,11 @@
       <c r="IB66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IC66" t="n">
+      <c r="IC66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="ID66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48289,8 +48487,11 @@
       <c r="IB67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC67" t="n">
+      <c r="IC67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49004,7 +49205,10 @@
       <c r="IB68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IC68" t="n">
+      <c r="IC68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -49719,7 +49923,10 @@
       <c r="IB69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC69" t="n">
+      <c r="IC69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -50434,8 +50641,11 @@
       <c r="IB70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IC70" t="n">
+      <c r="IC70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="ID70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51149,8 +51359,11 @@
       <c r="IB71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IC71" t="n">
+      <c r="IC71" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51864,8 +52077,11 @@
       <c r="IB72" s="1" t="n">
         <v>36.6</v>
       </c>
-      <c r="IC72" t="n">
+      <c r="IC72" s="1" t="n">
         <v>39.67</v>
+      </c>
+      <c r="ID72" t="n">
+        <v>22.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52579,8 +52795,11 @@
       <c r="IB73" s="1" t="n">
         <v>18.3</v>
       </c>
-      <c r="IC73" t="n">
+      <c r="IC73" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="ID73" t="n">
+        <v>15.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53294,8 +53513,11 @@
       <c r="IB74" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC74" t="n">
+      <c r="IC74" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="ID74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54009,8 +54231,11 @@
       <c r="IB75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IC75" t="n">
+      <c r="IC75" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="ID75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54724,8 +54949,11 @@
       <c r="IB76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IC76" t="n">
+      <c r="IC76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55439,8 +55667,11 @@
       <c r="IB77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IC77" t="n">
+      <c r="IC77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="ID77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56154,8 +56385,11 @@
       <c r="IB78" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="IC78" t="n">
+      <c r="IC78" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="ID78" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56869,8 +57103,11 @@
       <c r="IB79" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="IC79" t="n">
+      <c r="IC79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57584,8 +57821,11 @@
       <c r="IB80" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="IC80" t="n">
+      <c r="IC80" s="1" t="n">
         <v>31.1</v>
+      </c>
+      <c r="ID80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58299,8 +58539,11 @@
       <c r="IB81" s="1" t="n">
         <v>17.9</v>
       </c>
-      <c r="IC81" t="n">
+      <c r="IC81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="ID81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59014,8 +59257,11 @@
       <c r="IB82" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="IC82" t="n">
+      <c r="IC82" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="ID82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59729,8 +59975,11 @@
       <c r="IB83" s="1" t="n">
         <v>89.2</v>
       </c>
-      <c r="IC83" t="n">
+      <c r="IC83" s="1" t="n">
         <v>86.2</v>
+      </c>
+      <c r="ID83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60444,8 +60693,11 @@
       <c r="IB84" s="1" t="n">
         <v>27.58</v>
       </c>
-      <c r="IC84" t="n">
+      <c r="IC84" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="ID84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61159,8 +61411,11 @@
       <c r="IB85" s="1" t="n">
         <v>137.1</v>
       </c>
-      <c r="IC85" t="n">
+      <c r="IC85" s="1" t="n">
         <v>108.1</v>
+      </c>
+      <c r="ID85" t="n">
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61874,7 +62129,10 @@
       <c r="IB86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IC86" t="n">
+      <c r="IC86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="ID86" t="n">
         <v>9</v>
       </c>
     </row>
@@ -62589,8 +62847,11 @@
       <c r="IB87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IC87" t="n">
+      <c r="IC87" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="ID87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63304,8 +63565,11 @@
       <c r="IB88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IC88" t="n">
+      <c r="IC88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="ID88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64019,8 +64283,11 @@
       <c r="IB89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IC89" t="n">
+      <c r="IC89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="ID89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64734,8 +65001,11 @@
       <c r="IB90" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="IC90" t="n">
+      <c r="IC90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="ID90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65449,8 +65719,11 @@
       <c r="IB91" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="IC91" t="n">
+      <c r="IC91" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="ID91" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66164,8 +66437,11 @@
       <c r="IB92" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="IC92" t="n">
+      <c r="IC92" s="1" t="n">
         <v>265</v>
+      </c>
+      <c r="ID92" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66879,8 +67155,11 @@
       <c r="IB93" s="1" t="n">
         <v>76.2</v>
       </c>
-      <c r="IC93" t="n">
+      <c r="IC93" s="1" t="n">
         <v>74.2</v>
+      </c>
+      <c r="ID93" t="n">
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67594,8 +67873,11 @@
       <c r="IB94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IC94" t="n">
+      <c r="IC94" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="ID94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68309,8 +68591,11 @@
       <c r="IB95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IC95" t="n">
+      <c r="IC95" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="ID95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69024,8 +69309,11 @@
       <c r="IB96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IC96" t="n">
+      <c r="IC96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="ID96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69739,8 +70027,11 @@
       <c r="IB97" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IC97" t="n">
+      <c r="IC97" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="ID97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70454,8 +70745,11 @@
       <c r="IB98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IC98" t="n">
+      <c r="IC98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="ID98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71169,8 +71463,11 @@
       <c r="IB99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IC99" t="n">
+      <c r="IC99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="ID99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71884,8 +72181,11 @@
       <c r="IB100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IC100" t="n">
+      <c r="IC100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72599,8 +72899,11 @@
       <c r="IB101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IC101" t="n">
+      <c r="IC101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="ID101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73314,8 +73617,11 @@
       <c r="IB102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IC102" t="n">
+      <c r="IC102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="ID102" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1102,8 +1102,11 @@
       <c r="IC1" s="1" t="n">
         <v>10471</v>
       </c>
-      <c r="ID1" t="n">
+      <c r="ID1" s="1" t="n">
         <v>10480</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>10495</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1820,7 +1823,10 @@
       <c r="IC2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="ID2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IE2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2538,8 +2544,11 @@
       <c r="IC3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="ID3" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3256,8 +3265,11 @@
       <c r="IC4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="ID4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3974,7 +3986,10 @@
       <c r="IC5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="ID5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,8 +4707,11 @@
       <c r="IC6" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="ID6" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5410,8 +5428,11 @@
       <c r="IC7" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="ID7" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6128,8 +6149,11 @@
       <c r="IC8" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="ID8" s="1" t="n">
         <v>-39</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6846,8 +6870,11 @@
       <c r="IC9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="ID9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7564,8 +7591,11 @@
       <c r="IC10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID10" t="n">
+      <c r="ID10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8282,8 +8312,11 @@
       <c r="IC11" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="ID11" t="n">
+      <c r="ID11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9000,8 +9033,11 @@
       <c r="IC12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="ID12" t="n">
+      <c r="ID12" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9718,8 +9754,11 @@
       <c r="IC13" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="ID13" t="n">
+      <c r="ID13" s="1" t="n">
         <v>342</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10436,8 +10475,11 @@
       <c r="IC14" s="1" t="n">
         <v>1.92</v>
       </c>
-      <c r="ID14" t="n">
+      <c r="ID14" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11154,8 +11196,11 @@
       <c r="IC15" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="ID15" t="n">
+      <c r="ID15" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11872,8 +11917,11 @@
       <c r="IC16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="ID16" t="n">
+      <c r="ID16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12590,8 +12638,11 @@
       <c r="IC17" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="ID17" t="n">
+      <c r="ID17" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13308,8 +13359,11 @@
       <c r="IC18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID18" t="n">
+      <c r="ID18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14026,8 +14080,11 @@
       <c r="IC19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="ID19" t="n">
+      <c r="ID19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14744,8 +14801,11 @@
       <c r="IC20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID20" t="n">
+      <c r="ID20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15462,8 +15522,11 @@
       <c r="IC21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID21" t="n">
+      <c r="ID21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16180,8 +16243,11 @@
       <c r="IC22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID22" t="n">
+      <c r="ID22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16898,8 +16964,11 @@
       <c r="IC23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID23" t="n">
+      <c r="ID23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17616,7 +17685,10 @@
       <c r="IC24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="ID24" t="n">
+      <c r="ID24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="IE24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -18334,8 +18406,11 @@
       <c r="IC25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="ID25" t="n">
+      <c r="ID25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19052,8 +19127,11 @@
       <c r="IC26" s="1" t="n">
         <v>26.92</v>
       </c>
-      <c r="ID26" t="n">
+      <c r="ID26" s="1" t="n">
         <v>31.09</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>19.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19770,8 +19848,11 @@
       <c r="IC27" s="1" t="n">
         <v>13.46</v>
       </c>
-      <c r="ID27" t="n">
+      <c r="ID27" s="1" t="n">
         <v>15.55</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20488,8 +20569,11 @@
       <c r="IC28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="ID28" t="n">
+      <c r="ID28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IE28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21206,8 +21290,11 @@
       <c r="IC29" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID29" t="n">
+      <c r="ID29" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21924,8 +22011,11 @@
       <c r="IC30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="ID30" t="n">
+      <c r="ID30" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22642,8 +22732,11 @@
       <c r="IC31" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="ID31" t="n">
+      <c r="ID31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23360,8 +23453,11 @@
       <c r="IC32" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="ID32" t="n">
+      <c r="ID32" s="1" t="n">
         <v>2.23</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24078,8 +24174,11 @@
       <c r="IC33" s="1" t="n">
         <v>4.15</v>
       </c>
-      <c r="ID33" t="n">
+      <c r="ID33" s="1" t="n">
         <v>4.45</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24796,8 +24895,11 @@
       <c r="IC34" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="ID34" t="n">
+      <c r="ID34" s="1" t="n">
         <v>40.8</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25514,8 +25616,11 @@
       <c r="IC35" s="1" t="n">
         <v>24.1</v>
       </c>
-      <c r="ID35" t="n">
+      <c r="ID35" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="IE35" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26232,8 +26337,11 @@
       <c r="IC36" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="ID36" t="n">
+      <c r="ID36" s="1" t="n">
         <v>186.5</v>
+      </c>
+      <c r="IE36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26950,8 +27058,11 @@
       <c r="IC37" s="1" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="ID37" t="n">
+      <c r="ID37" s="1" t="n">
         <v>84.3</v>
+      </c>
+      <c r="IE37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27668,7 +27779,10 @@
       <c r="IC38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="ID38" t="n">
+      <c r="ID38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IE38" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -28386,8 +28500,11 @@
       <c r="IC39" s="1" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="ID39" t="n">
+      <c r="ID39" s="1" t="n">
         <v>109.1</v>
+      </c>
+      <c r="IE39" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29104,8 +29221,11 @@
       <c r="IC40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID40" t="n">
+      <c r="ID40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29822,8 +29942,11 @@
       <c r="IC41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID41" t="n">
+      <c r="ID41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30540,8 +30663,11 @@
       <c r="IC42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID42" t="n">
+      <c r="ID42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31258,8 +31384,11 @@
       <c r="IC43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID43" t="n">
+      <c r="ID43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31976,8 +32105,11 @@
       <c r="IC44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="ID44" t="n">
+      <c r="ID44" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32694,8 +32826,11 @@
       <c r="IC45" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="ID45" t="n">
+      <c r="ID45" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33412,8 +33547,11 @@
       <c r="IC46" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="ID46" t="n">
+      <c r="ID46" s="1" t="n">
         <v>246</v>
+      </c>
+      <c r="IE46" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34130,8 +34268,11 @@
       <c r="IC47" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="ID47" t="n">
+      <c r="ID47" s="1" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="IE47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34848,8 +34989,11 @@
       <c r="IC48" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID48" t="n">
+      <c r="ID48" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IE48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35566,8 +35710,11 @@
       <c r="IC49" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID49" t="n">
+      <c r="ID49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36284,8 +36431,11 @@
       <c r="IC50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="ID50" t="n">
+      <c r="ID50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37002,8 +37152,11 @@
       <c r="IC51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="ID51" t="n">
+      <c r="ID51" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IE51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37720,8 +37873,11 @@
       <c r="IC52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="ID52" t="n">
+      <c r="ID52" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38438,8 +38594,11 @@
       <c r="IC53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="ID53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39156,8 +39315,11 @@
       <c r="IC54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="ID54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39874,8 +40036,11 @@
       <c r="IC55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID55" t="n">
+      <c r="ID55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40592,8 +40757,11 @@
       <c r="IC56" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="ID56" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="IE56" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41310,8 +41478,11 @@
       <c r="IC57" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="ID57" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="IE57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42028,8 +42199,11 @@
       <c r="IC58" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="ID58" t="n">
+      <c r="ID58" s="1" t="n">
         <v>169</v>
+      </c>
+      <c r="IE58" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42746,8 +42920,11 @@
       <c r="IC59" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="ID59" t="n">
+      <c r="ID59" s="1" t="n">
         <v>408</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43464,8 +43641,11 @@
       <c r="IC60" s="1" t="n">
         <v>1.51</v>
       </c>
-      <c r="ID60" t="n">
+      <c r="ID60" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="IE60" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44182,8 +44362,11 @@
       <c r="IC61" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="ID61" t="n">
+      <c r="ID61" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44900,8 +45083,11 @@
       <c r="IC62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="ID62" t="n">
+      <c r="ID62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45618,8 +45804,11 @@
       <c r="IC63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="ID63" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46336,8 +46525,11 @@
       <c r="IC64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="ID64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IE64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47054,8 +47246,11 @@
       <c r="IC65" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="ID65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IE65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47772,8 +47967,11 @@
       <c r="IC66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="ID66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IE66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48490,8 +48688,11 @@
       <c r="IC67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID67" t="n">
+      <c r="ID67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IE67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49208,8 +49409,11 @@
       <c r="IC68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID68" t="n">
+      <c r="ID68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49926,8 +50130,11 @@
       <c r="IC69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID69" t="n">
+      <c r="ID69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IE69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50644,8 +50851,11 @@
       <c r="IC70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID70" t="n">
+      <c r="ID70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IE70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51362,8 +51572,11 @@
       <c r="IC71" s="1" t="n">
         <v>52.9</v>
       </c>
-      <c r="ID71" t="n">
+      <c r="ID71" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52080,8 +52293,11 @@
       <c r="IC72" s="1" t="n">
         <v>39.67</v>
       </c>
-      <c r="ID72" t="n">
+      <c r="ID72" s="1" t="n">
         <v>22.67</v>
+      </c>
+      <c r="IE72" t="n">
+        <v>32.58</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52798,8 +53014,11 @@
       <c r="IC73" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID73" t="n">
+      <c r="ID73" s="1" t="n">
         <v>15.69</v>
+      </c>
+      <c r="IE73" t="n">
+        <v>18.62</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53516,8 +53735,11 @@
       <c r="IC74" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="ID74" t="n">
+      <c r="ID74" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IE74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54234,8 +54456,11 @@
       <c r="IC75" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="ID75" t="n">
+      <c r="ID75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IE75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54952,8 +55177,11 @@
       <c r="IC76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID76" t="n">
+      <c r="ID76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55670,8 +55898,11 @@
       <c r="IC77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="ID77" t="n">
+      <c r="ID77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IE77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56388,8 +56619,11 @@
       <c r="IC78" s="1" t="n">
         <v>2.65</v>
       </c>
-      <c r="ID78" t="n">
+      <c r="ID78" s="1" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IE78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57106,8 +57340,11 @@
       <c r="IC79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID79" t="n">
+      <c r="ID79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IE79" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57824,8 +58061,11 @@
       <c r="IC80" s="1" t="n">
         <v>31.1</v>
       </c>
-      <c r="ID80" t="n">
+      <c r="ID80" s="1" t="n">
         <v>42.6</v>
+      </c>
+      <c r="IE80" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58542,8 +58782,11 @@
       <c r="IC81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="ID81" t="n">
+      <c r="ID81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IE81" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59260,8 +59503,11 @@
       <c r="IC82" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="ID82" t="n">
+      <c r="ID82" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IE82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59978,8 +60224,11 @@
       <c r="IC83" s="1" t="n">
         <v>86.2</v>
       </c>
-      <c r="ID83" t="n">
+      <c r="ID83" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="IE83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60696,8 +60945,11 @@
       <c r="IC84" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="ID84" t="n">
+      <c r="ID84" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IE84" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61414,8 +61666,11 @@
       <c r="IC85" s="1" t="n">
         <v>108.1</v>
       </c>
-      <c r="ID85" t="n">
+      <c r="ID85" s="1" t="n">
         <v>98.40000000000001</v>
+      </c>
+      <c r="IE85" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62132,8 +62387,11 @@
       <c r="IC86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID86" t="n">
+      <c r="ID86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62850,8 +63108,11 @@
       <c r="IC87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="ID87" t="n">
+      <c r="ID87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63568,8 +63829,11 @@
       <c r="IC88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID88" t="n">
+      <c r="ID88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64286,8 +64550,11 @@
       <c r="IC89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID89" t="n">
+      <c r="ID89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IE89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65004,8 +65271,11 @@
       <c r="IC90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="ID90" t="n">
+      <c r="ID90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="IE90" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65722,8 +65992,11 @@
       <c r="IC91" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="ID91" t="n">
+      <c r="ID91" s="1" t="n">
         <v>271</v>
+      </c>
+      <c r="IE91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66440,8 +66713,11 @@
       <c r="IC92" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="ID92" t="n">
+      <c r="ID92" s="1" t="n">
         <v>330</v>
+      </c>
+      <c r="IE92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67158,8 +67434,11 @@
       <c r="IC93" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="ID93" t="n">
+      <c r="ID93" s="1" t="n">
         <v>80.90000000000001</v>
+      </c>
+      <c r="IE93" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67876,8 +68155,11 @@
       <c r="IC94" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="ID94" t="n">
+      <c r="ID94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IE94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68594,8 +68876,11 @@
       <c r="IC95" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID95" t="n">
+      <c r="ID95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69312,8 +69597,11 @@
       <c r="IC96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="ID96" t="n">
+      <c r="ID96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IE96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70030,8 +70318,11 @@
       <c r="IC97" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="ID97" t="n">
+      <c r="ID97" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IE97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70748,8 +71039,11 @@
       <c r="IC98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID98" t="n">
+      <c r="ID98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IE98" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71466,8 +71760,11 @@
       <c r="IC99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID99" t="n">
+      <c r="ID99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IE99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72184,8 +72481,11 @@
       <c r="IC100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID100" t="n">
+      <c r="ID100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72902,8 +73202,11 @@
       <c r="IC101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID101" t="n">
+      <c r="ID101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IE101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73620,8 +73923,11 @@
       <c r="IC102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="ID102" t="n">
+      <c r="ID102" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1105,8 +1105,11 @@
       <c r="ID1" s="1" t="n">
         <v>10480</v>
       </c>
-      <c r="IE1" t="n">
+      <c r="IE1" s="1" t="n">
         <v>10495</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>10499</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1826,7 +1829,10 @@
       <c r="ID2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IE2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IF2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2547,8 +2553,11 @@
       <c r="ID3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IE3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3268,8 +3277,11 @@
       <c r="ID4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IE4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3989,7 +4001,10 @@
       <c r="ID5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,8 +4725,11 @@
       <c r="ID6" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IE6" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5431,8 +5449,11 @@
       <c r="ID7" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IE7" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6152,8 +6173,11 @@
       <c r="ID8" s="1" t="n">
         <v>-39</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IE8" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6873,8 +6897,11 @@
       <c r="ID9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="IE9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7594,8 +7621,11 @@
       <c r="ID10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IE10" t="n">
+      <c r="IE10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8315,8 +8345,11 @@
       <c r="ID11" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="IE11" t="n">
+      <c r="IE11" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9036,8 +9069,11 @@
       <c r="ID12" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IE12" t="n">
+      <c r="IE12" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9757,8 +9793,11 @@
       <c r="ID13" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="IE13" t="n">
+      <c r="IE13" s="1" t="n">
         <v>346</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10478,8 +10517,11 @@
       <c r="ID14" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="IE14" t="n">
+      <c r="IE14" s="1" t="n">
         <v>1.44</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11199,8 +11241,11 @@
       <c r="ID15" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="IE15" t="n">
+      <c r="IE15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11920,8 +11965,11 @@
       <c r="ID16" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IE16" t="n">
+      <c r="IE16" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12641,8 +12689,11 @@
       <c r="ID17" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE17" t="n">
+      <c r="IE17" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13362,7 +13413,10 @@
       <c r="ID18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE18" t="n">
+      <c r="IE18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="IF18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -14083,8 +14137,11 @@
       <c r="ID19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IE19" t="n">
+      <c r="IE19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14804,8 +14861,11 @@
       <c r="ID20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE20" t="n">
+      <c r="IE20" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15525,8 +15585,11 @@
       <c r="ID21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE21" t="n">
+      <c r="IE21" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16246,8 +16309,11 @@
       <c r="ID22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE22" t="n">
+      <c r="IE22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IF22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16967,8 +17033,11 @@
       <c r="ID23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IE23" t="n">
+      <c r="IE23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17688,8 +17757,11 @@
       <c r="ID24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IE24" t="n">
+      <c r="IE24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18409,8 +18481,11 @@
       <c r="ID25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE25" t="n">
+      <c r="IE25" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19130,8 +19205,11 @@
       <c r="ID26" s="1" t="n">
         <v>31.09</v>
       </c>
-      <c r="IE26" t="n">
+      <c r="IE26" s="1" t="n">
         <v>19.22</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>39.12</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19851,8 +19929,11 @@
       <c r="ID27" s="1" t="n">
         <v>15.55</v>
       </c>
-      <c r="IE27" t="n">
+      <c r="IE27" s="1" t="n">
         <v>15.73</v>
+      </c>
+      <c r="IF27" t="n">
+        <v>18.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20572,8 +20653,11 @@
       <c r="ID28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IE28" t="n">
+      <c r="IE28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IF28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21293,7 +21377,10 @@
       <c r="ID29" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IE29" t="n">
+      <c r="IE29" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IF29" t="n">
         <v>60</v>
       </c>
     </row>
@@ -22014,8 +22101,11 @@
       <c r="ID30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IE30" t="n">
+      <c r="IE30" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IF30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22735,8 +22825,11 @@
       <c r="ID31" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IE31" t="n">
+      <c r="IE31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IF31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23456,8 +23549,11 @@
       <c r="ID32" s="1" t="n">
         <v>2.23</v>
       </c>
-      <c r="IE32" t="n">
+      <c r="IE32" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IF32" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24177,8 +24273,11 @@
       <c r="ID33" s="1" t="n">
         <v>4.45</v>
       </c>
-      <c r="IE33" t="n">
+      <c r="IE33" s="1" t="n">
         <v>2.44</v>
+      </c>
+      <c r="IF33" t="n">
+        <v>6.12</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24898,8 +24997,11 @@
       <c r="ID34" s="1" t="n">
         <v>40.8</v>
       </c>
-      <c r="IE34" t="n">
+      <c r="IE34" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IF34" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25619,8 +25721,11 @@
       <c r="ID35" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="IE35" t="n">
+      <c r="IE35" s="1" t="n">
         <v>40.9</v>
+      </c>
+      <c r="IF35" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26340,8 +26445,11 @@
       <c r="ID36" s="1" t="n">
         <v>186.5</v>
       </c>
-      <c r="IE36" t="n">
+      <c r="IE36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IF36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27061,8 +27169,11 @@
       <c r="ID37" s="1" t="n">
         <v>84.3</v>
       </c>
-      <c r="IE37" t="n">
+      <c r="IE37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IF37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27782,8 +27893,11 @@
       <c r="ID38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IE38" t="n">
+      <c r="IE38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IF38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28503,8 +28617,11 @@
       <c r="ID39" s="1" t="n">
         <v>109.1</v>
       </c>
-      <c r="IE39" t="n">
+      <c r="IE39" s="1" t="n">
         <v>91.7</v>
+      </c>
+      <c r="IF39" t="n">
+        <v>98.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29224,8 +29341,11 @@
       <c r="ID40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE40" t="n">
+      <c r="IE40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29945,7 +30065,10 @@
       <c r="ID41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE41" t="n">
+      <c r="IE41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IF41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -30666,7 +30789,10 @@
       <c r="ID42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE42" t="n">
+      <c r="IE42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31387,7 +31513,10 @@
       <c r="ID43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE43" t="n">
+      <c r="IE43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32108,8 +32237,11 @@
       <c r="ID44" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="IE44" t="n">
+      <c r="IE44" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32829,8 +32961,11 @@
       <c r="ID45" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="IE45" t="n">
+      <c r="IE45" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33550,8 +33685,11 @@
       <c r="ID46" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="IE46" t="n">
+      <c r="IE46" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="IF46" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34271,8 +34409,11 @@
       <c r="ID47" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="IE47" t="n">
+      <c r="IE47" s="1" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="IF47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34992,7 +35133,10 @@
       <c r="ID48" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IE48" t="n">
+      <c r="IE48" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IF48" t="n">
         <v>60</v>
       </c>
     </row>
@@ -35713,8 +35857,11 @@
       <c r="ID49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE49" t="n">
+      <c r="IE49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36434,8 +36581,11 @@
       <c r="ID50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE50" t="n">
+      <c r="IE50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37155,8 +37305,11 @@
       <c r="ID51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IE51" t="n">
+      <c r="IE51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IF51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37876,8 +38029,11 @@
       <c r="ID52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IE52" t="n">
+      <c r="IE52" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IF52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38597,8 +38753,11 @@
       <c r="ID53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IE53" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IF53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39318,8 +39477,11 @@
       <c r="ID54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IE54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40039,8 +40201,11 @@
       <c r="ID55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE55" t="n">
+      <c r="IE55" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40760,8 +40925,11 @@
       <c r="ID56" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IE56" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="IF56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41481,8 +41649,11 @@
       <c r="ID57" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IE57" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="IF57" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42202,8 +42373,11 @@
       <c r="ID58" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="IE58" t="n">
+      <c r="IE58" s="1" t="n">
         <v>186</v>
+      </c>
+      <c r="IF58" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42923,8 +43097,11 @@
       <c r="ID59" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="IE59" t="n">
+      <c r="IE59" s="1" t="n">
         <v>391</v>
+      </c>
+      <c r="IF59" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43644,8 +43821,11 @@
       <c r="ID60" s="1" t="n">
         <v>1.41</v>
       </c>
-      <c r="IE60" t="n">
+      <c r="IE60" s="1" t="n">
         <v>1.1</v>
+      </c>
+      <c r="IF60" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44365,8 +44545,11 @@
       <c r="ID61" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="IE61" t="n">
+      <c r="IE61" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="IF61" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45086,8 +45269,11 @@
       <c r="ID62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IE62" t="n">
+      <c r="IE62" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IF62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45807,8 +45993,11 @@
       <c r="ID63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IE63" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IF63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46528,8 +46717,11 @@
       <c r="ID64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IE64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47249,7 +47441,10 @@
       <c r="ID65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IE65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="IF65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -47970,8 +48165,11 @@
       <c r="ID66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IE66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IF66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48691,8 +48889,11 @@
       <c r="ID67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IE67" t="n">
+      <c r="IE67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49412,8 +49613,11 @@
       <c r="ID68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IE68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50133,8 +50337,11 @@
       <c r="ID69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE69" t="n">
+      <c r="IE69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50854,7 +51061,10 @@
       <c r="ID70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IE70" t="n">
+      <c r="IE70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IF70" t="n">
         <v>21</v>
       </c>
     </row>
@@ -51575,8 +51785,11 @@
       <c r="ID71" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="IE71" t="n">
+      <c r="IE71" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IF71" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52296,8 +52509,11 @@
       <c r="ID72" s="1" t="n">
         <v>22.67</v>
       </c>
-      <c r="IE72" t="n">
+      <c r="IE72" s="1" t="n">
         <v>32.58</v>
+      </c>
+      <c r="IF72" t="n">
+        <v>34.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53017,8 +53233,11 @@
       <c r="ID73" s="1" t="n">
         <v>15.69</v>
       </c>
-      <c r="IE73" t="n">
+      <c r="IE73" s="1" t="n">
         <v>18.62</v>
+      </c>
+      <c r="IF73" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53738,8 +53957,11 @@
       <c r="ID74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IE74" t="n">
+      <c r="IE74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IF74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54459,8 +54681,11 @@
       <c r="ID75" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IE75" t="n">
+      <c r="IE75" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IF75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55180,8 +55405,11 @@
       <c r="ID76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IE76" t="n">
+      <c r="IE76" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IF76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55901,8 +56129,11 @@
       <c r="ID77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IE77" t="n">
+      <c r="IE77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IF77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56622,8 +56853,11 @@
       <c r="ID78" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="IE78" t="n">
+      <c r="IE78" s="1" t="n">
         <v>2.43</v>
+      </c>
+      <c r="IF78" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57343,8 +57577,11 @@
       <c r="ID79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE79" t="n">
+      <c r="IE79" s="1" t="n">
         <v>4.25</v>
+      </c>
+      <c r="IF79" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58064,8 +58301,11 @@
       <c r="ID80" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="IE80" t="n">
+      <c r="IE80" s="1" t="n">
         <v>41.2</v>
+      </c>
+      <c r="IF80" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58785,8 +59025,11 @@
       <c r="ID81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IE81" t="n">
+      <c r="IE81" s="1" t="n">
         <v>23.5</v>
+      </c>
+      <c r="IF81" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59506,8 +59749,11 @@
       <c r="ID82" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="IE82" t="n">
+      <c r="IE82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IF82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60227,8 +60473,11 @@
       <c r="ID83" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IE83" t="n">
+      <c r="IE83" s="1" t="n">
         <v>85.2</v>
+      </c>
+      <c r="IF83" t="n">
+        <v>84.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60948,8 +61197,11 @@
       <c r="ID84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="IE84" t="n">
+      <c r="IE84" s="1" t="n">
         <v>24.16</v>
+      </c>
+      <c r="IF84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61669,8 +61921,11 @@
       <c r="ID85" s="1" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="IE85" t="n">
+      <c r="IE85" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IF85" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62390,8 +62645,11 @@
       <c r="ID86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE86" t="n">
+      <c r="IE86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63111,8 +63369,11 @@
       <c r="ID87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE87" t="n">
+      <c r="IE87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63832,8 +64093,11 @@
       <c r="ID88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE88" t="n">
+      <c r="IE88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IF88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64553,7 +64817,10 @@
       <c r="ID89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IE89" t="n">
+      <c r="IE89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -65274,8 +65541,11 @@
       <c r="ID90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="IE90" t="n">
+      <c r="IE90" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="IF90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65995,8 +66265,11 @@
       <c r="ID91" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="IE91" t="n">
+      <c r="IE91" s="1" t="n">
         <v>234</v>
+      </c>
+      <c r="IF91" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66716,8 +66989,11 @@
       <c r="ID92" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="IE92" t="n">
+      <c r="IE92" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="IF92" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67437,8 +67713,11 @@
       <c r="ID93" s="1" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="IE93" t="n">
+      <c r="IE93" s="1" t="n">
         <v>70.09999999999999</v>
+      </c>
+      <c r="IF93" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68158,8 +68437,11 @@
       <c r="ID94" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IE94" t="n">
+      <c r="IE94" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IF94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68879,8 +69161,11 @@
       <c r="ID95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IE95" t="n">
+      <c r="IE95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IF95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69600,8 +69885,11 @@
       <c r="ID96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IE96" t="n">
+      <c r="IE96" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IF96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70321,8 +70609,11 @@
       <c r="ID97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IE97" t="n">
+      <c r="IE97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IF97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71042,8 +71333,11 @@
       <c r="ID98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IE98" t="n">
+      <c r="IE98" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IF98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71763,8 +72057,11 @@
       <c r="ID99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IE99" t="n">
+      <c r="IE99" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IF99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72484,8 +72781,11 @@
       <c r="ID100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE100" t="n">
+      <c r="IE100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IF100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73205,8 +73505,11 @@
       <c r="ID101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IE101" t="n">
+      <c r="IE101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73926,8 +74229,11 @@
       <c r="ID102" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="IE102" t="n">
+      <c r="IE102" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IF102" t="n">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1108,8 +1176,11 @@
       <c r="IE1" s="1" t="n">
         <v>10495</v>
       </c>
-      <c r="IF1" t="n">
+      <c r="IF1" s="1" t="n">
         <v>10499</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>10514</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1832,7 +1903,10 @@
       <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IF2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IG2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2556,8 +2630,11 @@
       <c r="IE3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IF3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3280,8 +3357,11 @@
       <c r="IE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IF4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4004,8 +4084,11 @@
       <c r="IE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IF5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4728,8 +4811,11 @@
       <c r="IE6" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IF6" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5452,8 +5538,11 @@
       <c r="IE7" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IF7" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6176,8 +6265,11 @@
       <c r="IE8" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IF8" t="n">
+      <c r="IF8" s="1" t="n">
         <v>-19</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>-95</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6900,7 +6992,10 @@
       <c r="IE9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7624,8 +7719,11 @@
       <c r="IE10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IF10" t="n">
+      <c r="IF10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8348,8 +8446,11 @@
       <c r="IE11" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="IF11" t="n">
+      <c r="IF11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9072,8 +9173,11 @@
       <c r="IE12" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="IF12" t="n">
+      <c r="IF12" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9796,8 +9900,11 @@
       <c r="IE13" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="IF13" t="n">
+      <c r="IF13" s="1" t="n">
         <v>313</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10520,8 +10627,11 @@
       <c r="IE14" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="IF14" t="n">
+      <c r="IF14" s="1" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11244,8 +11354,11 @@
       <c r="IE15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IF15" t="n">
+      <c r="IF15" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11968,8 +12081,11 @@
       <c r="IE16" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IF16" t="n">
+      <c r="IF16" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12692,8 +12808,11 @@
       <c r="IE17" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF17" t="n">
+      <c r="IF17" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13416,8 +13535,11 @@
       <c r="IE18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IF18" t="n">
+      <c r="IF18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14140,8 +14262,11 @@
       <c r="IE19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF19" t="n">
+      <c r="IF19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14864,8 +14989,11 @@
       <c r="IE20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IF20" t="n">
+      <c r="IF20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15588,8 +15716,11 @@
       <c r="IE21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF21" t="n">
+      <c r="IF21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16312,8 +16443,11 @@
       <c r="IE22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF22" t="n">
+      <c r="IF22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17036,8 +17170,11 @@
       <c r="IE23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF23" t="n">
+      <c r="IF23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17760,8 +17897,11 @@
       <c r="IE24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IF24" t="n">
+      <c r="IF24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18484,8 +18624,11 @@
       <c r="IE25" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IF25" t="n">
+      <c r="IF25" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19208,8 +19351,11 @@
       <c r="IE26" s="1" t="n">
         <v>19.22</v>
       </c>
-      <c r="IF26" t="n">
+      <c r="IF26" s="1" t="n">
         <v>39.12</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19932,8 +20078,11 @@
       <c r="IE27" s="1" t="n">
         <v>15.73</v>
       </c>
-      <c r="IF27" t="n">
+      <c r="IF27" s="1" t="n">
         <v>18.41</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20656,8 +20805,11 @@
       <c r="IE28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF28" t="n">
+      <c r="IF28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IG28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21380,8 +21532,11 @@
       <c r="IE29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IF29" t="n">
+      <c r="IF29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IG29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22104,8 +22259,11 @@
       <c r="IE30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IF30" t="n">
+      <c r="IF30" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IG30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22828,8 +22986,11 @@
       <c r="IE31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IF31" t="n">
+      <c r="IF31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IG31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23552,8 +23713,11 @@
       <c r="IE32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF32" t="n">
+      <c r="IF32" s="1" t="n">
         <v>2.88</v>
+      </c>
+      <c r="IG32" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24276,8 +24440,11 @@
       <c r="IE33" s="1" t="n">
         <v>2.44</v>
       </c>
-      <c r="IF33" t="n">
+      <c r="IF33" s="1" t="n">
         <v>6.12</v>
+      </c>
+      <c r="IG33" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25000,8 +25167,11 @@
       <c r="IE34" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IF34" t="n">
+      <c r="IF34" s="1" t="n">
         <v>28.6</v>
+      </c>
+      <c r="IG34" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25724,8 +25894,11 @@
       <c r="IE35" s="1" t="n">
         <v>40.9</v>
       </c>
-      <c r="IF35" t="n">
+      <c r="IF35" s="1" t="n">
         <v>16.3</v>
+      </c>
+      <c r="IG35" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26448,8 +26621,11 @@
       <c r="IE36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IF36" t="n">
+      <c r="IF36" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IG36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27172,8 +27348,11 @@
       <c r="IE37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="IF37" t="n">
+      <c r="IF37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IG37" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27896,8 +28075,11 @@
       <c r="IE38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IF38" t="n">
+      <c r="IF38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IG38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28620,8 +28802,11 @@
       <c r="IE39" s="1" t="n">
         <v>91.7</v>
       </c>
-      <c r="IF39" t="n">
+      <c r="IF39" s="1" t="n">
         <v>98.5</v>
+      </c>
+      <c r="IG39" t="n">
+        <v>97.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29344,8 +29529,11 @@
       <c r="IE40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF40" t="n">
+      <c r="IF40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30068,8 +30256,11 @@
       <c r="IE41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF41" t="n">
+      <c r="IF41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30792,8 +30983,11 @@
       <c r="IE42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF42" t="n">
+      <c r="IF42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31516,8 +31710,11 @@
       <c r="IE43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF43" t="n">
+      <c r="IF43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IG43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32240,7 +32437,10 @@
       <c r="IE44" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="IF44" t="n">
+      <c r="IF44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="IG44" t="n">
         <v>120</v>
       </c>
     </row>
@@ -32964,8 +33164,11 @@
       <c r="IE45" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="IF45" t="n">
+      <c r="IF45" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33688,8 +33891,11 @@
       <c r="IE46" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IF46" t="n">
+      <c r="IF46" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="IG46" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34412,8 +34618,11 @@
       <c r="IE47" s="1" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="IF47" t="n">
+      <c r="IF47" s="1" t="n">
         <v>73.8</v>
+      </c>
+      <c r="IG47" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35136,8 +35345,11 @@
       <c r="IE48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IF48" t="n">
+      <c r="IF48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IG48" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35860,8 +36072,11 @@
       <c r="IE49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF49" t="n">
+      <c r="IF49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36584,8 +36799,11 @@
       <c r="IE50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF50" t="n">
+      <c r="IF50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37308,8 +37526,11 @@
       <c r="IE51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IF51" t="n">
+      <c r="IF51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IG51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38032,8 +38253,11 @@
       <c r="IE52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IF52" t="n">
+      <c r="IF52" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IG52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38756,8 +38980,11 @@
       <c r="IE53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IF53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IG53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39480,8 +39707,11 @@
       <c r="IE54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IF54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IG54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40204,8 +40434,11 @@
       <c r="IE55" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF55" t="n">
+      <c r="IF55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40928,8 +41161,11 @@
       <c r="IE56" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IF56" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IG56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41652,8 +41888,11 @@
       <c r="IE57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IF57" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IG57" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42376,8 +42615,11 @@
       <c r="IE58" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="IF58" t="n">
+      <c r="IF58" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="IG58" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43100,8 +43342,11 @@
       <c r="IE59" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="IF59" t="n">
+      <c r="IF59" s="1" t="n">
         <v>376</v>
+      </c>
+      <c r="IG59" t="n">
+        <v>423</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43824,8 +44069,11 @@
       <c r="IE60" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="IF60" t="n">
+      <c r="IF60" s="1" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IG60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44548,8 +44796,11 @@
       <c r="IE61" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IF61" t="n">
+      <c r="IF61" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="IG61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45272,8 +45523,11 @@
       <c r="IE62" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IF62" t="n">
+      <c r="IF62" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IG62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45996,8 +46250,11 @@
       <c r="IE63" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IF63" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IG63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46720,8 +46977,11 @@
       <c r="IE64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IF64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47444,8 +47704,11 @@
       <c r="IE65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IF65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IG65" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48168,8 +48431,11 @@
       <c r="IE66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IF66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48892,8 +49158,11 @@
       <c r="IE67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF67" t="n">
+      <c r="IF67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49616,8 +49885,11 @@
       <c r="IE68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF68" t="n">
+      <c r="IF68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50340,8 +50612,11 @@
       <c r="IE69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF69" t="n">
+      <c r="IF69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IG69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51064,8 +51339,11 @@
       <c r="IE70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IF70" t="n">
+      <c r="IF70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG70" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51788,8 +52066,11 @@
       <c r="IE71" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="IF71" t="n">
+      <c r="IF71" s="1" t="n">
         <v>52.4</v>
+      </c>
+      <c r="IG71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52512,8 +52793,11 @@
       <c r="IE72" s="1" t="n">
         <v>32.58</v>
       </c>
-      <c r="IF72" t="n">
+      <c r="IF72" s="1" t="n">
         <v>34.18</v>
+      </c>
+      <c r="IG72" t="n">
+        <v>20.14</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53236,8 +53520,11 @@
       <c r="IE73" s="1" t="n">
         <v>18.62</v>
       </c>
-      <c r="IF73" t="n">
+      <c r="IF73" s="1" t="n">
         <v>17.9</v>
+      </c>
+      <c r="IG73" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53960,8 +54247,11 @@
       <c r="IE74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IF74" t="n">
+      <c r="IF74" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IG74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54684,8 +54974,11 @@
       <c r="IE75" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IF75" t="n">
+      <c r="IF75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IG75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55408,8 +55701,11 @@
       <c r="IE76" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IF76" t="n">
+      <c r="IF76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IG76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56132,8 +56428,11 @@
       <c r="IE77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IF77" t="n">
+      <c r="IF77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IG77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56856,8 +57155,11 @@
       <c r="IE78" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="IF78" t="n">
+      <c r="IF78" s="1" t="n">
         <v>2.48</v>
+      </c>
+      <c r="IG78" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57580,8 +57882,11 @@
       <c r="IE79" s="1" t="n">
         <v>4.25</v>
       </c>
-      <c r="IF79" t="n">
+      <c r="IF79" s="1" t="n">
         <v>4.73</v>
+      </c>
+      <c r="IG79" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58304,8 +58609,11 @@
       <c r="IE80" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="IF80" t="n">
+      <c r="IF80" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="IG80" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59028,8 +59336,11 @@
       <c r="IE81" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="IF81" t="n">
+      <c r="IF81" s="1" t="n">
         <v>21.2</v>
+      </c>
+      <c r="IG81" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59752,8 +60063,11 @@
       <c r="IE82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="IF82" t="n">
+      <c r="IF82" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IG82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60476,8 +60790,11 @@
       <c r="IE83" s="1" t="n">
         <v>85.2</v>
       </c>
-      <c r="IF83" t="n">
+      <c r="IF83" s="1" t="n">
         <v>84.3</v>
+      </c>
+      <c r="IG83" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61200,8 +61517,11 @@
       <c r="IE84" s="1" t="n">
         <v>24.16</v>
       </c>
-      <c r="IF84" t="n">
+      <c r="IF84" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IG84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61924,8 +62244,11 @@
       <c r="IE85" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IF85" t="n">
+      <c r="IF85" s="1" t="n">
         <v>71.7</v>
+      </c>
+      <c r="IG85" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62648,8 +62971,11 @@
       <c r="IE86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF86" t="n">
+      <c r="IF86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63372,8 +63698,11 @@
       <c r="IE87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF87" t="n">
+      <c r="IF87" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IG87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64096,7 +64425,10 @@
       <c r="IE88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF88" t="n">
+      <c r="IF88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IG88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -64820,8 +65152,11 @@
       <c r="IE89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF89" t="n">
+      <c r="IF89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65544,8 +65879,11 @@
       <c r="IE90" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IF90" t="n">
+      <c r="IF90" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="IG90" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66268,8 +66606,11 @@
       <c r="IE91" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="IF91" t="n">
+      <c r="IF91" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="IG91" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66992,8 +67333,11 @@
       <c r="IE92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="IF92" t="n">
+      <c r="IF92" s="1" t="n">
         <v>298</v>
+      </c>
+      <c r="IG92" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67716,8 +68060,11 @@
       <c r="IE93" s="1" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="IF93" t="n">
+      <c r="IF93" s="1" t="n">
         <v>79.3</v>
+      </c>
+      <c r="IG93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68440,8 +68787,11 @@
       <c r="IE94" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IF94" t="n">
+      <c r="IF94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IG94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69164,8 +69514,11 @@
       <c r="IE95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF95" t="n">
+      <c r="IF95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69888,8 +70241,11 @@
       <c r="IE96" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF96" t="n">
+      <c r="IF96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70612,8 +70968,11 @@
       <c r="IE97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IF97" t="n">
+      <c r="IF97" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IG97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71336,8 +71695,11 @@
       <c r="IE98" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IF98" t="n">
+      <c r="IF98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IG98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72060,8 +72422,11 @@
       <c r="IE99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IF99" t="n">
+      <c r="IF99" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IG99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72784,8 +73149,11 @@
       <c r="IE100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IF100" t="n">
+      <c r="IF100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73508,8 +73876,11 @@
       <c r="IE101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF101" t="n">
+      <c r="IF101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74232,8 +74603,11 @@
       <c r="IE102" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="IF102" t="n">
+      <c r="IF102" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IG102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1179,8 +1179,11 @@
       <c r="IF1" s="1" t="n">
         <v>10499</v>
       </c>
-      <c r="IG1" t="n">
+      <c r="IG1" s="1" t="n">
         <v>10514</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>10517</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1906,7 +1909,10 @@
       <c r="IF2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IG2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IH2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2633,8 +2639,11 @@
       <c r="IF3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IG3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3360,8 +3369,11 @@
       <c r="IF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IG4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4087,8 +4099,11 @@
       <c r="IF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IG5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4814,8 +4829,11 @@
       <c r="IF6" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IG6" t="n">
+      <c r="IG6" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5541,8 +5559,11 @@
       <c r="IF7" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="IG7" t="n">
+      <c r="IG7" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6268,8 +6289,11 @@
       <c r="IF8" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="IG8" t="n">
+      <c r="IG8" s="1" t="n">
         <v>-95</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6995,7 +7019,10 @@
       <c r="IF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IG9" t="n">
+      <c r="IG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7722,8 +7749,11 @@
       <c r="IF10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG10" t="n">
+      <c r="IG10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8449,8 +8479,11 @@
       <c r="IF11" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="IG11" t="n">
+      <c r="IG11" s="1" t="n">
         <v>203</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9176,8 +9209,11 @@
       <c r="IF12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="IG12" t="n">
+      <c r="IG12" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9903,8 +9939,11 @@
       <c r="IF13" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="IG13" t="n">
+      <c r="IG13" s="1" t="n">
         <v>336</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10630,8 +10669,11 @@
       <c r="IF14" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IG14" t="n">
+      <c r="IG14" s="1" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11357,8 +11399,11 @@
       <c r="IF15" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="IG15" t="n">
+      <c r="IG15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12084,8 +12129,11 @@
       <c r="IF16" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IG16" t="n">
+      <c r="IG16" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12811,8 +12859,11 @@
       <c r="IF17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IG17" t="n">
+      <c r="IG17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13538,8 +13589,11 @@
       <c r="IF18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG18" t="n">
+      <c r="IG18" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14265,7 +14319,10 @@
       <c r="IF19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG19" t="n">
+      <c r="IG19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IH19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14992,8 +15049,11 @@
       <c r="IF20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG20" t="n">
+      <c r="IG20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15719,8 +15779,11 @@
       <c r="IF21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG21" t="n">
+      <c r="IG21" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16446,8 +16509,11 @@
       <c r="IF22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG22" t="n">
+      <c r="IG22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17173,8 +17239,11 @@
       <c r="IF23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG23" t="n">
+      <c r="IG23" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17900,7 +17969,10 @@
       <c r="IF24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IG24" t="n">
+      <c r="IG24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IH24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18627,8 +18699,11 @@
       <c r="IF25" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="IG25" t="n">
+      <c r="IG25" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19354,8 +19429,11 @@
       <c r="IF26" s="1" t="n">
         <v>39.12</v>
       </c>
-      <c r="IG26" t="n">
+      <c r="IG26" s="1" t="n">
         <v>67.2</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>31.09</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20081,8 +20159,11 @@
       <c r="IF27" s="1" t="n">
         <v>18.41</v>
       </c>
-      <c r="IG27" t="n">
+      <c r="IG27" s="1" t="n">
         <v>16.8</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20808,8 +20889,11 @@
       <c r="IF28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IG28" t="n">
+      <c r="IG28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IH28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21535,8 +21619,11 @@
       <c r="IF29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IG29" t="n">
+      <c r="IG29" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22262,8 +22349,11 @@
       <c r="IF30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IG30" t="n">
+      <c r="IG30" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IH30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22989,8 +23079,11 @@
       <c r="IF31" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IG31" t="n">
+      <c r="IG31" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23716,8 +23809,11 @@
       <c r="IF32" s="1" t="n">
         <v>2.88</v>
       </c>
-      <c r="IG32" t="n">
+      <c r="IG32" s="1" t="n">
         <v>2.15</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24443,8 +24539,11 @@
       <c r="IF33" s="1" t="n">
         <v>6.12</v>
       </c>
-      <c r="IG33" t="n">
+      <c r="IG33" s="1" t="n">
         <v>8.6</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25170,8 +25269,11 @@
       <c r="IF34" s="1" t="n">
         <v>28.6</v>
       </c>
-      <c r="IG34" t="n">
+      <c r="IG34" s="1" t="n">
         <v>32.6</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25897,8 +25999,11 @@
       <c r="IF35" s="1" t="n">
         <v>16.3</v>
       </c>
-      <c r="IG35" t="n">
+      <c r="IG35" s="1" t="n">
         <v>11.6</v>
+      </c>
+      <c r="IH35" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26624,8 +26729,11 @@
       <c r="IF36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="IG36" t="n">
+      <c r="IG36" s="1" t="n">
         <v>186.7</v>
+      </c>
+      <c r="IH36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27351,8 +27459,11 @@
       <c r="IF37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IG37" t="n">
+      <c r="IG37" s="1" t="n">
         <v>84.7</v>
+      </c>
+      <c r="IH37" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28078,8 +28189,11 @@
       <c r="IF38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="IG38" t="n">
+      <c r="IG38" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IH38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28805,8 +28919,11 @@
       <c r="IF39" s="1" t="n">
         <v>98.5</v>
       </c>
-      <c r="IG39" t="n">
+      <c r="IG39" s="1" t="n">
         <v>97.8</v>
+      </c>
+      <c r="IH39" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29532,8 +29649,11 @@
       <c r="IF40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG40" t="n">
+      <c r="IG40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30259,7 +30379,10 @@
       <c r="IF41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG41" t="n">
+      <c r="IG41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30986,8 +31109,11 @@
       <c r="IF42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG42" t="n">
+      <c r="IG42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31713,8 +31839,11 @@
       <c r="IF43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG43" t="n">
+      <c r="IG43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32440,8 +32569,11 @@
       <c r="IF44" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IG44" t="n">
+      <c r="IG44" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33167,8 +33299,11 @@
       <c r="IF45" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="IG45" t="n">
+      <c r="IG45" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33894,8 +34029,11 @@
       <c r="IF46" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="IG46" t="n">
+      <c r="IG46" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IH46" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34621,8 +34759,11 @@
       <c r="IF47" s="1" t="n">
         <v>73.8</v>
       </c>
-      <c r="IG47" t="n">
+      <c r="IG47" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IH47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35348,8 +35489,11 @@
       <c r="IF48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IG48" t="n">
+      <c r="IG48" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IH48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36075,8 +36219,11 @@
       <c r="IF49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG49" t="n">
+      <c r="IG49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IH49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36802,7 +36949,10 @@
       <c r="IF50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG50" t="n">
+      <c r="IG50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -37529,8 +37679,11 @@
       <c r="IF51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IG51" t="n">
+      <c r="IG51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IH51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38256,8 +38409,11 @@
       <c r="IF52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IG52" t="n">
+      <c r="IG52" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IH52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38983,8 +39139,11 @@
       <c r="IF53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IG53" t="n">
+      <c r="IG53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39710,8 +39869,11 @@
       <c r="IF54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG54" t="n">
+      <c r="IG54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40437,8 +40599,11 @@
       <c r="IF55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG55" t="n">
+      <c r="IG55" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41164,8 +41329,11 @@
       <c r="IF56" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="IG56" t="n">
+      <c r="IG56" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IH56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41891,8 +42059,11 @@
       <c r="IF57" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IG57" t="n">
+      <c r="IG57" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="IH57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42618,8 +42789,11 @@
       <c r="IF58" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="IG58" t="n">
+      <c r="IG58" s="1" t="n">
         <v>184</v>
+      </c>
+      <c r="IH58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43345,8 +43519,11 @@
       <c r="IF59" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="IG59" t="n">
+      <c r="IG59" s="1" t="n">
         <v>423</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44072,8 +44249,11 @@
       <c r="IF60" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="IG60" t="n">
+      <c r="IG60" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IH60" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44799,8 +44979,11 @@
       <c r="IF61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IG61" t="n">
+      <c r="IG61" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45526,8 +45709,11 @@
       <c r="IF62" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IG62" t="n">
+      <c r="IG62" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46253,8 +46439,11 @@
       <c r="IF63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IG63" t="n">
+      <c r="IG63" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46980,7 +47169,10 @@
       <c r="IF64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG64" t="n">
+      <c r="IG64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IH64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -47707,8 +47899,11 @@
       <c r="IF65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IG65" t="n">
+      <c r="IG65" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48434,8 +48629,11 @@
       <c r="IF66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG66" t="n">
+      <c r="IG66" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IH66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49161,8 +49359,11 @@
       <c r="IF67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG67" t="n">
+      <c r="IG67" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49888,8 +50089,11 @@
       <c r="IF68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG68" t="n">
+      <c r="IG68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50615,8 +50819,11 @@
       <c r="IF69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG69" t="n">
+      <c r="IG69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51342,8 +51549,11 @@
       <c r="IF70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG70" t="n">
+      <c r="IG70" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IH70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52069,8 +52279,11 @@
       <c r="IF71" s="1" t="n">
         <v>52.4</v>
       </c>
-      <c r="IG71" t="n">
+      <c r="IG71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52796,8 +53009,11 @@
       <c r="IF72" s="1" t="n">
         <v>34.18</v>
       </c>
-      <c r="IG72" t="n">
+      <c r="IG72" s="1" t="n">
         <v>20.14</v>
+      </c>
+      <c r="IH72" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53523,8 +53739,11 @@
       <c r="IF73" s="1" t="n">
         <v>17.9</v>
       </c>
-      <c r="IG73" t="n">
+      <c r="IG73" s="1" t="n">
         <v>12.09</v>
+      </c>
+      <c r="IH73" t="n">
+        <v>12.21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54250,8 +54469,11 @@
       <c r="IF74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IG74" t="n">
+      <c r="IG74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IH74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54977,7 +55199,10 @@
       <c r="IF75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IG75" t="n">
+      <c r="IG75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IH75" t="n">
         <v>50</v>
       </c>
     </row>
@@ -55704,8 +55929,11 @@
       <c r="IF76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IG76" t="n">
+      <c r="IG76" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56431,8 +56659,11 @@
       <c r="IF77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IG77" t="n">
+      <c r="IG77" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IH77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57158,8 +57389,11 @@
       <c r="IF78" s="1" t="n">
         <v>2.48</v>
       </c>
-      <c r="IG78" t="n">
+      <c r="IG78" s="1" t="n">
         <v>1.77</v>
+      </c>
+      <c r="IH78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57885,8 +58119,11 @@
       <c r="IF79" s="1" t="n">
         <v>4.73</v>
       </c>
-      <c r="IG79" t="n">
+      <c r="IG79" s="1" t="n">
         <v>2.95</v>
+      </c>
+      <c r="IH79" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58612,8 +58849,11 @@
       <c r="IF80" s="1" t="n">
         <v>32.7</v>
       </c>
-      <c r="IG80" t="n">
+      <c r="IG80" s="1" t="n">
         <v>53.2</v>
+      </c>
+      <c r="IH80" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59339,8 +59579,11 @@
       <c r="IF81" s="1" t="n">
         <v>21.2</v>
       </c>
-      <c r="IG81" t="n">
+      <c r="IG81" s="1" t="n">
         <v>33.9</v>
+      </c>
+      <c r="IH81" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60066,8 +60309,11 @@
       <c r="IF82" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="IG82" t="n">
+      <c r="IG82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IH82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60793,8 +61039,11 @@
       <c r="IF83" s="1" t="n">
         <v>84.3</v>
       </c>
-      <c r="IG83" t="n">
+      <c r="IG83" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IH83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61520,8 +61769,11 @@
       <c r="IF84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IG84" t="n">
+      <c r="IG84" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IH84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62247,8 +62499,11 @@
       <c r="IF85" s="1" t="n">
         <v>71.7</v>
       </c>
-      <c r="IG85" t="n">
+      <c r="IG85" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="IH85" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62974,8 +63229,11 @@
       <c r="IF86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG86" t="n">
+      <c r="IG86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63701,8 +63959,11 @@
       <c r="IF87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IG87" t="n">
+      <c r="IG87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64428,8 +64689,11 @@
       <c r="IF88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG88" t="n">
+      <c r="IG88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -65155,8 +65419,11 @@
       <c r="IF89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG89" t="n">
+      <c r="IG89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65882,8 +66149,11 @@
       <c r="IF90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IG90" t="n">
+      <c r="IG90" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="IH90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66609,8 +66879,11 @@
       <c r="IF91" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="IG91" t="n">
+      <c r="IG91" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="IH91" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67336,8 +67609,11 @@
       <c r="IF92" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="IG92" t="n">
+      <c r="IG92" s="1" t="n">
         <v>310</v>
+      </c>
+      <c r="IH92" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68063,8 +68339,11 @@
       <c r="IF93" s="1" t="n">
         <v>79.3</v>
       </c>
-      <c r="IG93" t="n">
+      <c r="IG93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IH93" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68790,7 +69069,10 @@
       <c r="IF94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IG94" t="n">
+      <c r="IG94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IH94" t="n">
         <v>50</v>
       </c>
     </row>
@@ -69517,8 +69799,11 @@
       <c r="IF95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG95" t="n">
+      <c r="IG95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -70244,8 +70529,11 @@
       <c r="IF96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG96" t="n">
+      <c r="IG96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70971,8 +71259,11 @@
       <c r="IF97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IG97" t="n">
+      <c r="IG97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IH97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71698,8 +71989,11 @@
       <c r="IF98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IG98" t="n">
+      <c r="IG98" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72425,8 +72719,11 @@
       <c r="IF99" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IG99" t="n">
+      <c r="IG99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73152,8 +73449,11 @@
       <c r="IF100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG100" t="n">
+      <c r="IG100" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73879,8 +74179,11 @@
       <c r="IF101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG101" t="n">
+      <c r="IG101" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74606,8 +74909,11 @@
       <c r="IF102" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IG102" t="n">
+      <c r="IG102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IH102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1182,8 +1182,11 @@
       <c r="IG1" s="1" t="n">
         <v>10514</v>
       </c>
-      <c r="IH1" t="n">
+      <c r="IH1" s="1" t="n">
         <v>10517</v>
+      </c>
+      <c r="II1" t="n">
+        <v>10545</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1912,8 +1915,11 @@
       <c r="IG2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IH2" s="1" t="n">
         <v>2021</v>
+      </c>
+      <c r="II2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2642,8 +2648,11 @@
       <c r="IG3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IH3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="II3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3372,7 +3381,10 @@
       <c r="IG4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IH4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4102,8 +4114,11 @@
       <c r="IG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IH5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4832,8 +4847,11 @@
       <c r="IG6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="IH6" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="II6" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5562,8 +5580,11 @@
       <c r="IG7" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="IH7" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="II7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6292,8 +6313,11 @@
       <c r="IG8" s="1" t="n">
         <v>-95</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IH8" s="1" t="n">
         <v>-14</v>
+      </c>
+      <c r="II8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7022,8 +7046,11 @@
       <c r="IG9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IH9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7752,8 +7779,11 @@
       <c r="IG10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IH10" t="n">
+      <c r="IH10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8482,8 +8512,11 @@
       <c r="IG11" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="IH11" t="n">
+      <c r="IH11" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="II11" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9212,8 +9245,11 @@
       <c r="IG12" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="IH12" t="n">
+      <c r="IH12" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="II12" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9942,8 +9978,11 @@
       <c r="IG13" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="IH13" t="n">
+      <c r="IH13" s="1" t="n">
         <v>342</v>
+      </c>
+      <c r="II13" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10672,8 +10711,11 @@
       <c r="IG14" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="IH14" t="n">
+      <c r="IH14" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="II14" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11402,8 +11444,11 @@
       <c r="IG15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IH15" t="n">
+      <c r="IH15" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="II15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12132,7 +12177,10 @@
       <c r="IG16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IH16" t="n">
+      <c r="IH16" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="II16" t="n">
         <v>42</v>
       </c>
     </row>
@@ -12862,8 +12910,11 @@
       <c r="IG17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IH17" t="n">
+      <c r="IH17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="II17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13592,8 +13643,11 @@
       <c r="IG18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH18" t="n">
+      <c r="IH18" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14322,7 +14376,10 @@
       <c r="IG19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IH19" t="n">
+      <c r="IH19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="II19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15052,8 +15109,11 @@
       <c r="IG20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH20" t="n">
+      <c r="IH20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="II20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15782,8 +15842,11 @@
       <c r="IG21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH21" t="n">
+      <c r="IH21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16512,8 +16575,11 @@
       <c r="IG22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IH22" t="n">
+      <c r="IH22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17242,8 +17308,11 @@
       <c r="IG23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH23" t="n">
+      <c r="IH23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17972,8 +18041,11 @@
       <c r="IG24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IH24" t="n">
+      <c r="IH24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="II24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18702,8 +18774,11 @@
       <c r="IG25" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IH25" t="n">
+      <c r="IH25" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="II25" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19432,8 +19507,11 @@
       <c r="IG26" s="1" t="n">
         <v>67.2</v>
       </c>
-      <c r="IH26" t="n">
+      <c r="IH26" s="1" t="n">
         <v>31.09</v>
+      </c>
+      <c r="II26" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20162,8 +20240,11 @@
       <c r="IG27" s="1" t="n">
         <v>16.8</v>
       </c>
-      <c r="IH27" t="n">
+      <c r="IH27" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="II27" t="n">
+        <v>11.74</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20892,8 +20973,11 @@
       <c r="IG28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IH28" t="n">
+      <c r="IH28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="II28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21622,8 +21706,11 @@
       <c r="IG29" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IH29" t="n">
+      <c r="IH29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="II29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22352,8 +22439,11 @@
       <c r="IG30" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IH30" t="n">
+      <c r="IH30" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="II30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23082,8 +23172,11 @@
       <c r="IG31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IH31" t="n">
+      <c r="IH31" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="II31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23812,8 +23905,11 @@
       <c r="IG32" s="1" t="n">
         <v>2.15</v>
       </c>
-      <c r="IH32" t="n">
+      <c r="IH32" s="1" t="n">
         <v>2.3</v>
+      </c>
+      <c r="II32" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24542,8 +24638,11 @@
       <c r="IG33" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="IH33" t="n">
+      <c r="IH33" s="1" t="n">
         <v>4.18</v>
+      </c>
+      <c r="II33" t="n">
+        <v>4.57</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25272,8 +25371,11 @@
       <c r="IG34" s="1" t="n">
         <v>32.6</v>
       </c>
-      <c r="IH34" t="n">
+      <c r="IH34" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="II34" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26002,8 +26104,11 @@
       <c r="IG35" s="1" t="n">
         <v>11.6</v>
       </c>
-      <c r="IH35" t="n">
+      <c r="IH35" s="1" t="n">
         <v>23.9</v>
+      </c>
+      <c r="II35" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26732,8 +26837,11 @@
       <c r="IG36" s="1" t="n">
         <v>186.7</v>
       </c>
-      <c r="IH36" t="n">
+      <c r="IH36" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="II36" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27462,8 +27570,11 @@
       <c r="IG37" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="IH37" t="n">
+      <c r="IH37" s="1" t="n">
         <v>84.8</v>
+      </c>
+      <c r="II37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28192,8 +28303,11 @@
       <c r="IG38" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="IH38" t="n">
+      <c r="IH38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="II38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28922,8 +29036,11 @@
       <c r="IG39" s="1" t="n">
         <v>97.8</v>
       </c>
-      <c r="IH39" t="n">
+      <c r="IH39" s="1" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="II39" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29652,8 +29769,11 @@
       <c r="IG40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH40" t="n">
+      <c r="IH40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30382,8 +30502,11 @@
       <c r="IG41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH41" t="n">
+      <c r="IH41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="II41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31112,8 +31235,11 @@
       <c r="IG42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH42" t="n">
+      <c r="IH42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31842,8 +31968,11 @@
       <c r="IG43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH43" t="n">
+      <c r="IH43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="II43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32572,8 +32701,11 @@
       <c r="IG44" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IH44" t="n">
+      <c r="IH44" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="II44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33302,8 +33434,11 @@
       <c r="IG45" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="IH45" t="n">
+      <c r="IH45" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="II45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34032,8 +34167,11 @@
       <c r="IG46" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="IH46" t="n">
+      <c r="IH46" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="II46" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34762,8 +34900,11 @@
       <c r="IG47" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="IH47" t="n">
+      <c r="IH47" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="II47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35492,8 +35633,11 @@
       <c r="IG48" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IH48" t="n">
+      <c r="IH48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="II48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36222,8 +36366,11 @@
       <c r="IG49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IH49" t="n">
+      <c r="IH49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="II49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36952,7 +37099,10 @@
       <c r="IG50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IH50" t="n">
+      <c r="IH50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="II50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -37682,8 +37832,11 @@
       <c r="IG51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IH51" t="n">
+      <c r="IH51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="II51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38412,8 +38565,11 @@
       <c r="IG52" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IH52" t="n">
+      <c r="IH52" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="II52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39142,8 +39298,11 @@
       <c r="IG53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IH53" t="n">
+      <c r="IH53" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="II53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39872,8 +40031,11 @@
       <c r="IG54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH54" t="n">
+      <c r="IH54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II54" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40602,8 +40764,11 @@
       <c r="IG55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IH55" t="n">
+      <c r="IH55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="II55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41332,8 +41497,11 @@
       <c r="IG56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IH56" t="n">
+      <c r="IH56" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="II56" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42062,8 +42230,11 @@
       <c r="IG57" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IH57" t="n">
+      <c r="IH57" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="II57" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42792,8 +42963,11 @@
       <c r="IG58" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="IH58" t="n">
+      <c r="IH58" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="II58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43522,8 +43696,11 @@
       <c r="IG59" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="IH59" t="n">
+      <c r="IH59" s="1" t="n">
         <v>354</v>
+      </c>
+      <c r="II59" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44252,8 +44429,11 @@
       <c r="IG60" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="IH60" t="n">
+      <c r="IH60" s="1" t="n">
         <v>1.64</v>
+      </c>
+      <c r="II60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44982,8 +45162,11 @@
       <c r="IG61" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IH61" t="n">
+      <c r="IH61" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="II61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45712,8 +45895,11 @@
       <c r="IG62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IH62" t="n">
+      <c r="IH62" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="II62" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46442,8 +46628,11 @@
       <c r="IG63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH63" t="n">
+      <c r="IH63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="II63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47172,7 +47361,10 @@
       <c r="IG64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IH64" t="n">
+      <c r="IH64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="II64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -47902,8 +48094,11 @@
       <c r="IG65" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH65" t="n">
+      <c r="IH65" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II65" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48632,8 +48827,11 @@
       <c r="IG66" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IH66" t="n">
+      <c r="IH66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="II66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49362,8 +49560,11 @@
       <c r="IG67" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH67" t="n">
+      <c r="IH67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50092,8 +50293,11 @@
       <c r="IG68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IH68" t="n">
+      <c r="IH68" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="II68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50822,8 +51026,11 @@
       <c r="IG69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH69" t="n">
+      <c r="IH69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51552,8 +51759,11 @@
       <c r="IG70" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IH70" t="n">
+      <c r="IH70" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="II70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52282,8 +52492,11 @@
       <c r="IG71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IH71" t="n">
+      <c r="IH71" s="1" t="n">
         <v>41.4</v>
+      </c>
+      <c r="II71" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53012,8 +53225,11 @@
       <c r="IG72" s="1" t="n">
         <v>20.14</v>
       </c>
-      <c r="IH72" t="n">
+      <c r="IH72" s="1" t="n">
         <v>29.5</v>
+      </c>
+      <c r="II72" t="n">
+        <v>27.91</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53742,8 +53958,11 @@
       <c r="IG73" s="1" t="n">
         <v>12.09</v>
       </c>
-      <c r="IH73" t="n">
+      <c r="IH73" s="1" t="n">
         <v>12.21</v>
+      </c>
+      <c r="II73" t="n">
+        <v>14.62</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54472,8 +54691,11 @@
       <c r="IG74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IH74" t="n">
+      <c r="IH74" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II74" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55202,8 +55424,11 @@
       <c r="IG75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH75" t="n">
+      <c r="IH75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="II75" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55932,8 +56157,11 @@
       <c r="IG76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH76" t="n">
+      <c r="IH76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="II76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56662,8 +56890,11 @@
       <c r="IG77" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IH77" t="n">
+      <c r="IH77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="II77" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57392,8 +57623,11 @@
       <c r="IG78" s="1" t="n">
         <v>1.77</v>
       </c>
-      <c r="IH78" t="n">
+      <c r="IH78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="II78" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58122,8 +58356,11 @@
       <c r="IG79" s="1" t="n">
         <v>2.95</v>
       </c>
-      <c r="IH79" t="n">
+      <c r="IH79" s="1" t="n">
         <v>4.83</v>
+      </c>
+      <c r="II79" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58852,8 +59089,11 @@
       <c r="IG80" s="1" t="n">
         <v>53.2</v>
       </c>
-      <c r="IH80" t="n">
+      <c r="IH80" s="1" t="n">
         <v>44.8</v>
+      </c>
+      <c r="II80" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59582,8 +59822,11 @@
       <c r="IG81" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="IH81" t="n">
+      <c r="IH81" s="1" t="n">
         <v>20.7</v>
+      </c>
+      <c r="II81" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60312,8 +60555,11 @@
       <c r="IG82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="IH82" t="n">
+      <c r="IH82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="II82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61042,8 +61288,11 @@
       <c r="IG83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IH83" t="n">
+      <c r="IH83" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="II83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61772,8 +62021,11 @@
       <c r="IG84" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="IH84" t="n">
+      <c r="IH84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="II84" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62502,8 +62754,11 @@
       <c r="IG85" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="IH85" t="n">
+      <c r="IH85" s="1" t="n">
         <v>92.09999999999999</v>
+      </c>
+      <c r="II85" t="n">
+        <v>121.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63232,8 +63487,11 @@
       <c r="IG86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH86" t="n">
+      <c r="IH86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63962,7 +64220,10 @@
       <c r="IG87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH87" t="n">
+      <c r="IH87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="II87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64692,7 +64953,10 @@
       <c r="IG88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH88" t="n">
+      <c r="IH88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="II88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -65422,8 +65686,11 @@
       <c r="IG89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH89" t="n">
+      <c r="IH89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="II89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66152,8 +66419,11 @@
       <c r="IG90" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="IH90" t="n">
+      <c r="IH90" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="II90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66882,8 +67152,11 @@
       <c r="IG91" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="IH91" t="n">
+      <c r="IH91" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="II91" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67612,8 +67885,11 @@
       <c r="IG92" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="IH92" t="n">
+      <c r="IH92" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="II92" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68342,8 +68618,11 @@
       <c r="IG93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="IH93" t="n">
+      <c r="IH93" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="II93" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69072,8 +69351,11 @@
       <c r="IG94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IH94" t="n">
+      <c r="IH94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="II94" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69802,8 +70084,11 @@
       <c r="IG95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH95" t="n">
+      <c r="IH95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="II95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -70532,8 +70817,11 @@
       <c r="IG96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH96" t="n">
+      <c r="IH96" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="II96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71262,8 +71550,11 @@
       <c r="IG97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IH97" t="n">
+      <c r="IH97" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II97" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71992,8 +72283,11 @@
       <c r="IG98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH98" t="n">
+      <c r="IH98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="II98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72722,8 +73016,11 @@
       <c r="IG99" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH99" t="n">
+      <c r="IH99" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="II99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73452,8 +73749,11 @@
       <c r="IG100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IH100" t="n">
+      <c r="IH100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="II100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74182,8 +74482,11 @@
       <c r="IG101" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH101" t="n">
+      <c r="IH101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74912,8 +75215,11 @@
       <c r="IG102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IH102" t="n">
+      <c r="IH102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="II102" t="n">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1185,8 +1185,11 @@
       <c r="IH1" s="1" t="n">
         <v>10517</v>
       </c>
-      <c r="II1" t="n">
+      <c r="II1" s="1" t="n">
         <v>10545</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>10553</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1918,7 +1921,10 @@
       <c r="IH2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="II2" t="n">
+      <c r="II2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2651,8 +2657,11 @@
       <c r="IH3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="II3" t="n">
+      <c r="II3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3384,8 +3393,11 @@
       <c r="IH4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="II4" t="n">
+      <c r="II4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4117,8 +4129,11 @@
       <c r="IH5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="II5" t="n">
+      <c r="II5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4850,8 +4865,11 @@
       <c r="IH6" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="II6" t="n">
+      <c r="II6" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5583,8 +5601,11 @@
       <c r="IH7" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="II7" t="n">
+      <c r="II7" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6316,8 +6337,11 @@
       <c r="IH8" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="II8" t="n">
+      <c r="II8" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7049,7 +7073,10 @@
       <c r="IH9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="II9" t="n">
+      <c r="II9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,8 +7809,11 @@
       <c r="IH10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="II10" t="n">
+      <c r="II10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8515,8 +8545,11 @@
       <c r="IH11" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="II11" t="n">
+      <c r="II11" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9248,8 +9281,11 @@
       <c r="IH12" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="II12" t="n">
+      <c r="II12" s="1" t="n">
         <v>157</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9981,8 +10017,11 @@
       <c r="IH13" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="II13" t="n">
+      <c r="II13" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10714,8 +10753,11 @@
       <c r="IH14" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="II14" t="n">
+      <c r="II14" s="1" t="n">
         <v>1.32</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11447,8 +11489,11 @@
       <c r="IH15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="II15" t="n">
+      <c r="II15" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12180,8 +12225,11 @@
       <c r="IH16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="II16" t="n">
+      <c r="II16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12913,8 +12961,11 @@
       <c r="IH17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="II17" t="n">
+      <c r="II17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13646,8 +13697,11 @@
       <c r="IH18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="II18" t="n">
+      <c r="II18" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14379,8 +14433,11 @@
       <c r="IH19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="II19" t="n">
+      <c r="II19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15112,8 +15169,11 @@
       <c r="IH20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="II20" t="n">
+      <c r="II20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15845,8 +15905,11 @@
       <c r="IH21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="II21" t="n">
+      <c r="II21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16578,8 +16641,11 @@
       <c r="IH22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="II22" t="n">
+      <c r="II22" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IJ22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17311,7 +17377,10 @@
       <c r="IH23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="II23" t="n">
+      <c r="II23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18044,8 +18113,11 @@
       <c r="IH24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="II24" t="n">
+      <c r="II24" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18777,8 +18849,11 @@
       <c r="IH25" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="II25" t="n">
+      <c r="II25" s="1" t="n">
         <v>45.2</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19510,8 +19585,11 @@
       <c r="IH26" s="1" t="n">
         <v>31.09</v>
       </c>
-      <c r="II26" t="n">
+      <c r="II26" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>27.06</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20243,8 +20321,11 @@
       <c r="IH27" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="II27" t="n">
+      <c r="II27" s="1" t="n">
         <v>11.74</v>
+      </c>
+      <c r="IJ27" t="n">
+        <v>19.68</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20976,8 +21057,11 @@
       <c r="IH28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="II28" t="n">
+      <c r="II28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IJ28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21709,8 +21793,11 @@
       <c r="IH29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="II29" t="n">
+      <c r="II29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IJ29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22442,8 +22529,11 @@
       <c r="IH30" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="II30" t="n">
+      <c r="II30" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IJ30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23175,8 +23265,11 @@
       <c r="IH31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="II31" t="n">
+      <c r="II31" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IJ31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23908,8 +24001,11 @@
       <c r="IH32" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="II32" t="n">
+      <c r="II32" s="1" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IJ32" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24641,8 +24737,11 @@
       <c r="IH33" s="1" t="n">
         <v>4.18</v>
       </c>
-      <c r="II33" t="n">
+      <c r="II33" s="1" t="n">
         <v>4.57</v>
+      </c>
+      <c r="IJ33" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25374,8 +25473,11 @@
       <c r="IH34" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="II34" t="n">
+      <c r="II34" s="1" t="n">
         <v>46.9</v>
+      </c>
+      <c r="IJ34" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26107,8 +26209,11 @@
       <c r="IH35" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="II35" t="n">
+      <c r="II35" s="1" t="n">
         <v>21.9</v>
+      </c>
+      <c r="IJ35" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26840,8 +26945,11 @@
       <c r="IH36" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="II36" t="n">
+      <c r="II36" s="1" t="n">
         <v>189.4</v>
+      </c>
+      <c r="IJ36" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27573,8 +27681,11 @@
       <c r="IH37" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="II37" t="n">
+      <c r="II37" s="1" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="IJ37" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28306,8 +28417,11 @@
       <c r="IH38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="II38" t="n">
+      <c r="II38" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IJ38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29039,8 +29153,11 @@
       <c r="IH39" s="1" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="II39" t="n">
+      <c r="II39" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="IJ39" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29772,8 +29889,11 @@
       <c r="IH40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="II40" t="n">
+      <c r="II40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IJ40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30505,7 +30625,10 @@
       <c r="IH41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="II41" t="n">
+      <c r="II41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -31238,7 +31361,10 @@
       <c r="IH42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="II42" t="n">
+      <c r="II42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IJ42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31971,7 +32097,10 @@
       <c r="IH43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="II43" t="n">
+      <c r="II43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32704,8 +32833,11 @@
       <c r="IH44" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="II44" t="n">
+      <c r="II44" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="IJ44" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33437,8 +33569,11 @@
       <c r="IH45" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="II45" t="n">
+      <c r="II45" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="IJ45" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34170,8 +34305,11 @@
       <c r="IH46" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="II46" t="n">
+      <c r="II46" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="IJ46" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34903,8 +35041,11 @@
       <c r="IH47" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="II47" t="n">
+      <c r="II47" s="1" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="IJ47" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35636,8 +35777,11 @@
       <c r="IH48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="II48" t="n">
+      <c r="II48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IJ48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36369,8 +36513,11 @@
       <c r="IH49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="II49" t="n">
+      <c r="II49" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IJ49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37102,8 +37249,11 @@
       <c r="IH50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="II50" t="n">
+      <c r="II50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IJ50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37835,8 +37985,11 @@
       <c r="IH51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="II51" t="n">
+      <c r="II51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IJ51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38568,8 +38721,11 @@
       <c r="IH52" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="II52" t="n">
+      <c r="II52" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IJ52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39301,8 +39457,11 @@
       <c r="IH53" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="II53" t="n">
+      <c r="II53" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IJ53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40034,8 +40193,11 @@
       <c r="IH54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="II54" t="n">
+      <c r="II54" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IJ54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40767,8 +40929,11 @@
       <c r="IH55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="II55" t="n">
+      <c r="II55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41500,8 +41665,11 @@
       <c r="IH56" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="II56" t="n">
+      <c r="II56" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IJ56" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42233,8 +42401,11 @@
       <c r="IH57" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="II57" t="n">
+      <c r="II57" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="IJ57" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42966,8 +43137,11 @@
       <c r="IH58" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="II58" t="n">
+      <c r="II58" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="IJ58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43699,8 +43873,11 @@
       <c r="IH59" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="II59" t="n">
+      <c r="II59" s="1" t="n">
         <v>307</v>
+      </c>
+      <c r="IJ59" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44432,8 +44609,11 @@
       <c r="IH60" s="1" t="n">
         <v>1.64</v>
       </c>
-      <c r="II60" t="n">
+      <c r="II60" s="1" t="n">
         <v>1.44</v>
+      </c>
+      <c r="IJ60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45165,8 +45345,11 @@
       <c r="IH61" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="II61" t="n">
+      <c r="II61" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IJ61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45898,8 +46081,11 @@
       <c r="IH62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="II62" t="n">
+      <c r="II62" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IJ62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46631,8 +46817,11 @@
       <c r="IH63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="II63" t="n">
+      <c r="II63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IJ63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47364,8 +47553,11 @@
       <c r="IH64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="II64" t="n">
+      <c r="II64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IJ64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48097,8 +48289,11 @@
       <c r="IH65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="II65" t="n">
+      <c r="II65" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IJ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48830,8 +49025,11 @@
       <c r="IH66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="II66" t="n">
+      <c r="II66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IJ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49563,8 +49761,11 @@
       <c r="IH67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="II67" t="n">
+      <c r="II67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50296,8 +50497,11 @@
       <c r="IH68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="II68" t="n">
+      <c r="II68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IJ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51029,8 +51233,11 @@
       <c r="IH69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="II69" t="n">
+      <c r="II69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IJ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51762,8 +51969,11 @@
       <c r="IH70" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="II70" t="n">
+      <c r="II70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IJ70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52495,8 +52705,11 @@
       <c r="IH71" s="1" t="n">
         <v>41.4</v>
       </c>
-      <c r="II71" t="n">
+      <c r="II71" s="1" t="n">
         <v>52.4</v>
+      </c>
+      <c r="IJ71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53228,8 +53441,11 @@
       <c r="IH72" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="II72" t="n">
+      <c r="II72" s="1" t="n">
         <v>27.91</v>
+      </c>
+      <c r="IJ72" t="n">
+        <v>28.15</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53961,8 +54177,11 @@
       <c r="IH73" s="1" t="n">
         <v>12.21</v>
       </c>
-      <c r="II73" t="n">
+      <c r="II73" s="1" t="n">
         <v>14.62</v>
+      </c>
+      <c r="IJ73" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54694,8 +54913,11 @@
       <c r="IH74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="II74" t="n">
+      <c r="II74" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IJ74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55427,8 +55649,11 @@
       <c r="IH75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="II75" t="n">
+      <c r="II75" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IJ75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56160,8 +56385,11 @@
       <c r="IH76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="II76" t="n">
+      <c r="II76" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IJ76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56893,8 +57121,11 @@
       <c r="IH77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="II77" t="n">
+      <c r="II77" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IJ77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57626,8 +57857,11 @@
       <c r="IH78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="II78" t="n">
+      <c r="II78" s="1" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IJ78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58359,8 +58593,11 @@
       <c r="IH79" s="1" t="n">
         <v>4.83</v>
       </c>
-      <c r="II79" t="n">
+      <c r="II79" s="1" t="n">
         <v>3.64</v>
+      </c>
+      <c r="IJ79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59092,8 +59329,11 @@
       <c r="IH80" s="1" t="n">
         <v>44.8</v>
       </c>
-      <c r="II80" t="n">
+      <c r="II80" s="1" t="n">
         <v>47.5</v>
+      </c>
+      <c r="IJ80" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59825,8 +60065,11 @@
       <c r="IH81" s="1" t="n">
         <v>20.7</v>
       </c>
-      <c r="II81" t="n">
+      <c r="II81" s="1" t="n">
         <v>27.5</v>
+      </c>
+      <c r="IJ81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60558,8 +60801,11 @@
       <c r="IH82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="II82" t="n">
+      <c r="II82" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IJ82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61291,8 +61537,11 @@
       <c r="IH83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="II83" t="n">
+      <c r="II83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IJ83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62024,8 +62273,11 @@
       <c r="IH84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="II84" t="n">
+      <c r="II84" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IJ84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62757,8 +63009,11 @@
       <c r="IH85" s="1" t="n">
         <v>92.09999999999999</v>
       </c>
-      <c r="II85" t="n">
+      <c r="II85" s="1" t="n">
         <v>121.1</v>
+      </c>
+      <c r="IJ85" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63490,8 +63745,11 @@
       <c r="IH86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="II86" t="n">
+      <c r="II86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -64223,8 +64481,11 @@
       <c r="IH87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="II87" t="n">
+      <c r="II87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64956,7 +65217,10 @@
       <c r="IH88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="II88" t="n">
+      <c r="II88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -65689,8 +65953,11 @@
       <c r="IH89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="II89" t="n">
+      <c r="II89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IJ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66422,8 +66689,11 @@
       <c r="IH90" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="II90" t="n">
+      <c r="II90" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="IJ90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67155,8 +67425,11 @@
       <c r="IH91" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="II91" t="n">
+      <c r="II91" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IJ91" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67888,8 +68161,11 @@
       <c r="IH92" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="II92" t="n">
+      <c r="II92" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="IJ92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68621,8 +68897,11 @@
       <c r="IH93" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="II93" t="n">
+      <c r="II93" s="1" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="IJ93" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69354,8 +69633,11 @@
       <c r="IH94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="II94" t="n">
+      <c r="II94" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IJ94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70087,8 +70369,11 @@
       <c r="IH95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="II95" t="n">
+      <c r="II95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IJ95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -70820,8 +71105,11 @@
       <c r="IH96" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="II96" t="n">
+      <c r="II96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IJ96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71553,8 +71841,11 @@
       <c r="IH97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="II97" t="n">
+      <c r="II97" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IJ97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -72286,8 +72577,11 @@
       <c r="IH98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="II98" t="n">
+      <c r="II98" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IJ98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73019,8 +73313,11 @@
       <c r="IH99" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="II99" t="n">
+      <c r="II99" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IJ99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73752,8 +74049,11 @@
       <c r="IH100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="II100" t="n">
+      <c r="II100" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IJ100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74485,8 +74785,11 @@
       <c r="IH101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="II101" t="n">
+      <c r="II101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IJ101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -75218,8 +75521,11 @@
       <c r="IH102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="II102" t="n">
+      <c r="II102" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IJ102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1188,8 +1188,11 @@
       <c r="II1" s="1" t="n">
         <v>10545</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="1" t="n">
         <v>10553</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>10568</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1924,7 +1927,10 @@
       <c r="II2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IK2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2660,8 +2666,11 @@
       <c r="II3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3396,8 +3405,11 @@
       <c r="II4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4132,8 +4144,11 @@
       <c r="II5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4868,8 +4883,11 @@
       <c r="II6" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5604,8 +5622,11 @@
       <c r="II7" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6340,8 +6361,11 @@
       <c r="II8" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7076,7 +7100,10 @@
       <c r="II9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7812,8 +7839,11 @@
       <c r="II10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8548,8 +8578,11 @@
       <c r="II11" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="1" t="n">
         <v>245</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9284,8 +9317,11 @@
       <c r="II12" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10020,8 +10056,11 @@
       <c r="II13" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="1" t="n">
         <v>433</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10756,8 +10795,11 @@
       <c r="II14" s="1" t="n">
         <v>1.32</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11492,8 +11534,11 @@
       <c r="II15" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12228,8 +12273,11 @@
       <c r="II16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12964,8 +13012,11 @@
       <c r="II17" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13700,8 +13751,11 @@
       <c r="II18" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14436,8 +14490,11 @@
       <c r="II19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15172,8 +15229,11 @@
       <c r="II20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15908,8 +15968,11 @@
       <c r="II21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16644,8 +16707,11 @@
       <c r="II22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17380,8 +17446,11 @@
       <c r="II23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18116,8 +18185,11 @@
       <c r="II24" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18852,8 +18924,11 @@
       <c r="II25" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19588,8 +19663,11 @@
       <c r="II26" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="1" t="n">
         <v>27.06</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>36.27</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20324,8 +20402,11 @@
       <c r="II27" s="1" t="n">
         <v>11.74</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="1" t="n">
         <v>19.68</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21060,8 +21141,11 @@
       <c r="II28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IK28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21796,8 +21880,11 @@
       <c r="II29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22532,8 +22619,11 @@
       <c r="II30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23268,8 +23358,11 @@
       <c r="II31" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24004,8 +24097,11 @@
       <c r="II32" s="1" t="n">
         <v>2.06</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="1" t="n">
         <v>2.23</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>3.37</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24740,8 +24836,11 @@
       <c r="II33" s="1" t="n">
         <v>4.57</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="1" t="n">
         <v>3.06</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>5.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25476,8 +25575,11 @@
       <c r="II34" s="1" t="n">
         <v>46.9</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>26.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26212,8 +26314,11 @@
       <c r="II35" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="IK35" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26948,8 +27053,11 @@
       <c r="II36" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="1" t="n">
         <v>189.2</v>
+      </c>
+      <c r="IK36" t="n">
+        <v>189.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27684,8 +27792,11 @@
       <c r="II37" s="1" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="1" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IK37" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28420,8 +28531,11 @@
       <c r="II38" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IK38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29156,8 +29270,11 @@
       <c r="II39" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="1" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="IK39" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29892,8 +30009,11 @@
       <c r="II40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30628,8 +30748,11 @@
       <c r="II41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31364,7 +31487,10 @@
       <c r="II42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IK42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -32100,7 +32226,10 @@
       <c r="II43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32836,8 +32965,11 @@
       <c r="II44" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33572,8 +33704,11 @@
       <c r="II45" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="1" t="n">
         <v>265</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34308,8 +34443,11 @@
       <c r="II46" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="1" t="n">
         <v>337</v>
+      </c>
+      <c r="IK46" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35044,8 +35182,11 @@
       <c r="II47" s="1" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="IK47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35780,8 +35921,11 @@
       <c r="II48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IK48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36516,8 +36660,11 @@
       <c r="II49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IK49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37252,8 +37399,11 @@
       <c r="II50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37988,8 +38138,11 @@
       <c r="II51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IK51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38724,8 +38877,11 @@
       <c r="II52" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39460,8 +39616,11 @@
       <c r="II53" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40196,8 +40355,11 @@
       <c r="II54" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IK54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40932,8 +41094,11 @@
       <c r="II55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41668,8 +41833,11 @@
       <c r="II56" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IK56" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42404,8 +42572,11 @@
       <c r="II57" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IK57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43140,8 +43311,11 @@
       <c r="II58" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="IK58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43876,7 +44050,10 @@
       <c r="II59" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="IK59" t="n">
         <v>366</v>
       </c>
     </row>
@@ -44612,8 +44789,11 @@
       <c r="II60" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="IK60" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45348,8 +45528,11 @@
       <c r="II61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46084,8 +46267,11 @@
       <c r="II62" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46820,8 +47006,11 @@
       <c r="II63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47556,8 +47745,11 @@
       <c r="II64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IK64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48292,8 +48484,11 @@
       <c r="II65" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IK65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49028,8 +49223,11 @@
       <c r="II66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IK66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49764,8 +49962,11 @@
       <c r="II67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IK67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50500,8 +50701,11 @@
       <c r="II68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51236,8 +51440,11 @@
       <c r="II69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IK69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51972,8 +52179,11 @@
       <c r="II70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IK70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52708,8 +52918,11 @@
       <c r="II71" s="1" t="n">
         <v>52.4</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53444,8 +53657,11 @@
       <c r="II72" s="1" t="n">
         <v>27.91</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="1" t="n">
         <v>28.15</v>
+      </c>
+      <c r="IK72" t="n">
+        <v>33.27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54180,8 +54396,11 @@
       <c r="II73" s="1" t="n">
         <v>14.62</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="1" t="n">
         <v>14.64</v>
+      </c>
+      <c r="IK73" t="n">
+        <v>20.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54916,8 +55135,11 @@
       <c r="II74" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IK74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55652,8 +55874,11 @@
       <c r="II75" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IK75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56388,8 +56613,11 @@
       <c r="II76" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57124,8 +57352,11 @@
       <c r="II77" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IK77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57860,8 +58091,11 @@
       <c r="II78" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="IK78" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58596,8 +58830,11 @@
       <c r="II79" s="1" t="n">
         <v>3.64</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="1" t="n">
         <v>3.92</v>
+      </c>
+      <c r="IK79" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59332,8 +59569,11 @@
       <c r="II80" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="1" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IK80" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60068,8 +60308,11 @@
       <c r="II81" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="1" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IK81" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60804,8 +61047,11 @@
       <c r="II82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IK82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61540,8 +61786,11 @@
       <c r="II83" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IK83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62276,8 +62525,11 @@
       <c r="II84" s="1" t="n">
         <v>27.8</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IK84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63012,8 +63264,11 @@
       <c r="II85" s="1" t="n">
         <v>121.1</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="IK85" t="n">
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63748,8 +64003,11 @@
       <c r="II86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -64484,8 +64742,11 @@
       <c r="II87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IK87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65220,7 +65481,10 @@
       <c r="II88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -65956,8 +66220,11 @@
       <c r="II89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IK89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66692,8 +66959,11 @@
       <c r="II90" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="IK90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67428,8 +67698,11 @@
       <c r="II91" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="1" t="n">
         <v>236</v>
+      </c>
+      <c r="IK91" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68164,8 +68437,11 @@
       <c r="II92" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="IK92" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68900,8 +69176,11 @@
       <c r="II93" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IK93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69636,8 +69915,11 @@
       <c r="II94" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IK94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70372,8 +70654,11 @@
       <c r="II95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IK95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71108,8 +71393,11 @@
       <c r="II96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IK96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71844,8 +72132,11 @@
       <c r="II97" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IK97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -72580,8 +72871,11 @@
       <c r="II98" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IK98" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73316,8 +73610,11 @@
       <c r="II99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IK99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74052,8 +74349,11 @@
       <c r="II100" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IK100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74788,8 +75088,11 @@
       <c r="II101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IK101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -75524,8 +75827,11 @@
       <c r="II102" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1194,8 +1194,11 @@
       <c r="IK1" s="1" t="n">
         <v>10568</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="1" t="n">
         <v>10579</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10586</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1936,7 +1939,10 @@
       <c r="IK2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2678,8 +2684,11 @@
       <c r="IK3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3420,8 +3429,11 @@
       <c r="IK4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4162,7 +4174,10 @@
       <c r="IK5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4904,8 +4919,11 @@
       <c r="IK6" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5646,8 +5664,11 @@
       <c r="IK7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6388,8 +6409,11 @@
       <c r="IK8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="1" t="n">
         <v>-30</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7130,8 +7154,11 @@
       <c r="IK9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7872,8 +7899,11 @@
       <c r="IK10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8614,8 +8644,11 @@
       <c r="IK11" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9356,8 +9389,11 @@
       <c r="IK12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10098,8 +10134,11 @@
       <c r="IK13" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10840,8 +10879,11 @@
       <c r="IK14" s="1" t="n">
         <v>1.73</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="1" t="n">
         <v>1.57</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11582,8 +11624,11 @@
       <c r="IK15" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12324,8 +12369,11 @@
       <c r="IK16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13066,8 +13114,11 @@
       <c r="IK17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13808,8 +13859,11 @@
       <c r="IK18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14550,8 +14604,11 @@
       <c r="IK19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15292,8 +15349,11 @@
       <c r="IK20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16034,8 +16094,11 @@
       <c r="IK21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16776,8 +16839,11 @@
       <c r="IK22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17518,8 +17584,11 @@
       <c r="IK23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18260,8 +18329,11 @@
       <c r="IK24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19002,8 +19074,11 @@
       <c r="IK25" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="1" t="n">
         <v>36.4</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19744,8 +19819,11 @@
       <c r="IK26" s="1" t="n">
         <v>36.27</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="1" t="n">
         <v>47.62</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>28.86</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20486,8 +20564,11 @@
       <c r="IK27" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="1" t="n">
         <v>17.32</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>16.83</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21228,8 +21309,11 @@
       <c r="IK28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IM28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21970,8 +22054,11 @@
       <c r="IK29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22712,8 +22799,11 @@
       <c r="IK30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23454,8 +23544,11 @@
       <c r="IK31" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24196,8 +24289,11 @@
       <c r="IK32" s="1" t="n">
         <v>3.37</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="1" t="n">
         <v>2.14</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24938,8 +25034,11 @@
       <c r="IK33" s="1" t="n">
         <v>5.82</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="1" t="n">
         <v>5.88</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25680,8 +25779,11 @@
       <c r="IK34" s="1" t="n">
         <v>26.6</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="1" t="n">
         <v>44.7</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26422,8 +26524,11 @@
       <c r="IK35" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27164,8 +27269,11 @@
       <c r="IK36" s="1" t="n">
         <v>189.7</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27906,8 +28014,11 @@
       <c r="IK37" s="1" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28648,8 +28759,11 @@
       <c r="IK38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29390,8 +29504,11 @@
       <c r="IK39" s="1" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="1" t="n">
         <v>78.90000000000001</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30132,7 +30249,10 @@
       <c r="IK40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30874,7 +30994,10 @@
       <c r="IK41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IM41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31616,8 +31739,11 @@
       <c r="IK42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32358,8 +32484,11 @@
       <c r="IK43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -33100,8 +33229,11 @@
       <c r="IK44" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33842,8 +33974,11 @@
       <c r="IK45" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34584,8 +34719,11 @@
       <c r="IK46" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="1" t="n">
         <v>282</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35326,8 +35464,11 @@
       <c r="IK47" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36068,8 +36209,11 @@
       <c r="IK48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36810,8 +36954,11 @@
       <c r="IK49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37552,7 +37699,10 @@
       <c r="IK50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IM50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -38294,8 +38444,11 @@
       <c r="IK51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IM51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39036,8 +39189,11 @@
       <c r="IK52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39778,8 +39934,11 @@
       <c r="IK53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40520,8 +40679,11 @@
       <c r="IK54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41262,8 +41424,11 @@
       <c r="IK55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42004,8 +42169,11 @@
       <c r="IK56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IM56" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42746,8 +42914,11 @@
       <c r="IK57" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43488,8 +43659,11 @@
       <c r="IK58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44230,8 +44404,11 @@
       <c r="IK59" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="1" t="n">
         <v>345</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44972,8 +45149,11 @@
       <c r="IK60" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="1" t="n">
         <v>1.67</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45714,8 +45894,11 @@
       <c r="IK61" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46456,8 +46639,11 @@
       <c r="IK62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47198,8 +47384,11 @@
       <c r="IK63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47940,8 +48129,11 @@
       <c r="IK64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48682,8 +48874,11 @@
       <c r="IK65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49424,7 +49619,10 @@
       <c r="IK66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IM66" t="n">
         <v>13</v>
       </c>
     </row>
@@ -50166,8 +50364,11 @@
       <c r="IK67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50908,8 +51109,11 @@
       <c r="IK68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51650,8 +51854,11 @@
       <c r="IK69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -52392,8 +52599,11 @@
       <c r="IK70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53134,8 +53344,11 @@
       <c r="IK71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="1" t="n">
         <v>48.1</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53876,8 +54089,11 @@
       <c r="IK72" s="1" t="n">
         <v>33.27</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="1" t="n">
         <v>26.54</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>27.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54618,8 +54834,11 @@
       <c r="IK73" s="1" t="n">
         <v>20.33</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="1" t="n">
         <v>12.78</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>13.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55360,8 +55579,11 @@
       <c r="IK74" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -56102,8 +56324,11 @@
       <c r="IK75" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56844,8 +57069,11 @@
       <c r="IK76" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57586,8 +57814,11 @@
       <c r="IK77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58328,8 +58559,11 @@
       <c r="IK78" s="1" t="n">
         <v>2.56</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="1" t="n">
         <v>2.37</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59070,8 +59304,11 @@
       <c r="IK79" s="1" t="n">
         <v>4.18</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="1" t="n">
         <v>4.92</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59812,8 +60049,11 @@
       <c r="IK80" s="1" t="n">
         <v>34.8</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="1" t="n">
         <v>40.6</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60554,8 +60794,11 @@
       <c r="IK81" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="1" t="n">
         <v>20.3</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>27.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -61296,8 +61539,11 @@
       <c r="IK82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -62038,8 +62284,11 @@
       <c r="IK83" s="1" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62780,8 +63029,11 @@
       <c r="IK84" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63522,8 +63774,11 @@
       <c r="IK85" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="1" t="n">
         <v>79.5</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>101.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -64264,8 +64519,11 @@
       <c r="IK86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -65006,7 +65264,10 @@
       <c r="IK87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -65748,8 +66009,11 @@
       <c r="IK88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -66490,8 +66754,11 @@
       <c r="IK89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IM89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -67232,8 +67499,11 @@
       <c r="IK90" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67974,8 +68244,11 @@
       <c r="IK91" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68716,8 +68989,11 @@
       <c r="IK92" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -69458,8 +69734,11 @@
       <c r="IK93" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="1" t="n">
         <v>68.09999999999999</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -70200,8 +70479,11 @@
       <c r="IK94" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70942,8 +71224,11 @@
       <c r="IK95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71684,8 +71969,11 @@
       <c r="IK96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -72426,8 +72714,11 @@
       <c r="IK97" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -73168,8 +73459,11 @@
       <c r="IK98" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73910,8 +74204,11 @@
       <c r="IK99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74652,8 +74949,11 @@
       <c r="IK100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -75394,8 +75694,11 @@
       <c r="IK101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -76136,8 +76439,11 @@
       <c r="IK102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>69.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1197,8 +1197,11 @@
       <c r="IL1" s="1" t="n">
         <v>10579</v>
       </c>
-      <c r="IM1" t="n">
+      <c r="IM1" s="1" t="n">
         <v>10586</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10592</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1942,7 +1945,10 @@
       <c r="IL2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IM2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2687,8 +2693,11 @@
       <c r="IL3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IM3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3432,8 +3441,11 @@
       <c r="IL4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IM4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4177,7 +4189,10 @@
       <c r="IL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IM5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4922,8 +4937,11 @@
       <c r="IL6" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IM6" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5667,8 +5685,11 @@
       <c r="IL7" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IM7" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6412,8 +6433,11 @@
       <c r="IL8" s="1" t="n">
         <v>-30</v>
       </c>
-      <c r="IM8" t="n">
+      <c r="IM8" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7157,8 +7181,11 @@
       <c r="IL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IM9" t="n">
+      <c r="IM9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7902,8 +7929,11 @@
       <c r="IL10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IM10" t="n">
+      <c r="IM10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8647,8 +8677,11 @@
       <c r="IL11" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="IM11" t="n">
+      <c r="IM11" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9392,8 +9425,11 @@
       <c r="IL12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IM12" t="n">
+      <c r="IM12" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10137,8 +10173,11 @@
       <c r="IL13" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IM13" t="n">
+      <c r="IM13" s="1" t="n">
         <v>404</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10882,8 +10921,11 @@
       <c r="IL14" s="1" t="n">
         <v>1.57</v>
       </c>
-      <c r="IM14" t="n">
+      <c r="IM14" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11627,8 +11669,11 @@
       <c r="IL15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="IM15" t="n">
+      <c r="IM15" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12372,8 +12417,11 @@
       <c r="IL16" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IM16" t="n">
+      <c r="IM16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13117,8 +13165,11 @@
       <c r="IL17" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IM17" t="n">
+      <c r="IM17" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13862,8 +13913,11 @@
       <c r="IL18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IM18" t="n">
+      <c r="IM18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14607,8 +14661,11 @@
       <c r="IL19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IM19" t="n">
+      <c r="IM19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15352,8 +15409,11 @@
       <c r="IL20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IM20" t="n">
+      <c r="IM20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16097,8 +16157,11 @@
       <c r="IL21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IM21" t="n">
+      <c r="IM21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16842,8 +16905,11 @@
       <c r="IL22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IM22" t="n">
+      <c r="IM22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17587,8 +17653,11 @@
       <c r="IL23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IM23" t="n">
+      <c r="IM23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18332,8 +18401,11 @@
       <c r="IL24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IM24" t="n">
+      <c r="IM24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19077,8 +19149,11 @@
       <c r="IL25" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="IM25" t="n">
+      <c r="IM25" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19822,8 +19897,11 @@
       <c r="IL26" s="1" t="n">
         <v>47.62</v>
       </c>
-      <c r="IM26" t="n">
+      <c r="IM26" s="1" t="n">
         <v>28.86</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>42.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20567,8 +20645,11 @@
       <c r="IL27" s="1" t="n">
         <v>17.32</v>
       </c>
-      <c r="IM27" t="n">
+      <c r="IM27" s="1" t="n">
         <v>16.83</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>22.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21312,8 +21393,11 @@
       <c r="IL28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IM28" t="n">
+      <c r="IM28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22057,8 +22141,11 @@
       <c r="IL29" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IM29" t="n">
+      <c r="IM29" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22802,8 +22889,11 @@
       <c r="IL30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IM30" t="n">
+      <c r="IM30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23547,8 +23637,11 @@
       <c r="IL31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IM31" t="n">
+      <c r="IM31" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24292,8 +24385,11 @@
       <c r="IL32" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="IM32" t="n">
+      <c r="IM32" s="1" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25037,8 +25133,11 @@
       <c r="IL33" s="1" t="n">
         <v>5.88</v>
       </c>
-      <c r="IM33" t="n">
+      <c r="IM33" s="1" t="n">
         <v>3.57</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25782,8 +25881,11 @@
       <c r="IL34" s="1" t="n">
         <v>44.7</v>
       </c>
-      <c r="IM34" t="n">
+      <c r="IM34" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26527,8 +26629,11 @@
       <c r="IL35" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IM35" t="n">
+      <c r="IM35" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27272,8 +27377,11 @@
       <c r="IL36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="IM36" t="n">
+      <c r="IM36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28017,8 +28125,11 @@
       <c r="IL37" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="IM37" t="n">
+      <c r="IM37" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28762,7 +28873,10 @@
       <c r="IL38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IM38" t="n">
+      <c r="IM38" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="IN38" t="n">
         <v>24.91</v>
       </c>
     </row>
@@ -29507,8 +29621,11 @@
       <c r="IL39" s="1" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="IM39" t="n">
+      <c r="IM39" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30252,8 +30369,11 @@
       <c r="IL40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IM40" t="n">
+      <c r="IM40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30997,8 +31117,11 @@
       <c r="IL41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IM41" t="n">
+      <c r="IM41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IN41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31742,8 +31865,11 @@
       <c r="IL42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IM42" t="n">
+      <c r="IM42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IN42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32487,7 +32613,10 @@
       <c r="IL43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IM43" t="n">
+      <c r="IM43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33232,8 +33361,11 @@
       <c r="IL44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IM44" t="n">
+      <c r="IM44" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33977,8 +34109,11 @@
       <c r="IL45" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="IM45" t="n">
+      <c r="IM45" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34722,8 +34857,11 @@
       <c r="IL46" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="IM46" t="n">
+      <c r="IM46" s="1" t="n">
         <v>304</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35467,8 +35605,11 @@
       <c r="IL47" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="IM47" t="n">
+      <c r="IM47" s="1" t="n">
         <v>75.2</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36212,8 +36353,11 @@
       <c r="IL48" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IM48" t="n">
+      <c r="IM48" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36957,8 +37101,11 @@
       <c r="IL49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IM49" t="n">
+      <c r="IM49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37702,8 +37849,11 @@
       <c r="IL50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IM50" t="n">
+      <c r="IM50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38447,8 +38597,11 @@
       <c r="IL51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IM51" t="n">
+      <c r="IM51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39192,8 +39345,11 @@
       <c r="IL52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IM52" t="n">
+      <c r="IM52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39937,8 +40093,11 @@
       <c r="IL53" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IM53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40682,8 +40841,11 @@
       <c r="IL54" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IM54" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41427,8 +41589,11 @@
       <c r="IL55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IM55" t="n">
+      <c r="IM55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42172,8 +42337,11 @@
       <c r="IL56" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IM56" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42917,8 +43085,11 @@
       <c r="IL57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="IM57" t="n">
+      <c r="IM57" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43662,8 +43833,11 @@
       <c r="IL58" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IM58" t="n">
+      <c r="IM58" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44407,8 +44581,11 @@
       <c r="IL59" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="IM59" t="n">
+      <c r="IM59" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45152,8 +45329,11 @@
       <c r="IL60" s="1" t="n">
         <v>1.67</v>
       </c>
-      <c r="IM60" t="n">
+      <c r="IM60" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45897,8 +46077,11 @@
       <c r="IL61" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="IM61" t="n">
+      <c r="IM61" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46642,8 +46825,11 @@
       <c r="IL62" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IM62" t="n">
+      <c r="IM62" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47387,8 +47573,11 @@
       <c r="IL63" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IM63" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48132,8 +48321,11 @@
       <c r="IL64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IM64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48877,8 +49069,11 @@
       <c r="IL65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IM65" t="n">
+      <c r="IM65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49622,8 +49817,11 @@
       <c r="IL66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IM66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50367,8 +50565,11 @@
       <c r="IL67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IM67" t="n">
+      <c r="IM67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51112,7 +51313,10 @@
       <c r="IL68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IM68" t="n">
+      <c r="IM68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -51857,7 +52061,10 @@
       <c r="IL69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IM69" t="n">
+      <c r="IM69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52602,8 +52809,11 @@
       <c r="IL70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IM70" t="n">
+      <c r="IM70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53347,8 +53557,11 @@
       <c r="IL71" s="1" t="n">
         <v>48.1</v>
       </c>
-      <c r="IM71" t="n">
+      <c r="IM71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54092,8 +54305,11 @@
       <c r="IL72" s="1" t="n">
         <v>26.54</v>
       </c>
-      <c r="IM72" t="n">
+      <c r="IM72" s="1" t="n">
         <v>27.38</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54837,8 +55053,11 @@
       <c r="IL73" s="1" t="n">
         <v>12.78</v>
       </c>
-      <c r="IM73" t="n">
+      <c r="IM73" s="1" t="n">
         <v>13.69</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>13.26</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55582,7 +55801,10 @@
       <c r="IL74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IM74" t="n">
+      <c r="IM74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IN74" t="n">
         <v>33</v>
       </c>
     </row>
@@ -56327,8 +56549,11 @@
       <c r="IL75" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IM75" t="n">
+      <c r="IM75" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57072,8 +57297,11 @@
       <c r="IL76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IM76" t="n">
+      <c r="IM76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57817,8 +58045,11 @@
       <c r="IL77" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IM77" t="n">
+      <c r="IM77" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58562,8 +58793,11 @@
       <c r="IL78" s="1" t="n">
         <v>2.37</v>
       </c>
-      <c r="IM78" t="n">
+      <c r="IM78" s="1" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59307,8 +59541,11 @@
       <c r="IL79" s="1" t="n">
         <v>4.92</v>
       </c>
-      <c r="IM79" t="n">
+      <c r="IM79" s="1" t="n">
         <v>3.62</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -60052,8 +60289,11 @@
       <c r="IL80" s="1" t="n">
         <v>40.6</v>
       </c>
-      <c r="IM80" t="n">
+      <c r="IM80" s="1" t="n">
         <v>46.8</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60797,8 +61037,11 @@
       <c r="IL81" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="IM81" t="n">
+      <c r="IM81" s="1" t="n">
         <v>27.7</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -61542,8 +61785,11 @@
       <c r="IL82" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="IM82" t="n">
+      <c r="IM82" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -62287,8 +62533,11 @@
       <c r="IL83" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="IM83" t="n">
+      <c r="IM83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -63032,8 +63281,11 @@
       <c r="IL84" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="IM84" t="n">
+      <c r="IM84" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63777,8 +64029,11 @@
       <c r="IL85" s="1" t="n">
         <v>79.5</v>
       </c>
-      <c r="IM85" t="n">
+      <c r="IM85" s="1" t="n">
         <v>101.8</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -64522,8 +64777,11 @@
       <c r="IL86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IM86" t="n">
+      <c r="IM86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -65267,8 +65525,11 @@
       <c r="IL87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IM87" t="n">
+      <c r="IM87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IN87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -66012,8 +66273,11 @@
       <c r="IL88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IM88" t="n">
+      <c r="IM88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -66757,8 +67021,11 @@
       <c r="IL89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IM89" t="n">
+      <c r="IM89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -67502,8 +67769,11 @@
       <c r="IL90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="IM90" t="n">
+      <c r="IM90" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -68247,8 +68517,11 @@
       <c r="IL91" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="IM91" t="n">
+      <c r="IM91" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68992,8 +69265,11 @@
       <c r="IL92" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="IM92" t="n">
+      <c r="IM92" s="1" t="n">
         <v>271</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -69737,8 +70013,11 @@
       <c r="IL93" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="IM93" t="n">
+      <c r="IM93" s="1" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -70482,8 +70761,11 @@
       <c r="IL94" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IM94" t="n">
+      <c r="IM94" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -71227,8 +71509,11 @@
       <c r="IL95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IM95" t="n">
+      <c r="IM95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71972,8 +72257,11 @@
       <c r="IL96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IM96" t="n">
+      <c r="IM96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -72717,7 +73005,10 @@
       <c r="IL97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IM97" t="n">
+      <c r="IM97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IN97" t="n">
         <v>33</v>
       </c>
     </row>
@@ -73462,8 +73753,11 @@
       <c r="IL98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IM98" t="n">
+      <c r="IM98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -74207,8 +74501,11 @@
       <c r="IL99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IM99" t="n">
+      <c r="IM99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74952,8 +75249,11 @@
       <c r="IL100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IM100" t="n">
+      <c r="IM100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -75697,8 +75997,11 @@
       <c r="IL101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IM101" t="n">
+      <c r="IM101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -76442,8 +76745,11 @@
       <c r="IL102" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IM102" t="n">
+      <c r="IM102" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1200,8 +1200,14 @@
       <c r="IM1" s="1" t="n">
         <v>10586</v>
       </c>
-      <c r="IN1" t="n">
+      <c r="IN1" s="1" t="n">
         <v>10592</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>10603</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10615</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1948,7 +1954,13 @@
       <c r="IM2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IN2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IO2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2696,8 +2708,14 @@
       <c r="IM3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IN3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3444,8 +3462,14 @@
       <c r="IM4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IN4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IO4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4192,7 +4216,13 @@
       <c r="IM5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IN5" t="n">
+      <c r="IN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4940,8 +4970,14 @@
       <c r="IM6" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IN6" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IO6" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5688,8 +5724,14 @@
       <c r="IM7" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IN7" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="IO7" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6436,8 +6478,14 @@
       <c r="IM8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IN8" t="n">
+      <c r="IN8" s="1" t="n">
         <v>-35</v>
+      </c>
+      <c r="IO8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7184,8 +7232,14 @@
       <c r="IM9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IN9" t="n">
+      <c r="IN9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IO9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7932,8 +7986,14 @@
       <c r="IM10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IN10" t="n">
+      <c r="IN10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8680,8 +8740,14 @@
       <c r="IM11" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="IN11" t="n">
+      <c r="IN11" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IO11" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9428,8 +9494,14 @@
       <c r="IM12" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="IN12" t="n">
+      <c r="IN12" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="IO12" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10176,8 +10248,14 @@
       <c r="IM13" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="IN13" t="n">
+      <c r="IN13" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="IO13" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10924,8 +11002,14 @@
       <c r="IM14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IN14" t="n">
+      <c r="IN14" s="1" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IO14" s="1" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11672,8 +11756,14 @@
       <c r="IM15" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="IN15" t="n">
+      <c r="IN15" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="IO15" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12420,8 +12510,14 @@
       <c r="IM16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IN16" t="n">
+      <c r="IN16" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IO16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13168,8 +13264,14 @@
       <c r="IM17" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IN17" t="n">
+      <c r="IN17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IO17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13916,8 +14018,14 @@
       <c r="IM18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IN18" t="n">
+      <c r="IN18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IO18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14664,8 +14772,14 @@
       <c r="IM19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IN19" t="n">
+      <c r="IN19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IO19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15412,8 +15526,14 @@
       <c r="IM20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IN20" t="n">
+      <c r="IN20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IO20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16160,8 +16280,14 @@
       <c r="IM21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IN21" t="n">
+      <c r="IN21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO21" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16908,8 +17034,14 @@
       <c r="IM22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IN22" t="n">
+      <c r="IN22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17656,8 +17788,14 @@
       <c r="IM23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IN23" t="n">
+      <c r="IN23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IO23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18404,8 +18542,14 @@
       <c r="IM24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IN24" t="n">
+      <c r="IN24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IO24" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19152,8 +19296,14 @@
       <c r="IM25" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="IN25" t="n">
+      <c r="IN25" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="IO25" s="1" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>54.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19900,8 +20050,14 @@
       <c r="IM26" s="1" t="n">
         <v>28.86</v>
       </c>
-      <c r="IN26" t="n">
+      <c r="IN26" s="1" t="n">
         <v>42.33</v>
+      </c>
+      <c r="IO26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>22.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20648,8 +20804,14 @@
       <c r="IM27" s="1" t="n">
         <v>16.83</v>
       </c>
-      <c r="IN27" t="n">
+      <c r="IN27" s="1" t="n">
         <v>22.41</v>
+      </c>
+      <c r="IO27" s="1" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21396,8 +21558,14 @@
       <c r="IM28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IN28" t="n">
+      <c r="IN28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IO28" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22144,8 +22312,14 @@
       <c r="IM29" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IN29" t="n">
+      <c r="IN29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IO29" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22892,8 +23066,14 @@
       <c r="IM30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IN30" t="n">
+      <c r="IN30" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IO30" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23640,8 +23820,14 @@
       <c r="IM31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IN31" t="n">
+      <c r="IN31" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IO31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24388,8 +24574,14 @@
       <c r="IM32" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="IN32" t="n">
+      <c r="IN32" s="1" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IO32" s="1" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25136,8 +25328,14 @@
       <c r="IM33" s="1" t="n">
         <v>3.57</v>
       </c>
-      <c r="IN33" t="n">
+      <c r="IN33" s="1" t="n">
         <v>4.22</v>
+      </c>
+      <c r="IO33" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25884,8 +26082,14 @@
       <c r="IM34" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IN34" t="n">
+      <c r="IN34" s="1" t="n">
         <v>39.5</v>
+      </c>
+      <c r="IO34" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26632,8 +26836,14 @@
       <c r="IM35" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IN35" t="n">
+      <c r="IN35" s="1" t="n">
         <v>23.7</v>
+      </c>
+      <c r="IO35" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27380,8 +27590,14 @@
       <c r="IM36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IN36" t="n">
+      <c r="IN36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IO36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28128,8 +28344,14 @@
       <c r="IM37" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="IN37" t="n">
+      <c r="IN37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IO37" s="1" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28876,8 +29098,14 @@
       <c r="IM38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="IN38" t="n">
+      <c r="IN38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IO38" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29624,8 +29852,14 @@
       <c r="IM39" s="1" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="IN39" t="n">
+      <c r="IN39" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IO39" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30372,7 +30606,13 @@
       <c r="IM40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IN40" t="n">
+      <c r="IN40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IO40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31120,8 +31360,14 @@
       <c r="IM41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IN41" t="n">
+      <c r="IN41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IO41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -31868,8 +32114,14 @@
       <c r="IM42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IN42" t="n">
+      <c r="IN42" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IO42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -32616,7 +32868,13 @@
       <c r="IM43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IN43" t="n">
+      <c r="IN43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33364,8 +33622,14 @@
       <c r="IM44" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="IN44" t="n">
+      <c r="IN44" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="IO44" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34112,8 +34376,14 @@
       <c r="IM45" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="IN45" t="n">
+      <c r="IN45" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="IO45" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34860,8 +35130,14 @@
       <c r="IM46" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="IN46" t="n">
+      <c r="IN46" s="1" t="n">
         <v>295</v>
+      </c>
+      <c r="IO46" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35608,8 +35884,14 @@
       <c r="IM47" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="IN47" t="n">
+      <c r="IN47" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="IO47" s="1" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36356,8 +36638,14 @@
       <c r="IM48" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="IN48" t="n">
+      <c r="IN48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IO48" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37104,7 +37392,13 @@
       <c r="IM49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IN49" t="n">
+      <c r="IN49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IO49" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -37852,8 +38146,14 @@
       <c r="IM50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IN50" t="n">
+      <c r="IN50" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IO50" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38600,8 +38900,14 @@
       <c r="IM51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IN51" t="n">
+      <c r="IN51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IO51" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39348,8 +39654,14 @@
       <c r="IM52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IN52" t="n">
+      <c r="IN52" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IO52" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40096,8 +40408,14 @@
       <c r="IM53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IN53" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IO53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40844,8 +41162,14 @@
       <c r="IM54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IN54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IO54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41592,8 +41916,14 @@
       <c r="IM55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IN55" t="n">
+      <c r="IN55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO55" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42340,8 +42670,14 @@
       <c r="IM56" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IN56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IO56" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43088,8 +43424,14 @@
       <c r="IM57" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IN57" t="n">
+      <c r="IN57" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="IO57" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43836,8 +44178,14 @@
       <c r="IM58" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="IN58" t="n">
+      <c r="IN58" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="IO58" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44584,8 +44932,14 @@
       <c r="IM59" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="IN59" t="n">
+      <c r="IN59" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="IO59" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45332,8 +45686,14 @@
       <c r="IM60" s="1" t="n">
         <v>2.04</v>
       </c>
-      <c r="IN60" t="n">
+      <c r="IN60" s="1" t="n">
         <v>1.61</v>
+      </c>
+      <c r="IO60" s="1" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46080,8 +46440,14 @@
       <c r="IM61" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="IN61" t="n">
+      <c r="IN61" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="IO61" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46828,8 +47194,14 @@
       <c r="IM62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IN62" t="n">
+      <c r="IN62" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IO62" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47576,8 +47948,14 @@
       <c r="IM63" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IN63" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IO63" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48324,8 +48702,14 @@
       <c r="IM64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IN64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IO64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49072,8 +49456,14 @@
       <c r="IM65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IN65" t="n">
+      <c r="IN65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IO65" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49820,8 +50210,14 @@
       <c r="IM66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IN66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IO66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50568,8 +50964,14 @@
       <c r="IM67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IN67" t="n">
+      <c r="IN67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IO67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51316,8 +51718,14 @@
       <c r="IM68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IN68" t="n">
+      <c r="IN68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IO68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52064,8 +52472,14 @@
       <c r="IM69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IN69" t="n">
+      <c r="IN69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IO69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -52812,8 +53226,14 @@
       <c r="IM70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IN70" t="n">
+      <c r="IN70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IO70" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53560,8 +53980,14 @@
       <c r="IM71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IN71" t="n">
+      <c r="IN71" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IO71" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54308,8 +54734,14 @@
       <c r="IM72" s="1" t="n">
         <v>27.38</v>
       </c>
-      <c r="IN72" t="n">
+      <c r="IN72" s="1" t="n">
         <v>25.57</v>
+      </c>
+      <c r="IO72" s="1" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55056,8 +55488,14 @@
       <c r="IM73" s="1" t="n">
         <v>13.69</v>
       </c>
-      <c r="IN73" t="n">
+      <c r="IN73" s="1" t="n">
         <v>13.26</v>
+      </c>
+      <c r="IO73" s="1" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>20.17</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55804,8 +56242,14 @@
       <c r="IM74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IN74" t="n">
+      <c r="IN74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IO74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -56552,8 +56996,14 @@
       <c r="IM75" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IN75" t="n">
+      <c r="IN75" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IO75" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57300,8 +57750,14 @@
       <c r="IM76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IN76" t="n">
+      <c r="IN76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IO76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58048,8 +58504,14 @@
       <c r="IM77" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IN77" t="n">
+      <c r="IN77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IO77" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58796,8 +59258,14 @@
       <c r="IM78" s="1" t="n">
         <v>1.81</v>
       </c>
-      <c r="IN78" t="n">
+      <c r="IN78" s="1" t="n">
         <v>2.07</v>
+      </c>
+      <c r="IO78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59544,8 +60012,14 @@
       <c r="IM79" s="1" t="n">
         <v>3.62</v>
       </c>
-      <c r="IN79" t="n">
+      <c r="IN79" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IO79" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -60292,8 +60766,14 @@
       <c r="IM80" s="1" t="n">
         <v>46.8</v>
       </c>
-      <c r="IN80" t="n">
+      <c r="IN80" s="1" t="n">
         <v>41.1</v>
+      </c>
+      <c r="IO80" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -61040,8 +61520,14 @@
       <c r="IM81" s="1" t="n">
         <v>27.7</v>
       </c>
-      <c r="IN81" t="n">
+      <c r="IN81" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IO81" s="1" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -61788,8 +62274,14 @@
       <c r="IM82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IN82" t="n">
+      <c r="IN82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IO82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -62536,8 +63028,14 @@
       <c r="IM83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="IN83" t="n">
+      <c r="IN83" s="1" t="n">
         <v>87.8</v>
+      </c>
+      <c r="IO83" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -63284,8 +63782,14 @@
       <c r="IM84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="IN84" t="n">
+      <c r="IN84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IO84" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -64032,8 +64536,14 @@
       <c r="IM85" s="1" t="n">
         <v>101.8</v>
       </c>
-      <c r="IN85" t="n">
+      <c r="IN85" s="1" t="n">
         <v>84.09999999999999</v>
+      </c>
+      <c r="IO85" s="1" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -64780,8 +65290,14 @@
       <c r="IM86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IN86" t="n">
+      <c r="IN86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IO86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -65528,8 +66044,14 @@
       <c r="IM87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IN87" t="n">
+      <c r="IN87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IO87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -66276,8 +66798,14 @@
       <c r="IM88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IN88" t="n">
+      <c r="IN88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IO88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -67024,8 +67552,14 @@
       <c r="IM89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IN89" t="n">
+      <c r="IN89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IO89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -67772,7 +68306,13 @@
       <c r="IM90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IN90" t="n">
+      <c r="IN90" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="IO90" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="IP90" t="n">
         <v>128</v>
       </c>
     </row>
@@ -68520,8 +69060,14 @@
       <c r="IM91" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="IN91" t="n">
+      <c r="IN91" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="IO91" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -69268,8 +69814,14 @@
       <c r="IM92" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="IN92" t="n">
+      <c r="IN92" s="1" t="n">
         <v>288</v>
+      </c>
+      <c r="IO92" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -70016,8 +70568,14 @@
       <c r="IM93" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="IN93" t="n">
+      <c r="IN93" s="1" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="IO93" s="1" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -70764,8 +71322,14 @@
       <c r="IM94" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IN94" t="n">
+      <c r="IN94" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IO94" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -71512,8 +72076,14 @@
       <c r="IM95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IN95" t="n">
+      <c r="IN95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IO95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -72260,8 +72830,14 @@
       <c r="IM96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IN96" t="n">
+      <c r="IN96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IO96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -73008,8 +73584,14 @@
       <c r="IM97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IN97" t="n">
+      <c r="IN97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IO97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -73756,8 +74338,14 @@
       <c r="IM98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IN98" t="n">
+      <c r="IN98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IO98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -74504,8 +75092,14 @@
       <c r="IM99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IN99" t="n">
+      <c r="IN99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IO99" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -75252,7 +75846,13 @@
       <c r="IM100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IN100" t="n">
+      <c r="IN100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IO100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76000,8 +76600,14 @@
       <c r="IM101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IN101" t="n">
+      <c r="IN101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IO101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -76748,8 +77354,14 @@
       <c r="IM102" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="IN102" t="n">
+      <c r="IN102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IO102" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1206,8 +1206,14 @@
       <c r="IO1" s="1" t="n">
         <v>10603</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="1" t="n">
         <v>10615</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>10623</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10625</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1960,7 +1966,13 @@
       <c r="IO2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2714,8 +2726,14 @@
       <c r="IO3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3468,7 +3486,13 @@
       <c r="IO4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4222,7 +4246,13 @@
       <c r="IO5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4976,8 +5006,14 @@
       <c r="IO6" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="IQ6" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5730,8 +5766,14 @@
       <c r="IO7" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="IQ7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6484,8 +6526,14 @@
       <c r="IO8" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IQ8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7238,7 +7286,13 @@
       <c r="IO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,8 +8046,14 @@
       <c r="IO10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8746,8 +8806,14 @@
       <c r="IO11" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="IQ11" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9500,8 +9566,14 @@
       <c r="IO12" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="IQ12" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10254,8 +10326,14 @@
       <c r="IO13" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="1" t="n">
         <v>388</v>
+      </c>
+      <c r="IQ13" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11008,8 +11086,14 @@
       <c r="IO14" s="1" t="n">
         <v>1.49</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="1" t="n">
         <v>1.68</v>
+      </c>
+      <c r="IQ14" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11762,8 +11846,14 @@
       <c r="IO15" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="IQ15" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12516,8 +12606,14 @@
       <c r="IO16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IQ16" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13270,8 +13366,14 @@
       <c r="IO17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IQ17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14024,8 +14126,14 @@
       <c r="IO18" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14778,8 +14886,14 @@
       <c r="IO19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ19" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15532,8 +15646,14 @@
       <c r="IO20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16286,8 +16406,14 @@
       <c r="IO21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17040,8 +17166,14 @@
       <c r="IO22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17794,8 +17926,14 @@
       <c r="IO23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18548,8 +18686,14 @@
       <c r="IO24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IQ24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19302,8 +19446,14 @@
       <c r="IO25" s="1" t="n">
         <v>58.6</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="1" t="n">
         <v>54.8</v>
+      </c>
+      <c r="IQ25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20056,8 +20206,14 @@
       <c r="IO26" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="1" t="n">
         <v>22.82</v>
+      </c>
+      <c r="IQ26" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>24.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20810,8 +20966,14 @@
       <c r="IO27" s="1" t="n">
         <v>13.48</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="1" t="n">
         <v>12.52</v>
+      </c>
+      <c r="IQ27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21564,8 +21726,14 @@
       <c r="IO28" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IQ28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22318,8 +22486,14 @@
       <c r="IO29" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ29" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23072,8 +23246,14 @@
       <c r="IO30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IQ30" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23826,8 +24006,14 @@
       <c r="IO31" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="IQ31" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24580,8 +24766,14 @@
       <c r="IO32" s="1" t="n">
         <v>2.07</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="1" t="n">
         <v>2.39</v>
+      </c>
+      <c r="IQ32" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25334,8 +25526,14 @@
       <c r="IO33" s="1" t="n">
         <v>3.53</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="1" t="n">
         <v>4.35</v>
+      </c>
+      <c r="IQ33" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26088,8 +26286,14 @@
       <c r="IO34" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="1" t="n">
         <v>40.5</v>
+      </c>
+      <c r="IQ34" s="1" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26842,8 +27046,14 @@
       <c r="IO35" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IQ35" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27596,8 +27806,14 @@
       <c r="IO36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="IQ36" s="1" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28350,8 +28566,14 @@
       <c r="IO37" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IQ37" s="1" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29104,8 +29326,14 @@
       <c r="IO38" s="1" t="n">
         <v>24.58</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="IQ38" s="1" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29858,8 +30086,14 @@
       <c r="IO39" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="1" t="n">
         <v>76.7</v>
+      </c>
+      <c r="IQ39" s="1" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>67.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30612,8 +30846,14 @@
       <c r="IO40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31366,8 +31606,14 @@
       <c r="IO41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32120,7 +32366,13 @@
       <c r="IO42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32874,8 +33126,14 @@
       <c r="IO43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -33628,8 +33886,14 @@
       <c r="IO44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="IQ44" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34382,8 +34646,14 @@
       <c r="IO45" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="IQ45" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35136,8 +35406,14 @@
       <c r="IO46" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="1" t="n">
         <v>294</v>
+      </c>
+      <c r="IQ46" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35890,8 +36166,14 @@
       <c r="IO47" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="1" t="n">
         <v>75.8</v>
+      </c>
+      <c r="IQ47" s="1" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36644,8 +36926,14 @@
       <c r="IO48" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37398,8 +37686,14 @@
       <c r="IO49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ49" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38152,8 +38446,14 @@
       <c r="IO50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38906,8 +39206,14 @@
       <c r="IO51" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IQ51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39660,8 +39966,14 @@
       <c r="IO52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IQ52" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40414,8 +40726,14 @@
       <c r="IO53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ53" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41168,8 +41486,14 @@
       <c r="IO54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41922,8 +42246,14 @@
       <c r="IO55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -42676,8 +43006,14 @@
       <c r="IO56" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="1" t="n">
         <v>64.7</v>
+      </c>
+      <c r="IQ56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43430,8 +43766,14 @@
       <c r="IO57" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="IQ57" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44184,8 +44526,14 @@
       <c r="IO58" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="IQ58" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44938,8 +45286,14 @@
       <c r="IO59" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="1" t="n">
         <v>363</v>
+      </c>
+      <c r="IQ59" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -45692,8 +46046,14 @@
       <c r="IO60" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IQ60" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46446,8 +46806,14 @@
       <c r="IO61" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="IQ61" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47200,8 +47566,14 @@
       <c r="IO62" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IQ62" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47954,8 +48326,14 @@
       <c r="IO63" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IQ63" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -48708,8 +49086,14 @@
       <c r="IO64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ64" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49462,8 +49846,14 @@
       <c r="IO65" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50216,8 +50606,14 @@
       <c r="IO66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50970,8 +51366,14 @@
       <c r="IO67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -51724,8 +52126,14 @@
       <c r="IO68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52478,7 +52886,13 @@
       <c r="IO69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53232,8 +53646,14 @@
       <c r="IO70" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IQ70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53986,8 +54406,14 @@
       <c r="IO71" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IQ71" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -54740,8 +55166,14 @@
       <c r="IO72" s="1" t="n">
         <v>29.1</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="1" t="n">
         <v>36.3</v>
+      </c>
+      <c r="IQ72" s="1" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55494,8 +55926,14 @@
       <c r="IO73" s="1" t="n">
         <v>20.79</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="1" t="n">
         <v>20.17</v>
+      </c>
+      <c r="IQ73" s="1" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>15.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56248,8 +56686,14 @@
       <c r="IO74" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IQ74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57002,8 +57446,14 @@
       <c r="IO75" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ75" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -57756,8 +58206,14 @@
       <c r="IO76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IQ76" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58510,8 +58966,14 @@
       <c r="IO77" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IQ77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59264,8 +59726,14 @@
       <c r="IO78" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="1" t="n">
         <v>2.72</v>
+      </c>
+      <c r="IQ78" s="1" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60018,8 +60486,14 @@
       <c r="IO79" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="1" t="n">
         <v>4.9</v>
+      </c>
+      <c r="IQ79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -60772,8 +61246,14 @@
       <c r="IO80" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="1" t="n">
         <v>34.7</v>
+      </c>
+      <c r="IQ80" s="1" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -61526,8 +62006,14 @@
       <c r="IO81" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="1" t="n">
         <v>20.4</v>
+      </c>
+      <c r="IQ81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>23.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62280,8 +62766,14 @@
       <c r="IO82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IQ82" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63034,8 +63526,14 @@
       <c r="IO83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IQ83" s="1" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -63788,8 +64286,14 @@
       <c r="IO84" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="IQ84" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -64542,8 +65046,14 @@
       <c r="IO85" s="1" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="1" t="n">
         <v>56.5</v>
+      </c>
+      <c r="IQ85" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>104.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65296,8 +65806,14 @@
       <c r="IO86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -66050,8 +66566,14 @@
       <c r="IO87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -66804,8 +67326,14 @@
       <c r="IO88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -67558,8 +68086,14 @@
       <c r="IO89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68312,8 +68846,14 @@
       <c r="IO90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="IQ90" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69066,8 +69606,14 @@
       <c r="IO91" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="IQ91" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -69820,8 +70366,14 @@
       <c r="IO92" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="IQ92" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -70574,8 +71126,14 @@
       <c r="IO93" s="1" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="1" t="n">
         <v>77.09999999999999</v>
+      </c>
+      <c r="IQ93" s="1" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71328,8 +71886,14 @@
       <c r="IO94" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ94" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72082,8 +72646,14 @@
       <c r="IO95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ95" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -72836,8 +73406,14 @@
       <c r="IO96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -73590,8 +74166,14 @@
       <c r="IO97" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IQ97" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74344,8 +74926,14 @@
       <c r="IO98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IQ98" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -75098,8 +75686,14 @@
       <c r="IO99" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IQ99" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -75852,7 +76446,13 @@
       <c r="IO100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76606,8 +77206,14 @@
       <c r="IO101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77360,8 +77966,14 @@
       <c r="IO102" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IQ102" s="1" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Carlton_stats.xlsx
+++ b/django_AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1212,8 +1212,26 @@
       <c r="IQ1" s="1" t="n">
         <v>10623</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="1" t="n">
         <v>10625</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>10635</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>10651</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>10657</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>10661</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>10671</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>10687</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1972,7 +1990,25 @@
       <c r="IQ2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2732,8 +2768,26 @@
       <c r="IQ3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3492,8 +3546,26 @@
       <c r="IQ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IS4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4252,8 +4324,26 @@
       <c r="IQ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5012,8 +5102,26 @@
       <c r="IQ6" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="1" t="n">
         <v>102</v>
+      </c>
+      <c r="IS6" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="IT6" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="IU6" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IV6" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="IW6" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5772,8 +5880,26 @@
       <c r="IQ7" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="IS7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="IT7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU7" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="IV7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IW7" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6532,8 +6658,26 @@
       <c r="IQ8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IS8" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="IT8" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IU8" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="IV8" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IW8" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7292,7 +7436,25 @@
       <c r="IQ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8052,8 +8214,26 @@
       <c r="IQ10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IS10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8812,8 +8992,26 @@
       <c r="IQ11" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="IS11" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="IT11" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IU11" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="IV11" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="IW11" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9572,8 +9770,26 @@
       <c r="IQ12" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="IS12" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="IT12" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="IU12" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="IV12" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="IW12" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10332,8 +10548,26 @@
       <c r="IQ13" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="1" t="n">
         <v>370</v>
+      </c>
+      <c r="IS13" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="IT13" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="IU13" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="IV13" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="IW13" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11092,8 +11326,26 @@
       <c r="IQ14" s="1" t="n">
         <v>1.41</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="1" t="n">
         <v>1.42</v>
+      </c>
+      <c r="IS14" s="1" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="IT14" s="1" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="IU14" s="1" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="IV14" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="IW14" s="1" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11852,8 +12104,26 @@
       <c r="IQ15" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IS15" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="IT15" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="IU15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="IV15" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="IW15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12612,8 +12882,26 @@
       <c r="IQ16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IS16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IT16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU16" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="IV16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="IW16" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -13372,8 +13660,26 @@
       <c r="IQ17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IS17" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IT17" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IU17" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV17" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IW17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14132,8 +14438,26 @@
       <c r="IQ18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IS18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IT18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="IU18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IV18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14892,8 +15216,26 @@
       <c r="IQ19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IS19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IT19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IU19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IV19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15652,8 +15994,26 @@
       <c r="IQ20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IS20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IU20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -16412,8 +16772,26 @@
       <c r="IQ21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IS21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -17172,8 +17550,26 @@
       <c r="IQ22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17932,8 +18328,26 @@
       <c r="IQ23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IS23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18692,8 +19106,26 @@
       <c r="IQ24" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IS24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IT24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IU24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IV24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IW24" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -19452,8 +19884,26 @@
       <c r="IQ25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IS25" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IT25" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IU25" s="1" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="IV25" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IW25" s="1" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>54.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -20212,8 +20662,26 @@
       <c r="IQ26" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="1" t="n">
         <v>24.67</v>
+      </c>
+      <c r="IS26" s="1" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="IT26" s="1" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="IU26" s="1" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="IV26" s="1" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="IW26" s="1" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>21.65</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20972,8 +21440,26 @@
       <c r="IQ27" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="1" t="n">
         <v>13.7</v>
+      </c>
+      <c r="IS27" s="1" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="IT27" s="1" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="IU27" s="1" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="IV27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IW27" s="1" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21732,8 +22218,26 @@
       <c r="IQ28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IS28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IT28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IU28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV28" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -22492,8 +22996,26 @@
       <c r="IQ29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS29" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="IT29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU29" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="IV29" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IW29" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -23252,8 +23774,26 @@
       <c r="IQ30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS30" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IT30" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IU30" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="IV30" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW30" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -24012,8 +24552,26 @@
       <c r="IQ31" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IS31" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IT31" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IV31" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="IW31" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="IX31" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24772,8 +25330,26 @@
       <c r="IQ32" s="1" t="n">
         <v>2.13</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="1" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IS32" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="IT32" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="IU32" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="IV32" s="1" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="IW32" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="IX32" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -25532,8 +26108,26 @@
       <c r="IQ33" s="1" t="n">
         <v>4.27</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="1" t="n">
         <v>3.27</v>
+      </c>
+      <c r="IS33" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="IT33" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="IU33" s="1" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="IV33" s="1" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="IW33" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="IX33" t="n">
+        <v>4.06</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -26292,8 +26886,26 @@
       <c r="IQ34" s="1" t="n">
         <v>40.6</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IS34" s="1" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="IT34" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IU34" s="1" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="IV34" s="1" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="IW34" s="1" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="IX34" t="n">
+        <v>40.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -27052,8 +27664,26 @@
       <c r="IQ35" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="1" t="n">
         <v>30.6</v>
+      </c>
+      <c r="IS35" s="1" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="IT35" s="1" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="IU35" s="1" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="IV35" s="1" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="IW35" s="1" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="IX35" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27812,8 +28442,26 @@
       <c r="IQ36" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IS36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="IT36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IU36" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IV36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IW36" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IX36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -28572,8 +29220,26 @@
       <c r="IQ37" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IS37" s="1" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="IT37" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="IU37" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IV37" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IW37" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IX37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -29332,8 +29998,26 @@
       <c r="IQ38" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IS38" s="1" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IT38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IU38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IV38" s="1" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="IW38" s="1" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="IX38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -30092,8 +30776,26 @@
       <c r="IQ39" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="1" t="n">
         <v>67.5</v>
+      </c>
+      <c r="IS39" s="1" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="IT39" s="1" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="IU39" s="1" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="IV39" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="IW39" s="1" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="IX39" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30852,8 +31554,26 @@
       <c r="IQ40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -31612,8 +32332,26 @@
       <c r="IQ41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IS41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -32372,8 +33110,26 @@
       <c r="IQ42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IS42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -33132,8 +33888,26 @@
       <c r="IQ43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IS43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -33892,8 +34666,26 @@
       <c r="IQ44" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="IS44" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IT44" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="IU44" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="IV44" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IW44" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -34652,8 +35444,26 @@
       <c r="IQ45" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="IS45" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="IT45" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IU45" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="IV45" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="IW45" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -35412,8 +36222,26 @@
       <c r="IQ46" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="1" t="n">
         <v>286</v>
+      </c>
+      <c r="IS46" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="IT46" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="IU46" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="IV46" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="IW46" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="IX46" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -36172,8 +37000,26 @@
       <c r="IQ47" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="IS47" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="IT47" s="1" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IU47" s="1" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="IV47" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="IW47" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IX47" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36932,8 +37778,26 @@
       <c r="IQ48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS48" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="IT48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU48" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="IV48" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IW48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IX48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -37692,8 +38556,26 @@
       <c r="IQ49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IS49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU49" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IV49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW49" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -38452,8 +39334,26 @@
       <c r="IQ50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IS50" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT50" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW50" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -39212,8 +40112,26 @@
       <c r="IQ51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IS51" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="IT51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IU51" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV51" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW51" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -39972,8 +40890,26 @@
       <c r="IQ52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IS52" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IT52" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IU52" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="IV52" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW52" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX52" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -40732,8 +41668,26 @@
       <c r="IQ53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IS53" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IT53" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IU53" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="IV53" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IX53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -41492,8 +42446,26 @@
       <c r="IQ54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IS54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT54" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU54" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -42252,8 +43224,26 @@
       <c r="IQ55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IS55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -43012,8 +44002,26 @@
       <c r="IQ56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IS56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IT56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IU56" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="IV56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IW56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IX56" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -43772,8 +44780,26 @@
       <c r="IQ57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IS57" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="IT57" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="IU57" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="IV57" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="IW57" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IX57" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -44532,8 +45558,26 @@
       <c r="IQ58" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="IS58" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="IT58" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="IU58" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="IV58" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="IW58" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="IX58" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -45292,8 +46336,26 @@
       <c r="IQ59" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="1" t="n">
         <v>338</v>
+      </c>
+      <c r="IS59" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="IT59" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="IU59" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="IV59" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="IW59" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="IX59" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -46052,8 +47114,26 @@
       <c r="IQ60" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IS60" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="IT60" s="1" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="IU60" s="1" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="IV60" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="IW60" s="1" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="IX60" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -46812,8 +47892,26 @@
       <c r="IQ61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="IS61" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="IT61" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="IU61" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="IV61" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="IW61" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="IX61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -47572,7 +48670,25 @@
       <c r="IQ62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IS62" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IT62" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="IU62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="IV62" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="IW62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX62" t="n">
         <v>50</v>
       </c>
     </row>
@@ -48332,8 +49448,26 @@
       <c r="IQ63" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IS63" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="IT63" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="IU63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="IV63" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="IW63" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IX63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -49092,8 +50226,26 @@
       <c r="IQ64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IS64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IT64" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IU64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IV64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW64" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -49852,8 +51004,26 @@
       <c r="IQ65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IS65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IT65" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="IU65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IV65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW65" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="IX65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -50612,8 +51782,26 @@
       <c r="IQ66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IS66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW66" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -51372,8 +52560,26 @@
       <c r="IQ67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -52132,8 +53338,26 @@
       <c r="IQ68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IS68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -52892,7 +54116,25 @@
       <c r="IQ69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53652,8 +54894,26 @@
       <c r="IQ70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IS70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="IT70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IU70" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IV70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="IX70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -54412,8 +55672,26 @@
       <c r="IQ71" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="1" t="n">
         <v>59.1</v>
+      </c>
+      <c r="IS71" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="IT71" s="1" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="IU71" s="1" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="IV71" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="IW71" s="1" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="IX71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -55172,8 +56450,26 @@
       <c r="IQ72" s="1" t="n">
         <v>32.18</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IS72" s="1" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="IT72" s="1" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="IU72" s="1" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="IV72" s="1" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="IW72" s="1" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="IX72" t="n">
+        <v>37.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -55932,8 +57228,26 @@
       <c r="IQ73" s="1" t="n">
         <v>17.7</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="1" t="n">
         <v>15.36</v>
+      </c>
+      <c r="IS73" s="1" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="IT73" s="1" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="IU73" s="1" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="IV73" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IW73" s="1" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="IX73" t="n">
+        <v>22.92</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -56692,8 +58006,26 @@
       <c r="IQ74" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IS74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IT74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="IU74" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IV74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IW74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -57452,8 +58784,26 @@
       <c r="IQ75" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="IS75" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="IT75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU75" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="IV75" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IW75" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IX75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -58212,8 +59562,26 @@
       <c r="IQ76" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IS76" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IT76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IU76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IV76" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IW76" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -58972,8 +60340,26 @@
       <c r="IQ77" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IS77" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IT77" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="IU77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="IV77" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IW77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IX77" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -59732,8 +61118,26 @@
       <c r="IQ78" s="1" t="n">
         <v>2.35</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="1" t="n">
         <v>2.55</v>
+      </c>
+      <c r="IS78" s="1" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="IT78" s="1" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IU78" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="IV78" s="1" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="IW78" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="IX78" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -60492,8 +61896,26 @@
       <c r="IQ79" s="1" t="n">
         <v>4.27</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="1" t="n">
         <v>4.31</v>
+      </c>
+      <c r="IS79" s="1" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="IT79" s="1" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="IU79" s="1" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="IV79" s="1" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="IW79" s="1" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="IX79" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -61252,8 +62674,26 @@
       <c r="IQ80" s="1" t="n">
         <v>38.3</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="1" t="n">
         <v>37.5</v>
+      </c>
+      <c r="IS80" s="1" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="IT80" s="1" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="IU80" s="1" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="IV80" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="IW80" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="IX80" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -62012,8 +63452,26 @@
       <c r="IQ81" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="1" t="n">
         <v>23.2</v>
+      </c>
+      <c r="IS81" s="1" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="IT81" s="1" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="IU81" s="1" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="IV81" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="IW81" s="1" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="IX81" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -62772,8 +64230,26 @@
       <c r="IQ82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="1" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IS82" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IT82" s="1" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="IU82" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="IV82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IW82" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IX82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -63532,8 +65008,26 @@
       <c r="IQ83" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IS83" s="1" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="IT83" s="1" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IU83" s="1" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="IV83" s="1" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="IW83" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IX83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -64292,8 +65786,26 @@
       <c r="IQ84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IS84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="IT84" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IU84" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="IV84" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IW84" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IX84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -65052,8 +66564,26 @@
       <c r="IQ85" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="1" t="n">
         <v>104.2</v>
+      </c>
+      <c r="IS85" s="1" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="IT85" s="1" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="IU85" s="1" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="IV85" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IW85" s="1" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="IX85" t="n">
+        <v>113.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -65812,8 +67342,26 @@
       <c r="IQ86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -66572,8 +68120,26 @@
       <c r="IQ87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IS87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT87" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV87" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW87" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -67332,8 +68898,26 @@
       <c r="IQ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IS88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW88" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -68092,8 +69676,26 @@
       <c r="IQ89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IS89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -68852,8 +70454,26 @@
       <c r="IQ90" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="IS90" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="IT90" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="IU90" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="IV90" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="IW90" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="IX90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -69612,8 +71232,26 @@
       <c r="IQ91" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="IS91" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="IT91" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="IU91" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="IV91" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="IW91" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="IX91" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -70372,8 +72010,26 @@
       <c r="IQ92" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="IS92" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="IT92" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="IU92" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="IV92" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="IW92" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="IX92" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -71132,8 +72788,26 @@
       <c r="IQ93" s="1" t="n">
         <v>76.8</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="IS93" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="IT93" s="1" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IU93" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="IV93" s="1" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="IW93" s="1" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="IX93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -71892,8 +73566,26 @@
       <c r="IQ94" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="IS94" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="IT94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU94" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="IV94" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IW94" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IX94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -72652,8 +74344,26 @@
       <c r="IQ95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IS95" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="IU95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW95" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -73412,8 +75122,26 @@
       <c r="IQ96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IS96" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IT96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IU96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -74172,8 +75900,26 @@
       <c r="IQ97" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IS97" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="IT97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="IU97" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IV97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IW97" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -74932,8 +76678,26 @@
       <c r="IQ98" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IS98" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="IT98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IU98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="IV98" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="IW98" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX98" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -75692,8 +77456,26 @@
       <c r="IQ99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IS99" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="IT99" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IU99" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IV99" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="IW99" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IX99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -76452,8 +78234,26 @@
       <c r="IQ100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IS100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU100" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW100" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -77212,8 +79012,26 @@
       <c r="IQ101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IS101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW101" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -77972,8 +79790,26 @@
       <c r="IQ102" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IS102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IT102" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IU102" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="IV102" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IW102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="IX102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
